--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -190,10 +190,18 @@
       <c r="F3" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="G3" t="n">
+        <v>0.3247655656306789</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8510389451872494</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.814211988884478</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6734112081489182</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -244,10 +252,18 @@
       <c r="F5" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+      <c r="G5" t="n">
+        <v>0.1582972014017864</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8176521130149609</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6739130434782609</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8684542281089995</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -300,10 +316,18 @@
       <c r="F7" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
+      <c r="G7" t="n">
+        <v>0.32140335279636356</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8540958948136341</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8008146639511201</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7036557007832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -354,10 +378,18 @@
       <c r="F9" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
+      <c r="G9" t="n">
+        <v>0.15420709804043034</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8223974706285869</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6542185338865837</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8777276251805476</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -410,10 +442,18 @@
       <c r="F11" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="G11" t="n">
+        <v>0.3198598260200859</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8549213272845131</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.791544579321892</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7308534590941606</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -464,10 +504,18 @@
       <c r="F13" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="G13" t="n">
+        <v>0.15133065200744933</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.82525467718903</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.6283687943262412</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8845905721944213</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -520,10 +568,18 @@
       <c r="F15" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
+      <c r="G15" t="n">
+        <v>0.3141053615113406</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8607792747570913</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.7837139164153382</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7744869765302361</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -574,10 +630,18 @@
       <c r="F17" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
+      <c r="G17" t="n">
+        <v>0.14547095445439315</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8365222709612775</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5916542473919523</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.895731703936938</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -630,10 +694,18 @@
       <c r="F19" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
+      <c r="G19" t="n">
+        <v>0.2843037980810005</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8876573605858986</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8382661416609113</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -684,10 +756,18 @@
       <c r="F21" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
+      <c r="G21" t="n">
+        <v>0.11649086864672376</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8922133911037925</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5778546712802768</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.9198931708072243</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -740,10 +820,18 @@
       <c r="F23" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="G23" t="n">
+        <v>0.3710841210877487</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8157707533973739</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8065191387559809</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6742559723629439</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -794,10 +882,18 @@
       <c r="F25" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="G25" t="n">
+        <v>0.2043726054665439</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7354417155245163</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5966633954857704</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8690429747974696</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -850,10 +946,18 @@
       <c r="F27" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="G27" t="n">
+        <v>0.3676390026967428</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8194567106072731</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.7988757026858213</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7044596584576083</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -904,10 +1008,18 @@
       <c r="F29" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
+      <c r="G29" t="n">
+        <v>0.19897242260520354</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7420094620945499</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.623541887592789</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.8783290115203445</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -960,10 +1072,18 @@
       <c r="F31" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
+      <c r="G31" t="n">
+        <v>0.36631364047958165</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.8210800816623047</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7904577691811734</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.7316428848496639</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1014,10 +1134,18 @@
       <c r="F33" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
+      <c r="G33" t="n">
+        <v>0.19573433018731706</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7464403139975186</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6306306306306306</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8851917188060595</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1070,10 +1198,18 @@
       <c r="F35" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
+      <c r="G35" t="n">
+        <v>0.36049120280431096</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8279863864131665</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7655642023346303</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.775288774579196</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1124,10 +1260,18 @@
       <c r="F37" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
+      <c r="G37" t="n">
+        <v>0.18887084609896482</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7609040015172436</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6116389548693587</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8963468724564845</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1180,10 +1324,18 @@
       <c r="F39" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
+      <c r="G39" t="n">
+        <v>0.331355732550252</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.8592005562319854</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7929271410311035</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8389230677313156</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1234,10 +1386,18 @@
       <c r="F41" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
+      <c r="G41" t="n">
+        <v>0.15311995724004976</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8326626354921056</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.6166180758017493</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.9203850100899423</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1290,10 +1450,18 @@
       <c r="F43" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
+      <c r="G43" t="n">
+        <v>0.4240473988929942</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.7710467629154041</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8195666166058786</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6757498790887626</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1344,10 +1512,18 @@
       <c r="F45" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
+      <c r="G45" t="n">
+        <v>0.2631231324171964</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6393144844073759</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.566542750929368</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8698308646821961</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1400,10 +1576,18 @@
       <c r="F47" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
+      <c r="G47" t="n">
+        <v>0.42011164579384974</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.7751976414750522</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8049420511699104</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.7060257617360511</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1454,10 +1638,18 @@
       <c r="F49" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
+      <c r="G49" t="n">
+        <v>0.25699676539235583</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.6459521538851737</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.5935222672064777</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.879076879223915</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1510,10 +1702,18 @@
       <c r="F51" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
+      <c r="G51" t="n">
+        <v>0.4188960930520189</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.7776762915323951</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.7950894905920147</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.7331069331572669</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1564,10 +1764,18 @@
       <c r="F53" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
+      <c r="G53" t="n">
+        <v>0.2536441770985824</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.6481039829077767</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.5598086124401914</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.8859315193388433</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
@@ -1620,10 +1828,18 @@
       <c r="F55" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
+      <c r="G55" t="n">
+        <v>0.41295242105731106</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.7851626854362938</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.7713874910136592</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.7766053129747774</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
@@ -1674,10 +1890,18 @@
       <c r="F57" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
+      <c r="G57" t="n">
+        <v>0.24587854591987765</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.6616058166504486</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5279552715654952</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.8971079098241181</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
@@ -1730,10 +1954,18 @@
       <c r="F59" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
+      <c r="G59" t="n">
+        <v>0.3837478871470788</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8208160640031651</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7548876568427196</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8401014432490589</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
@@ -1784,10 +2016,18 @@
       <c r="F61" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
+      <c r="G61" t="n">
+        <v>0.2052200054960527</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.7462351375051958</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.5726141078838174</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.921077925696879</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
@@ -1840,10 +2080,18 @@
       <c r="F63" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
+      <c r="G63" t="n">
+        <v>0.582092770054862</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5878159170726804</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.6126513080827801</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.6828508612788972</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
@@ -1896,10 +2144,18 @@
       <c r="F65" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
+      <c r="G65" t="n">
+        <v>0.46015663343934127</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.3974444663857577</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.2604758042714247</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8756991212247717</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
@@ -1952,10 +2208,18 @@
       <c r="F67" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
+      <c r="G67" t="n">
+        <v>0.5757945606363448</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.5977795196015564</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6059697514824439</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.7132524390860334</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
@@ -2008,10 +2272,18 @@
       <c r="F69" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
+      <c r="G69" t="n">
+        <v>0.4518468168022323</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.4089419674879864</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.2548778823850457</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.8848720575117416</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
@@ -2064,10 +2336,18 @@
       <c r="F71" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
+      <c r="G71" t="n">
+        <v>0.574017331335398</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.6016158163788364</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.5958114468926939</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.7404427326765537</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -2120,10 +2400,18 @@
       <c r="F73" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
+      <c r="G73" t="n">
+        <v>0.4484247930556457</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.4097275594679735</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.24801532986586367</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.8916578071776379</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -2176,10 +2464,18 @@
       <c r="F75" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
+      <c r="G75" t="n">
+        <v>0.5667318238310566</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.6144072204268942</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.5860045792787636</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.7840002127927939</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -2232,10 +2528,18 @@
       <c r="F77" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
+      <c r="G77" t="n">
+        <v>0.44033896438000547</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.4189101115213041</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.2367946762789408</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.9025775023196332</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
@@ -2288,10 +2592,18 @@
       <c r="F79" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
+      <c r="G79" t="n">
+        <v>0.5358216658438265</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.6709717274857955</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.6949766960124288</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.8468804315335213</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
@@ -2344,10 +2656,18 @@
       <c r="F81" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
+      <c r="G81" t="n">
+        <v>0.3940833504576991</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.48260782294294696</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.37559876021414484</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.9253051557025697</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -7008,10 +7008,18 @@
       <c r="F262" t="n">
         <v>100.0</v>
       </c>
-      <c r="G262"/>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
+      <c r="G262" t="n">
+        <v>0.06958317005491856</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.9142490257183872</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.6725884703196348</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -7056,10 +7064,18 @@
       <c r="F264" t="n">
         <v>100.0</v>
       </c>
-      <c r="G264"/>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
+      <c r="G264" t="n">
+        <v>0.03163166063761035</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.93221775329528</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.8729633803410252</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -7104,10 +7120,18 @@
       <c r="F266" t="n">
         <v>100.0</v>
       </c>
-      <c r="G266"/>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
+      <c r="G266" t="n">
+        <v>0.06586685610018748</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.9184850823844322</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.6030927835051546</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.7071905417112572</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -7152,10 +7176,18 @@
       <c r="F268" t="n">
         <v>100.0</v>
       </c>
-      <c r="G268"/>
-      <c r="H268"/>
-      <c r="I268"/>
-      <c r="J268"/>
+      <c r="G268" t="n">
+        <v>0.03312396400659352</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.932123696219843</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.2873134328358209</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.8854381606097612</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -7200,10 +7232,18 @@
       <c r="F270" t="n">
         <v>100.0</v>
       </c>
-      <c r="G270"/>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
+      <c r="G270" t="n">
+        <v>0.06257115078936934</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.9199669894289764</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.7318989767214318</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -7248,10 +7288,18 @@
       <c r="F272" t="n">
         <v>100.0</v>
       </c>
-      <c r="G272"/>
-      <c r="H272"/>
-      <c r="I272"/>
-      <c r="J272"/>
+      <c r="G272" t="n">
+        <v>0.03312104201459336</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.9297243983850833</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.8903128355192522</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
@@ -7296,10 +7344,18 @@
       <c r="F274" t="n">
         <v>100.0</v>
       </c>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
+      <c r="G274" t="n">
+        <v>0.06006374040842187</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.9211538995093036</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.6592797783933518</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.7834970550628784</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -7344,10 +7400,18 @@
       <c r="F276" t="n">
         <v>100.0</v>
       </c>
-      <c r="G276"/>
-      <c r="H276"/>
-      <c r="I276"/>
-      <c r="J276"/>
+      <c r="G276" t="n">
+        <v>0.031036825609498234</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.933803980155301</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.3272058823529412</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.9053874398581919</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -7392,10 +7456,18 @@
       <c r="F278" t="n">
         <v>100.0</v>
       </c>
-      <c r="G278"/>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
+      <c r="G278" t="n">
+        <v>0.04328478072648739</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.9375759678322437</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.6275862068965518</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.8434007813746635</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -7440,10 +7512,18 @@
       <c r="F280" t="n">
         <v>100.0</v>
       </c>
-      <c r="G280"/>
-      <c r="H280"/>
-      <c r="I280"/>
-      <c r="J280"/>
+      <c r="G280" t="n">
+        <v>0.012053124758074551</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.9647078138696212</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.9121238892064647</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
@@ -7488,10 +7568,18 @@
       <c r="F282" t="n">
         <v>100.0</v>
       </c>
-      <c r="G282"/>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
+      <c r="G282" t="n">
+        <v>0.08056414245250416</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.9056700413924144</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.6725835550255328</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -7536,10 +7624,18 @@
       <c r="F284" t="n">
         <v>100.0</v>
       </c>
-      <c r="G284"/>
-      <c r="H284"/>
-      <c r="I284"/>
-      <c r="J284"/>
+      <c r="G284" t="n">
+        <v>0.03549898687291529</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.9298323355943537</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.8731791864881808</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -7584,10 +7680,18 @@
       <c r="F286" t="n">
         <v>100.0</v>
       </c>
-      <c r="G286"/>
-      <c r="H286"/>
-      <c r="I286"/>
-      <c r="J286"/>
+      <c r="G286" t="n">
+        <v>0.07744817060706866</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.9064175277226965</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.7071881768378138</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -7632,10 +7736,18 @@
       <c r="F288" t="n">
         <v>100.0</v>
       </c>
-      <c r="G288"/>
-      <c r="H288"/>
-      <c r="I288"/>
-      <c r="J288"/>
+      <c r="G288" t="n">
+        <v>0.036219085313604356</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.9305664843783815</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.299625468164794</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.8856596699280667</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -7680,10 +7792,18 @@
       <c r="F290" t="n">
         <v>100.0</v>
       </c>
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
+      <c r="G290" t="n">
+        <v>0.07395594302199461</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.9117626529863858</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.5939086294416244</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.7318958751643513</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -7728,10 +7848,18 @@
       <c r="F292" t="n">
         <v>100.0</v>
       </c>
-      <c r="G292"/>
-      <c r="H292"/>
-      <c r="I292"/>
-      <c r="J292"/>
+      <c r="G292" t="n">
+        <v>0.03621089688823755</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.9313549956441298</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.33755274261603374</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.8905374668295354</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -7776,10 +7904,18 @@
       <c r="F294" t="n">
         <v>100.0</v>
       </c>
-      <c r="G294"/>
-      <c r="H294"/>
-      <c r="I294"/>
-      <c r="J294"/>
+      <c r="G294" t="n">
+        <v>0.06891538951884557</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.9144048625137513</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.6483790523690773</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.784493309609273</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -7824,10 +7960,18 @@
       <c r="F296" t="n">
         <v>100.0</v>
       </c>
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
+      <c r="G296" t="n">
+        <v>0.03457148750478834</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.9358537407480043</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.33676975945017185</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.9065462038357901</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -7872,10 +8016,18 @@
       <c r="F298" t="n">
         <v>100.0</v>
       </c>
-      <c r="G298"/>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="J298"/>
+      <c r="G298" t="n">
+        <v>0.0501059862408149</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.9329276421210797</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.6113445378151261</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.8442046350551167</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -7920,10 +8072,18 @@
       <c r="F300" t="n">
         <v>100.0</v>
       </c>
-      <c r="G300"/>
-      <c r="H300"/>
-      <c r="I300"/>
-      <c r="J300"/>
+      <c r="G300" t="n">
+        <v>0.01344984726497505</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.9611408953990874</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.24017467248908297</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.9191388788445716</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -7968,10 +8128,18 @@
       <c r="F302" t="n">
         <v>100.0</v>
       </c>
-      <c r="G302"/>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
+      <c r="G302" t="n">
+        <v>0.0936985207877957</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.8823476904347335</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.6506024096385542</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.6765515791416894</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
@@ -8016,10 +8184,18 @@
       <c r="F304" t="n">
         <v>100.0</v>
       </c>
-      <c r="G304"/>
-      <c r="H304"/>
-      <c r="I304"/>
-      <c r="J304"/>
+      <c r="G304" t="n">
+        <v>0.044050259028707565</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.9169711556364086</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.20600858369098712</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.8756430387911663</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -8064,10 +8240,18 @@
       <c r="F306" t="n">
         <v>100.0</v>
       </c>
-      <c r="G306"/>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
+      <c r="G306" t="n">
+        <v>0.08996898986303829</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.8854883520184786</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.6687306501547987</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.7113065326633166</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -8112,10 +8296,18 @@
       <c r="F308" t="n">
         <v>100.0</v>
       </c>
-      <c r="G308"/>
-      <c r="H308"/>
-      <c r="I308"/>
-      <c r="J308"/>
+      <c r="G308" t="n">
+        <v>0.044846421048464764</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.9171821585235206</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.2546419098143236</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.8881731226549702</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
@@ -8160,10 +8352,18 @@
       <c r="F310" t="n">
         <v>100.0</v>
       </c>
-      <c r="G310"/>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
+      <c r="G310" t="n">
+        <v>0.0865789656621278</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.8920482718148495</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.7361641686194679</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -8208,10 +8408,18 @@
       <c r="F312" t="n">
         <v>100.0</v>
       </c>
-      <c r="G312"/>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
+      <c r="G312" t="n">
+        <v>0.044080914487728634</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.9170931437622021</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.8930688674958523</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -8256,10 +8464,18 @@
       <c r="F314" t="n">
         <v>100.0</v>
       </c>
-      <c r="G314"/>
-      <c r="H314"/>
-      <c r="I314"/>
-      <c r="J314"/>
+      <c r="G314" t="n">
+        <v>0.0797429903362721</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.9061879507285243</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.6609195402298851</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.788444733998273</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -8304,10 +8520,18 @@
       <c r="F316" t="n">
         <v>100.0</v>
       </c>
-      <c r="G316"/>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
+      <c r="G316" t="n">
+        <v>0.04014705150513314</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.9219649521968704</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.2879581151832461</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.9084012333252101</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
@@ -8352,10 +8576,18 @@
       <c r="F318" t="n">
         <v>100.0</v>
       </c>
-      <c r="G318"/>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
+      <c r="G318" t="n">
+        <v>0.05609288070829728</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.9285494412530478</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.6097122302158273</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.846672008685088</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -8400,10 +8632,18 @@
       <c r="F320" t="n">
         <v>100.0</v>
       </c>
-      <c r="G320"/>
-      <c r="H320"/>
-      <c r="I320"/>
-      <c r="J320"/>
+      <c r="G320" t="n">
+        <v>0.020337115171589197</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.9565116448752287</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.9211479140062956</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
@@ -8448,10 +8688,18 @@
       <c r="F322" t="n">
         <v>100.0</v>
       </c>
-      <c r="G322"/>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
+      <c r="G322" t="n">
+        <v>0.14195547818586182</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.8476872400331483</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.6951470378263468</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -8496,10 +8744,18 @@
       <c r="F324" t="n">
         <v>100.0</v>
       </c>
-      <c r="G324"/>
-      <c r="H324"/>
-      <c r="I324"/>
-      <c r="J324"/>
+      <c r="G324" t="n">
+        <v>0.06709641773364629</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.8800066429176152</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.1811320754716981</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.8824434659941008</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -8544,10 +8800,18 @@
       <c r="F326" t="n">
         <v>100.0</v>
       </c>
-      <c r="G326"/>
-      <c r="H326"/>
-      <c r="I326"/>
-      <c r="J326"/>
+      <c r="G326" t="n">
+        <v>0.13604472925464522</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.8507937452474839</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.617059891107078</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.7309062840345553</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -8592,10 +8856,18 @@
       <c r="F328" t="n">
         <v>100.0</v>
       </c>
-      <c r="G328"/>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
+      <c r="G328" t="n">
+        <v>0.06646343363573208</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.8851912357515509</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.1984848484848485</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.8931307062119808</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -8640,10 +8912,18 @@
       <c r="F330" t="n">
         <v>100.0</v>
       </c>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
+      <c r="G330" t="n">
+        <v>0.1304818071937998</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.8533066432237313</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.756420015435525</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -8688,10 +8968,18 @@
       <c r="F332" t="n">
         <v>100.0</v>
       </c>
-      <c r="G332"/>
-      <c r="H332"/>
-      <c r="I332"/>
-      <c r="J332"/>
+      <c r="G332" t="n">
+        <v>0.06514884678884039</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.8857472236715705</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.20153846153846153</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.898052667462076</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -8736,10 +9024,18 @@
       <c r="F334" t="n">
         <v>100.0</v>
       </c>
-      <c r="G334"/>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
+      <c r="G334" t="n">
+        <v>0.12365990086200823</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.8532909151303726</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.6461232604373758</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.802983547235102</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -8784,10 +9080,18 @@
       <c r="F336" t="n">
         <v>100.0</v>
       </c>
-      <c r="G336"/>
-      <c r="H336"/>
-      <c r="I336"/>
-      <c r="J336"/>
+      <c r="G336" t="n">
+        <v>0.060130916363484804</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.8930478698531188</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.20458265139116202</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.9103955998361641</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
@@ -8832,10 +9136,18 @@
       <c r="F338" t="n">
         <v>100.0</v>
       </c>
-      <c r="G338"/>
-      <c r="H338"/>
-      <c r="I338"/>
-      <c r="J338"/>
+      <c r="G338" t="n">
+        <v>0.09066094829124612</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.8821838197463818</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.6042908224076281</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.8552200343942585</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -8880,10 +9192,18 @@
       <c r="F340" t="n">
         <v>100.0</v>
       </c>
-      <c r="G340"/>
-      <c r="H340"/>
-      <c r="I340"/>
-      <c r="J340"/>
+      <c r="G340" t="n">
+        <v>0.0268369492716855</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.9387075931206189</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.215633423180593</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.9228872497365648</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
@@ -8928,10 +9248,18 @@
       <c r="F342" t="n">
         <v>100.0</v>
       </c>
-      <c r="G342"/>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
+      <c r="G342" t="n">
+        <v>0.15129805414516057</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.8377779229876051</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.5835798816568047</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.6991774195266965</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -8976,10 +9304,18 @@
       <c r="F344" t="n">
         <v>100.0</v>
       </c>
-      <c r="G344"/>
-      <c r="H344"/>
-      <c r="I344"/>
-      <c r="J344"/>
+      <c r="G344" t="n">
+        <v>0.07310969325921744</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.8728712460079646</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.16793893129770993</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.8839193880174853</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
@@ -9024,10 +9360,18 @@
       <c r="F346" t="n">
         <v>100.0</v>
       </c>
-      <c r="G346"/>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
+      <c r="G346" t="n">
+        <v>0.14536387297573425</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.8428000593229751</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.5942812982998454</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.7345551270115707</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -9072,10 +9416,18 @@
       <c r="F348" t="n">
         <v>100.0</v>
       </c>
-      <c r="G348"/>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
+      <c r="G348" t="n">
+        <v>0.07324615223123702</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.8775045736783501</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.19101123595505617</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.8964581448750957</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -9120,10 +9472,18 @@
       <c r="F350" t="n">
         <v>100.0</v>
       </c>
-      <c r="G350"/>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
+      <c r="G350" t="n">
+        <v>0.14076878752577301</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.8469241389984425</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.5854700854700855</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.7567491786713786</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -9168,10 +9528,18 @@
       <c r="F352" t="n">
         <v>100.0</v>
       </c>
-      <c r="G352"/>
-      <c r="H352"/>
-      <c r="I352"/>
-      <c r="J352"/>
+      <c r="G352" t="n">
+        <v>0.07139775247220281</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.8767908577723159</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.1934260429835651</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.9013557562100913</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -9216,10 +9584,18 @@
       <c r="F354" t="n">
         <v>100.0</v>
       </c>
-      <c r="G354"/>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
+      <c r="G354" t="n">
+        <v>0.1314327858014805</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.8475802473575618</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.62607861936721</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.8031630273031419</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -9264,10 +9640,18 @@
       <c r="F356" t="n">
         <v>100.0</v>
       </c>
-      <c r="G356"/>
-      <c r="H356"/>
-      <c r="I356"/>
-      <c r="J356"/>
+      <c r="G356" t="n">
+        <v>0.06449503817885392</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.8822502808292478</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.19887955182072828</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.9129928722069462</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -9312,10 +9696,18 @@
       <c r="F358" t="n">
         <v>100.0</v>
       </c>
-      <c r="G358"/>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
+      <c r="G358" t="n">
+        <v>0.09745700952832281</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.8767395117396651</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.6158357771260997</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.8613781037898908</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -9360,10 +9752,18 @@
       <c r="F360" t="n">
         <v>100.0</v>
       </c>
-      <c r="G360"/>
-      <c r="H360"/>
-      <c r="I360"/>
-      <c r="J360"/>
+      <c r="G360" t="n">
+        <v>0.027943708127693076</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.9377618174027267</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.22588235294117648</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.9253221697165752</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
@@ -9408,10 +9808,18 @@
       <c r="F362" t="n">
         <v>100.0</v>
       </c>
-      <c r="G362"/>
-      <c r="H362"/>
-      <c r="I362"/>
-      <c r="J362"/>
+      <c r="G362" t="n">
+        <v>0.16023585782644462</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.8302266764385297</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.5666434054431263</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.6999290208614626</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -9456,10 +9864,18 @@
       <c r="F364" t="n">
         <v>100.0</v>
       </c>
-      <c r="G364"/>
-      <c r="H364"/>
-      <c r="I364"/>
-      <c r="J364"/>
+      <c r="G364" t="n">
+        <v>0.0782057520541788</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.8668557103381267</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.16458333333333333</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.8844864844575283</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
@@ -9504,10 +9920,18 @@
       <c r="F366" t="n">
         <v>100.0</v>
       </c>
-      <c r="G366"/>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
+      <c r="G366" t="n">
+        <v>0.1540623009055373</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.8341838481302543</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.5733715103793844</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.7356725769897347</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -9552,10 +9976,18 @@
       <c r="F368" t="n">
         <v>100.0</v>
       </c>
-      <c r="G368"/>
-      <c r="H368"/>
-      <c r="I368"/>
-      <c r="J368"/>
+      <c r="G368" t="n">
+        <v>0.07660800906562908</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.8717919121118557</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.18396226415094338</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.8968613228621478</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
@@ -9600,10 +10032,18 @@
       <c r="F370" t="n">
         <v>100.0</v>
       </c>
-      <c r="G370"/>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
+      <c r="G370" t="n">
+        <v>0.149383531547298</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.8374537610985364</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.5742647058823529</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.7608067015662195</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -9648,10 +10088,18 @@
       <c r="F372" t="n">
         <v>100.0</v>
       </c>
-      <c r="G372"/>
-      <c r="H372"/>
-      <c r="I372"/>
-      <c r="J372"/>
+      <c r="G372" t="n">
+        <v>0.07503393395644353</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.8739296123005351</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.18593563766388557</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.9017623741161346</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -9696,10 +10144,18 @@
       <c r="F374" t="n">
         <v>100.0</v>
       </c>
-      <c r="G374"/>
-      <c r="H374"/>
-      <c r="I374"/>
-      <c r="J374"/>
+      <c r="G374" t="n">
+        <v>0.13886558348090144</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.8415413346481071</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.6036036036036037</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.8071231422505308</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
@@ -9744,10 +10200,18 @@
       <c r="F376" t="n">
         <v>100.0</v>
       </c>
-      <c r="G376"/>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
+      <c r="G376" t="n">
+        <v>0.06854379402247804</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.8764189506313197</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.1921119592875318</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.9145675947524986</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
@@ -9792,10 +10256,18 @@
       <c r="F378" t="n">
         <v>100.0</v>
       </c>
-      <c r="G378"/>
-      <c r="H378"/>
-      <c r="I378"/>
-      <c r="J378"/>
+      <c r="G378" t="n">
+        <v>0.10694234900014896</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.8654969059890785</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.5730145175064048</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.8635577944697879</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -9840,10 +10312,18 @@
       <c r="F380" t="n">
         <v>100.0</v>
       </c>
-      <c r="G380"/>
-      <c r="H380"/>
-      <c r="I380"/>
-      <c r="J380"/>
+      <c r="G380" t="n">
+        <v>0.030860370150506748</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.9284783825318246</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.20634920634920634</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.926821905765595</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
@@ -9888,10 +10368,18 @@
       <c r="F382" t="n">
         <v>100.0</v>
       </c>
-      <c r="G382"/>
-      <c r="H382"/>
-      <c r="I382"/>
-      <c r="J382"/>
+      <c r="G382" t="n">
+        <v>0.16932090997198884</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.8237133479903018</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.555045871559633</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.7011342964151953</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
@@ -9936,10 +10424,18 @@
       <c r="F384" t="n">
         <v>100.0</v>
       </c>
-      <c r="G384"/>
-      <c r="H384"/>
-      <c r="I384"/>
-      <c r="J384"/>
+      <c r="G384" t="n">
+        <v>0.08093512837254815</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.8627057440154309</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.8848971049877922</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
@@ -9984,10 +10480,18 @@
       <c r="F386" t="n">
         <v>100.0</v>
       </c>
-      <c r="G386"/>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
+      <c r="G386" t="n">
+        <v>0.1624443989158579</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.8284450736503175</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.5614489003880984</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.7384669788574674</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -10032,10 +10536,18 @@
       <c r="F388" t="n">
         <v>100.0</v>
       </c>
-      <c r="G388"/>
-      <c r="H388"/>
-      <c r="I388"/>
-      <c r="J388"/>
+      <c r="G388" t="n">
+        <v>0.08086366922650769</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.8690884871116427</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.17966101694915254</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.897276026784039</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -10080,10 +10592,18 @@
       <c r="F390" t="n">
         <v>100.0</v>
       </c>
-      <c r="G390"/>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
+      <c r="G390" t="n">
+        <v>0.15785101815549502</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.8313841718872206</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.5561290322580645</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.7642046063203</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -10128,10 +10648,18 @@
       <c r="F392" t="n">
         <v>100.0</v>
       </c>
-      <c r="G392"/>
-      <c r="H392"/>
-      <c r="I392"/>
-      <c r="J392"/>
+      <c r="G392" t="n">
+        <v>0.07964515033677622</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.8687955208235631</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.1815068493150685</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.902180788900921</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -10176,10 +10704,18 @@
       <c r="F394" t="n">
         <v>100.0</v>
       </c>
-      <c r="G394"/>
-      <c r="H394"/>
-      <c r="I394"/>
-      <c r="J394"/>
+      <c r="G394" t="n">
+        <v>0.1461830556257981</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.8338507382422405</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.5887509130752374</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.8104726450415471</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -10224,10 +10760,18 @@
       <c r="F396" t="n">
         <v>100.0</v>
       </c>
-      <c r="G396"/>
-      <c r="H396"/>
-      <c r="I396"/>
-      <c r="J396"/>
+      <c r="G396" t="n">
+        <v>0.07443409071380412</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.8734399202134446</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.19796954314720813</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.9151453159893108</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
@@ -10272,10 +10816,18 @@
       <c r="F398" t="n">
         <v>100.0</v>
       </c>
-      <c r="G398"/>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
+      <c r="G398" t="n">
+        <v>0.10287006658887675</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.8614418348192323</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.5431034482758621</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.8645731836475323</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -10320,10 +10872,18 @@
       <c r="F400" t="n">
         <v>100.0</v>
       </c>
-      <c r="G400"/>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
+      <c r="G400" t="n">
+        <v>0.03400554238377674</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.9278613444769027</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.2301255230125523</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.9273601458840243</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -10368,10 +10928,18 @@
       <c r="F402" t="n">
         <v>100.0</v>
       </c>
-      <c r="G402"/>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
+      <c r="G402" t="n">
+        <v>0.1779467966669594</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.8190051020246594</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.5695443645083933</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.7052121212121212</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -10416,10 +10984,18 @@
       <c r="F404" t="n">
         <v>100.0</v>
       </c>
-      <c r="G404"/>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
+      <c r="G404" t="n">
+        <v>0.08501407894938391</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.8599613207758771</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.16110019646365423</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.8854157157356045</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -10464,10 +11040,18 @@
       <c r="F406" t="n">
         <v>100.0</v>
       </c>
-      <c r="G406"/>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
+      <c r="G406" t="n">
+        <v>0.1694451353368619</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.8242408509520801</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.5729860690490611</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.7416161779357514</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -10512,10 +11096,18 @@
       <c r="F408" t="n">
         <v>100.0</v>
       </c>
-      <c r="G408"/>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
+      <c r="G408" t="n">
+        <v>0.0862214219546662</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.8652509381041129</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.17410228509249184</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.8974793521398692</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
@@ -10560,10 +11152,18 @@
       <c r="F410" t="n">
         <v>100.0</v>
       </c>
-      <c r="G410"/>
-      <c r="H410"/>
-      <c r="I410"/>
-      <c r="J410"/>
+      <c r="G410" t="n">
+        <v>0.1559034050156448</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.8276628511033176</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.566060606060606</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.7672023162449279</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
@@ -10608,10 +11208,18 @@
       <c r="F412" t="n">
         <v>100.0</v>
       </c>
-      <c r="G412"/>
-      <c r="H412"/>
-      <c r="I412"/>
-      <c r="J412"/>
+      <c r="G412" t="n">
+        <v>0.08464380340095942</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.8656210490161897</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.17601760176017603</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.9023864428594413</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
@@ -10656,10 +11264,18 @@
       <c r="F414" t="n">
         <v>100.0</v>
       </c>
-      <c r="G414"/>
-      <c r="H414"/>
-      <c r="I414"/>
-      <c r="J414"/>
+      <c r="G414" t="n">
+        <v>0.14386925377586682</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.8294200105462095</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.582312925170068</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.812866592456223</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
@@ -10704,10 +11320,18 @@
       <c r="F416" t="n">
         <v>100.0</v>
       </c>
-      <c r="G416"/>
-      <c r="H416"/>
-      <c r="I416"/>
-      <c r="J416"/>
+      <c r="G416" t="n">
+        <v>0.0771044876659624</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.8696782226021659</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.19128329297820823</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.9155945408658097</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
@@ -10752,10 +11376,18 @@
       <c r="F418" t="n">
         <v>100.0</v>
       </c>
-      <c r="G418"/>
-      <c r="H418"/>
-      <c r="I418"/>
-      <c r="J418"/>
+      <c r="G418" t="n">
+        <v>0.10801632906872755</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.8543307801341181</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.5445692883895131</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.8659763172281285</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
@@ -10800,10 +11432,18 @@
       <c r="F420" t="n">
         <v>100.0</v>
       </c>
-      <c r="G420"/>
-      <c r="H420"/>
-      <c r="I420"/>
-      <c r="J420"/>
+      <c r="G420" t="n">
+        <v>0.035332079162498864</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.9263118340948936</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.21497120921305182</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.9278152018246433</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
@@ -10848,10 +11488,18 @@
       <c r="F422" t="n">
         <v>100.0</v>
       </c>
-      <c r="G422"/>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
+      <c r="G422" t="n">
+        <v>0.19196552113901313</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.8094812767858347</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.5287009063444109</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.7156619752367239</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -10896,10 +11544,18 @@
       <c r="F424" t="n">
         <v>100.0</v>
       </c>
-      <c r="G424"/>
-      <c r="H424"/>
-      <c r="I424"/>
-      <c r="J424"/>
+      <c r="G424" t="n">
+        <v>0.09423010953766366</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.8511423374297412</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.17407757805108798</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.8882061233290212</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
@@ -10944,10 +11600,18 @@
       <c r="F426" t="n">
         <v>100.0</v>
       </c>
-      <c r="G426"/>
-      <c r="H426"/>
-      <c r="I426"/>
-      <c r="J426"/>
+      <c r="G426" t="n">
+        <v>0.18138936697345265</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.8166227598665537</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.5500740009866798</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.7483292450258926</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -10992,10 +11656,18 @@
       <c r="F428" t="n">
         <v>100.0</v>
       </c>
-      <c r="G428"/>
-      <c r="H428"/>
-      <c r="I428"/>
-      <c r="J428"/>
+      <c r="G428" t="n">
+        <v>0.09441692327941235</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.8589287527812388</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.17786561264822134</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.9005411809051991</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
@@ -11040,10 +11712,18 @@
       <c r="F430" t="n">
         <v>100.0</v>
       </c>
-      <c r="G430"/>
-      <c r="H430"/>
-      <c r="I430"/>
-      <c r="J430"/>
+      <c r="G430" t="n">
+        <v>0.1695032152960591</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.8191036038127345</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.5449577744659712</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.7740632248369287</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
@@ -11088,10 +11768,18 @@
       <c r="F432" t="n">
         <v>100.0</v>
       </c>
-      <c r="G432"/>
-      <c r="H432"/>
-      <c r="I432"/>
-      <c r="J432"/>
+      <c r="G432" t="n">
+        <v>0.09280067406993157</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.858914148403182</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.1794616151545364</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.905467546873149</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
@@ -11136,10 +11824,18 @@
       <c r="F434" t="n">
         <v>100.0</v>
       </c>
-      <c r="G434"/>
-      <c r="H434"/>
-      <c r="I434"/>
-      <c r="J434"/>
+      <c r="G434" t="n">
+        <v>0.1560631054695104</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.822549679992931</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.578328173374613</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.8164463312402813</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -11184,10 +11880,18 @@
       <c r="F436" t="n">
         <v>100.0</v>
       </c>
-      <c r="G436"/>
-      <c r="H436"/>
-      <c r="I436"/>
-      <c r="J436"/>
+      <c r="G436" t="n">
+        <v>0.0858832248001345</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.8598242596862666</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.18113612004287247</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.9172436389809479</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
@@ -11232,10 +11936,18 @@
       <c r="F438" t="n">
         <v>100.0</v>
       </c>
-      <c r="G438"/>
-      <c r="H438"/>
-      <c r="I438"/>
-      <c r="J438"/>
+      <c r="G438" t="n">
+        <v>0.11635004746255023</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.8489796427568571</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.5309842041312273</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.8732290136101846</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -11280,10 +11992,18 @@
       <c r="F440" t="n">
         <v>100.0</v>
       </c>
-      <c r="G440"/>
-      <c r="H440"/>
-      <c r="I440"/>
-      <c r="J440"/>
+      <c r="G440" t="n">
+        <v>0.038074079145275774</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.924793919532554</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.19655172413793104</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.928185094558946</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -7040,10 +7040,18 @@
       <c r="F263" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G263"/>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
+      <c r="G263" t="n">
+        <v>0.06672396917661606</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.8942964698046627</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.33846484319060577</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.676471250167514</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -7152,10 +7160,18 @@
       <c r="F267" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G267"/>
-      <c r="H267"/>
-      <c r="I267"/>
-      <c r="J267"/>
+      <c r="G267" t="n">
+        <v>0.06302358976284946</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0.8968268345783643</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.3444395410414828</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.7070020859003636</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -7264,10 +7280,18 @@
       <c r="F271" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G271"/>
-      <c r="H271"/>
-      <c r="I271"/>
-      <c r="J271"/>
+      <c r="G271" t="n">
+        <v>0.06066840284553326</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0.898222645858256</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.34211110289222574</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.7344129308984151</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -7376,10 +7400,18 @@
       <c r="F275" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G275"/>
-      <c r="H275"/>
-      <c r="I275"/>
-      <c r="J275"/>
+      <c r="G275" t="n">
+        <v>0.056601789624126445</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0.9007533556695098</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.3353808353808354</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.7784544502417884</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -7488,10 +7520,18 @@
       <c r="F279" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G279"/>
-      <c r="H279"/>
-      <c r="I279"/>
-      <c r="J279"/>
+      <c r="G279" t="n">
+        <v>0.03630213575875313</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0.9167672261680769</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.3219663771811011</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.8422878478045778</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -7600,10 +7640,18 @@
       <c r="F283" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G283"/>
-      <c r="H283"/>
-      <c r="I283"/>
-      <c r="J283"/>
+      <c r="G283" t="n">
+        <v>0.07580577326242252</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0.8864051521002114</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.36163949275362317</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.6785709946175787</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
@@ -7712,10 +7760,18 @@
       <c r="F287" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G287"/>
-      <c r="H287"/>
-      <c r="I287"/>
-      <c r="J287"/>
+      <c r="G287" t="n">
+        <v>0.07201699512545191</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0.888674906129531</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.3778894472361809</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.7092990763671869</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
@@ -7824,10 +7880,18 @@
       <c r="F291" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G291"/>
-      <c r="H291"/>
-      <c r="I291"/>
-      <c r="J291"/>
+      <c r="G291" t="n">
+        <v>0.06891087917249095</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0.8908158547340388</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.385187941942687</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.7366576753482404</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -7936,10 +8000,18 @@
       <c r="F295" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G295"/>
-      <c r="H295"/>
-      <c r="I295"/>
-      <c r="J295"/>
+      <c r="G295" t="n">
+        <v>0.06284968027498823</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0.8940535457797447</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.38450798275966735</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.7810020083554018</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
@@ -8048,10 +8120,18 @@
       <c r="F299" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G299"/>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="J299"/>
+      <c r="G299" t="n">
+        <v>0.042075947923924835</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0.9110801484083496</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.3525107411385607</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.8442467761504433</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -8160,10 +8240,18 @@
       <c r="F303" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G303"/>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="J303"/>
+      <c r="G303" t="n">
+        <v>0.08767480108332272</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0.875678669525038</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.40693159286186387</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.683091188274394</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -8272,10 +8360,18 @@
       <c r="F307" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G307"/>
-      <c r="H307"/>
-      <c r="I307"/>
-      <c r="J307"/>
+      <c r="G307" t="n">
+        <v>0.08318915455985233</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0.878776964546506</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.4052524728953393</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.7133452806679023</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -8384,10 +8480,18 @@
       <c r="F311" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G311"/>
-      <c r="H311"/>
-      <c r="I311"/>
-      <c r="J311"/>
+      <c r="G311" t="n">
+        <v>0.08012947343564172</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0.8807375456755115</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.4266791044776119</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.7408344684613998</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -8496,10 +8600,18 @@
       <c r="F315" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G315"/>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
+      <c r="G315" t="n">
+        <v>0.07446659560489259</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0.8848813595585224</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.43207657176173353</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.7848930747152341</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -8608,10 +8720,18 @@
       <c r="F319" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G319"/>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
+      <c r="G319" t="n">
+        <v>0.051037941557464585</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0.9034342284824711</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.3850848546496065</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.8474326308927023</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -8720,10 +8840,18 @@
       <c r="F323" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G323"/>
-      <c r="H323"/>
-      <c r="I323"/>
-      <c r="J323"/>
+      <c r="G323" t="n">
+        <v>0.12284375363440715</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0.8417705083395569</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.47992337016467673</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.7029542535040664</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -8832,10 +8960,18 @@
       <c r="F327" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G327"/>
-      <c r="H327"/>
-      <c r="I327"/>
-      <c r="J327"/>
+      <c r="G327" t="n">
+        <v>0.11745184761403221</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0.8451558436166731</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.48094868580751704</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.7340169784656413</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -8944,10 +9080,18 @@
       <c r="F331" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G331"/>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
+      <c r="G331" t="n">
+        <v>0.11487696636561817</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0.8478520286560888</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.49515069350297214</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.7621307611644905</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -9056,10 +9200,18 @@
       <c r="F335" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G335"/>
-      <c r="H335"/>
-      <c r="I335"/>
-      <c r="J335"/>
+      <c r="G335" t="n">
+        <v>0.10782824226108396</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0.8535809206910389</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.4867107148202793</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.8064120011472123</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -9168,10 +9320,18 @@
       <c r="F339" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G339"/>
-      <c r="H339"/>
-      <c r="I339"/>
-      <c r="J339"/>
+      <c r="G339" t="n">
+        <v>0.07935853348903932</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0.8759269473293348</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.45422162318282466</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.866812964421313</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
@@ -9280,10 +9440,18 @@
       <c r="F343" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G343"/>
-      <c r="H343"/>
-      <c r="I343"/>
-      <c r="J343"/>
+      <c r="G343" t="n">
+        <v>0.13110644454332313</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.8346806545181603</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.47430011391487453</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.7064495824675685</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
@@ -9392,10 +9560,18 @@
       <c r="F347" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G347"/>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
+      <c r="G347" t="n">
+        <v>0.125439734537568</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0.8383181327128797</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.476232127238</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.7374972726500812</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -9504,10 +9680,18 @@
       <c r="F351" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G351"/>
-      <c r="H351"/>
-      <c r="I351"/>
-      <c r="J351"/>
+      <c r="G351" t="n">
+        <v>0.12113489841516084</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.8416588701018196</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.48795451144695495</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.7655242064930635</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
@@ -9616,10 +9800,18 @@
       <c r="F355" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G355"/>
-      <c r="H355"/>
-      <c r="I355"/>
-      <c r="J355"/>
+      <c r="G355" t="n">
+        <v>0.11423367777015479</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.8476037254969435</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.48289602864458003</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.8100063794572554</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -9728,10 +9920,18 @@
       <c r="F359" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G359"/>
-      <c r="H359"/>
-      <c r="I359"/>
-      <c r="J359"/>
+      <c r="G359" t="n">
+        <v>0.08386049713337966</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0.8707691192990124</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.45234544757360146</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.8707938117950756</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
@@ -9840,10 +10040,18 @@
       <c r="F363" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G363"/>
-      <c r="H363"/>
-      <c r="I363"/>
-      <c r="J363"/>
+      <c r="G363" t="n">
+        <v>0.13779964044892623</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0.8279421673150379</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.4704198325621702</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.7102792488949526</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -9952,10 +10160,18 @@
       <c r="F367" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G367"/>
-      <c r="H367"/>
-      <c r="I367"/>
-      <c r="J367"/>
+      <c r="G367" t="n">
+        <v>0.13187627990117495</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.8319755720402428</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.4713358442182867</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.7412811889039526</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
@@ -10064,10 +10280,18 @@
       <c r="F371" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G371"/>
-      <c r="H371"/>
-      <c r="I371"/>
-      <c r="J371"/>
+      <c r="G371" t="n">
+        <v>0.12829628796885664</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0.8350161087420153</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.4803895276725554</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.7692521698820799</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
@@ -10176,10 +10400,18 @@
       <c r="F375" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G375"/>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
+      <c r="G375" t="n">
+        <v>0.119531754849472</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.8416013504001385</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.4764211773726953</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.8134690112844284</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
@@ -10288,10 +10520,18 @@
       <c r="F379" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G379"/>
-      <c r="H379"/>
-      <c r="I379"/>
-      <c r="J379"/>
+      <c r="G379" t="n">
+        <v>0.08757419534323718</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.8663763655758201</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.44715102732471934</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.8741993922466375</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
@@ -10400,10 +10640,18 @@
       <c r="F383" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G383"/>
-      <c r="H383"/>
-      <c r="I383"/>
-      <c r="J383"/>
+      <c r="G383" t="n">
+        <v>0.14321213516262515</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.8210437857665578</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.45815638621424265</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.7131928861963007</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
@@ -10512,10 +10760,18 @@
       <c r="F387" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G387"/>
-      <c r="H387"/>
-      <c r="I387"/>
-      <c r="J387"/>
+      <c r="G387" t="n">
+        <v>0.13717544010824625</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.8256186394659374</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.4613939535154657</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.7443354698700453</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -10624,10 +10880,18 @@
       <c r="F391" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G391"/>
-      <c r="H391"/>
-      <c r="I391"/>
-      <c r="J391"/>
+      <c r="G391" t="n">
+        <v>0.13352301572513653</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.8292729016684097</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.4620348880736692</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.7723199864780275</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
@@ -10736,10 +11000,18 @@
       <c r="F395" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G395"/>
-      <c r="H395"/>
-      <c r="I395"/>
-      <c r="J395"/>
+      <c r="G395" t="n">
+        <v>0.12463141862497075</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.8355709125609773</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.4582109271780524</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.8168039030514914</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
@@ -10848,10 +11120,18 @@
       <c r="F399" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G399"/>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
+      <c r="G399" t="n">
+        <v>0.08951105193028429</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.8627486567178502</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.44455997561893834</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.8767773941291226</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -10960,10 +11240,18 @@
       <c r="F403" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G403"/>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
+      <c r="G403" t="n">
+        <v>0.14928174769430297</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.8155103233135206</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.4509608885828328</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.7166384832986783</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -11072,10 +11360,18 @@
       <c r="F407" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G407"/>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
+      <c r="G407" t="n">
+        <v>0.14220736784211302</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.820083779503608</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.4528379745487461</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.7474999480200756</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
@@ -11184,10 +11480,18 @@
       <c r="F411" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G411"/>
-      <c r="H411"/>
-      <c r="I411"/>
-      <c r="J411"/>
+      <c r="G411" t="n">
+        <v>0.13776838874137248</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.8233729686100916</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.4528720823453626</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.7754138251470821</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
@@ -11296,10 +11600,18 @@
       <c r="F415" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G415"/>
-      <c r="H415"/>
-      <c r="I415"/>
-      <c r="J415"/>
+      <c r="G415" t="n">
+        <v>0.13026847217550153</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.8302565963544382</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.45209718083887235</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.8199780206271029</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
@@ -11408,10 +11720,18 @@
       <c r="F419" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G419"/>
-      <c r="H419"/>
-      <c r="I419"/>
-      <c r="J419"/>
+      <c r="G419" t="n">
+        <v>0.09248341442884687</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.8590303514130361</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.43851620905829897</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.8790385644686729</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
@@ -11632,10 +11952,18 @@
       <c r="F427" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G427"/>
-      <c r="H427"/>
-      <c r="I427"/>
-      <c r="J427"/>
+      <c r="G427" t="n">
+        <v>0.151913206318838</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.8090604852710748</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.43027393950045034</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.7543644829342692</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
@@ -11744,10 +12072,18 @@
       <c r="F431" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G431"/>
-      <c r="H431"/>
-      <c r="I431"/>
-      <c r="J431"/>
+      <c r="G431" t="n">
+        <v>0.14827812684928143</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.8129228786118238</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.43250447084553084</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.7823618986969041</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -11856,10 +12192,18 @@
       <c r="F435" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G435"/>
-      <c r="H435"/>
-      <c r="I435"/>
-      <c r="J435"/>
+      <c r="G435" t="n">
+        <v>0.13699047957474744</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.820376467482241</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.4332820426514077</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.8267779150195363</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
@@ -11968,10 +12312,18 @@
       <c r="F439" t="n">
         <v>3000.0</v>
       </c>
-      <c r="G439"/>
-      <c r="H439"/>
-      <c r="I439"/>
-      <c r="J439"/>
+      <c r="G439" t="n">
+        <v>0.09785462090248792</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.8516263299243528</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.42439968334945904</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.8835978377988468</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -9995,9 +9995,7 @@
       <c r="G366" t="n">
         <v>50.0</v>
       </c>
-      <c r="H366" t="n">
-        <v>0.9134651149788091</v>
-      </c>
+      <c r="H366"/>
       <c r="I366"/>
       <c r="J366"/>
       <c r="K366"/>
@@ -10024,9 +10022,7 @@
       <c r="G367" t="n">
         <v>100.0</v>
       </c>
-      <c r="H367" t="n">
-        <v>0.9134651149788091</v>
-      </c>
+      <c r="H367"/>
       <c r="I367"/>
       <c r="J367"/>
       <c r="K367"/>
@@ -10053,9 +10049,7 @@
       <c r="G368" t="n">
         <v>200.0</v>
       </c>
-      <c r="H368" t="n">
-        <v>0.9134651149788091</v>
-      </c>
+      <c r="H368"/>
       <c r="I368"/>
       <c r="J368"/>
       <c r="K368"/>
@@ -10326,11 +10320,17 @@
         <v>50.0</v>
       </c>
       <c r="H378" t="n">
+        <v>0.07884151700768145</v>
+      </c>
+      <c r="I378" t="n">
         <v>0.9177616800461337</v>
       </c>
-      <c r="I378"/>
-      <c r="J378"/>
-      <c r="K378"/>
+      <c r="J378" t="n">
+        <v>0.6592797783933518</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.7834970550628784</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -10354,9 +10354,7 @@
       <c r="G379" t="n">
         <v>100.0</v>
       </c>
-      <c r="H379" t="n">
-        <v>0.9177616800461337</v>
-      </c>
+      <c r="H379"/>
       <c r="I379"/>
       <c r="J379"/>
       <c r="K379"/>
@@ -10383,9 +10381,7 @@
       <c r="G380" t="n">
         <v>200.0</v>
       </c>
-      <c r="H380" t="n">
-        <v>0.9177616800461337</v>
-      </c>
+      <c r="H380"/>
       <c r="I380"/>
       <c r="J380"/>
       <c r="K380"/>
@@ -10656,11 +10652,17 @@
         <v>50.0</v>
       </c>
       <c r="H390" t="n">
+        <v>0.054795511427633045</v>
+      </c>
+      <c r="I390" t="n">
         <v>0.9403802059144095</v>
       </c>
-      <c r="I390"/>
-      <c r="J390"/>
-      <c r="K390"/>
+      <c r="J390" t="n">
+        <v>0.6275862068965518</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.8434007813746635</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -10684,9 +10686,7 @@
       <c r="G391" t="n">
         <v>100.0</v>
       </c>
-      <c r="H391" t="n">
-        <v>0.9403802059144095</v>
-      </c>
+      <c r="H391"/>
       <c r="I391"/>
       <c r="J391"/>
       <c r="K391"/>
@@ -10713,9 +10713,7 @@
       <c r="G392" t="n">
         <v>200.0</v>
       </c>
-      <c r="H392" t="n">
-        <v>0.9403802059144095</v>
-      </c>
+      <c r="H392"/>
       <c r="I392"/>
       <c r="J392"/>
       <c r="K392"/>
@@ -11633,9 +11631,7 @@
       <c r="G426" t="n">
         <v>50.0</v>
       </c>
-      <c r="H426" t="n">
-        <v>0.9063962303123982</v>
-      </c>
+      <c r="H426"/>
       <c r="I426"/>
       <c r="J426"/>
       <c r="K426"/>
@@ -11662,9 +11658,7 @@
       <c r="G427" t="n">
         <v>100.0</v>
       </c>
-      <c r="H427" t="n">
-        <v>0.9063962303123982</v>
-      </c>
+      <c r="H427"/>
       <c r="I427"/>
       <c r="J427"/>
       <c r="K427"/>
@@ -11691,9 +11685,7 @@
       <c r="G428" t="n">
         <v>200.0</v>
       </c>
-      <c r="H428" t="n">
-        <v>0.9063962303123982</v>
-      </c>
+      <c r="H428"/>
       <c r="I428"/>
       <c r="J428"/>
       <c r="K428"/>
@@ -11964,11 +11956,17 @@
         <v>50.0</v>
       </c>
       <c r="H438" t="n">
+        <v>0.0889128337444196</v>
+      </c>
+      <c r="I438" t="n">
         <v>0.9074330632042107</v>
       </c>
-      <c r="I438"/>
-      <c r="J438"/>
-      <c r="K438"/>
+      <c r="J438" t="n">
+        <v>0.6483790523690773</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.784493309609273</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -11992,9 +11990,7 @@
       <c r="G439" t="n">
         <v>100.0</v>
       </c>
-      <c r="H439" t="n">
-        <v>0.9074330632042107</v>
-      </c>
+      <c r="H439"/>
       <c r="I439"/>
       <c r="J439"/>
       <c r="K439"/>
@@ -12021,9 +12017,7 @@
       <c r="G440" t="n">
         <v>200.0</v>
       </c>
-      <c r="H440" t="n">
-        <v>0.9074330632042107</v>
-      </c>
+      <c r="H440"/>
       <c r="I440"/>
       <c r="J440"/>
       <c r="K440"/>
@@ -12294,11 +12288,17 @@
         <v>50.0</v>
       </c>
       <c r="H450" t="n">
+        <v>0.0600759513430886</v>
+      </c>
+      <c r="I450" t="n">
         <v>0.9368554794382412</v>
       </c>
-      <c r="I450"/>
-      <c r="J450"/>
-      <c r="K450"/>
+      <c r="J450" t="n">
+        <v>0.6113445378151261</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.8442046350551167</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -12322,9 +12322,7 @@
       <c r="G451" t="n">
         <v>100.0</v>
       </c>
-      <c r="H451" t="n">
-        <v>0.9368554794382412</v>
-      </c>
+      <c r="H451"/>
       <c r="I451"/>
       <c r="J451"/>
       <c r="K451"/>
@@ -12351,9 +12349,7 @@
       <c r="G452" t="n">
         <v>200.0</v>
       </c>
-      <c r="H452" t="n">
-        <v>0.9368554794382412</v>
-      </c>
+      <c r="H452"/>
       <c r="I452"/>
       <c r="J452"/>
       <c r="K452"/>
@@ -13271,9 +13267,7 @@
       <c r="G486" t="n">
         <v>50.0</v>
       </c>
-      <c r="H486" t="n">
-        <v>0.8946912712374747</v>
-      </c>
+      <c r="H486"/>
       <c r="I486"/>
       <c r="J486"/>
       <c r="K486"/>
@@ -13300,9 +13294,7 @@
       <c r="G487" t="n">
         <v>100.0</v>
       </c>
-      <c r="H487" t="n">
-        <v>0.8946912712374747</v>
-      </c>
+      <c r="H487"/>
       <c r="I487"/>
       <c r="J487"/>
       <c r="K487"/>
@@ -13329,9 +13321,7 @@
       <c r="G488" t="n">
         <v>200.0</v>
       </c>
-      <c r="H488" t="n">
-        <v>0.8946912712374747</v>
-      </c>
+      <c r="H488"/>
       <c r="I488"/>
       <c r="J488"/>
       <c r="K488"/>
@@ -13602,11 +13592,17 @@
         <v>50.0</v>
       </c>
       <c r="H498" t="n">
+        <v>0.0981904905715395</v>
+      </c>
+      <c r="I498" t="n">
         <v>0.8966149981476735</v>
       </c>
-      <c r="I498"/>
-      <c r="J498"/>
-      <c r="K498"/>
+      <c r="J498" t="n">
+        <v>0.6609195402298851</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0.788444733998273</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
@@ -13630,9 +13626,7 @@
       <c r="G499" t="n">
         <v>100.0</v>
       </c>
-      <c r="H499" t="n">
-        <v>0.8966149981476735</v>
-      </c>
+      <c r="H499"/>
       <c r="I499"/>
       <c r="J499"/>
       <c r="K499"/>
@@ -13659,9 +13653,7 @@
       <c r="G500" t="n">
         <v>200.0</v>
       </c>
-      <c r="H500" t="n">
-        <v>0.8966149981476735</v>
-      </c>
+      <c r="H500"/>
       <c r="I500"/>
       <c r="J500"/>
       <c r="K500"/>
@@ -13932,11 +13924,17 @@
         <v>50.0</v>
       </c>
       <c r="H510" t="n">
+        <v>0.06923877467919744</v>
+      </c>
+      <c r="I510" t="n">
         <v>0.9245348398715849</v>
       </c>
-      <c r="I510"/>
-      <c r="J510"/>
-      <c r="K510"/>
+      <c r="J510" t="n">
+        <v>0.6097122302158273</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.846672008685088</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -13960,9 +13958,7 @@
       <c r="G511" t="n">
         <v>100.0</v>
       </c>
-      <c r="H511" t="n">
-        <v>0.9245348398715849</v>
-      </c>
+      <c r="H511"/>
       <c r="I511"/>
       <c r="J511"/>
       <c r="K511"/>
@@ -13989,9 +13985,7 @@
       <c r="G512" t="n">
         <v>200.0</v>
       </c>
-      <c r="H512" t="n">
-        <v>0.9245348398715849</v>
-      </c>
+      <c r="H512"/>
       <c r="I512"/>
       <c r="J512"/>
       <c r="K512"/>
@@ -14909,9 +14903,7 @@
       <c r="G546" t="n">
         <v>50.0</v>
       </c>
-      <c r="H546" t="n">
-        <v>0.8507499982489323</v>
-      </c>
+      <c r="H546"/>
       <c r="I546"/>
       <c r="J546"/>
       <c r="K546"/>
@@ -14938,9 +14930,7 @@
       <c r="G547" t="n">
         <v>100.0</v>
       </c>
-      <c r="H547" t="n">
-        <v>0.8507499982489323</v>
-      </c>
+      <c r="H547"/>
       <c r="I547"/>
       <c r="J547"/>
       <c r="K547"/>
@@ -14967,9 +14957,7 @@
       <c r="G548" t="n">
         <v>200.0</v>
       </c>
-      <c r="H548" t="n">
-        <v>0.8507499982489323</v>
-      </c>
+      <c r="H548"/>
       <c r="I548"/>
       <c r="J548"/>
       <c r="K548"/>
@@ -15239,9 +15227,7 @@
       <c r="G558" t="n">
         <v>50.0</v>
       </c>
-      <c r="H558" t="n">
-        <v>0.8585403691716047</v>
-      </c>
+      <c r="H558"/>
       <c r="I558"/>
       <c r="J558"/>
       <c r="K558"/>
@@ -15268,9 +15254,7 @@
       <c r="G559" t="n">
         <v>100.0</v>
       </c>
-      <c r="H559" t="n">
-        <v>0.8585403691716047</v>
-      </c>
+      <c r="H559"/>
       <c r="I559"/>
       <c r="J559"/>
       <c r="K559"/>
@@ -15297,9 +15281,7 @@
       <c r="G560" t="n">
         <v>200.0</v>
       </c>
-      <c r="H560" t="n">
-        <v>0.8585403691716047</v>
-      </c>
+      <c r="H560"/>
       <c r="I560"/>
       <c r="J560"/>
       <c r="K560"/>
@@ -15570,11 +15552,17 @@
         <v>50.0</v>
       </c>
       <c r="H570" t="n">
+        <v>0.10038928213497277</v>
+      </c>
+      <c r="I570" t="n">
         <v>0.8908972952430791</v>
       </c>
-      <c r="I570"/>
-      <c r="J570"/>
-      <c r="K570"/>
+      <c r="J570" t="n">
+        <v>0.6042908224076281</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0.8552200343942585</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
@@ -15598,9 +15586,7 @@
       <c r="G571" t="n">
         <v>100.0</v>
       </c>
-      <c r="H571" t="n">
-        <v>0.8908972952430791</v>
-      </c>
+      <c r="H571"/>
       <c r="I571"/>
       <c r="J571"/>
       <c r="K571"/>
@@ -15627,9 +15613,7 @@
       <c r="G572" t="n">
         <v>200.0</v>
       </c>
-      <c r="H572" t="n">
-        <v>0.8908972952430791</v>
-      </c>
+      <c r="H572"/>
       <c r="I572"/>
       <c r="J572"/>
       <c r="K572"/>
@@ -16547,9 +16531,7 @@
       <c r="G606" t="n">
         <v>50.0</v>
       </c>
-      <c r="H606" t="n">
-        <v>0.8454759633957812</v>
-      </c>
+      <c r="H606"/>
       <c r="I606"/>
       <c r="J606"/>
       <c r="K606"/>
@@ -16576,9 +16558,7 @@
       <c r="G607" t="n">
         <v>100.0</v>
       </c>
-      <c r="H607" t="n">
-        <v>0.8454759633957812</v>
-      </c>
+      <c r="H607"/>
       <c r="I607"/>
       <c r="J607"/>
       <c r="K607"/>
@@ -16605,9 +16585,7 @@
       <c r="G608" t="n">
         <v>200.0</v>
       </c>
-      <c r="H608" t="n">
-        <v>0.8454759633957812</v>
-      </c>
+      <c r="H608"/>
       <c r="I608"/>
       <c r="J608"/>
       <c r="K608"/>
@@ -16877,9 +16855,7 @@
       <c r="G618" t="n">
         <v>50.0</v>
       </c>
-      <c r="H618" t="n">
-        <v>0.8530014204139107</v>
-      </c>
+      <c r="H618"/>
       <c r="I618"/>
       <c r="J618"/>
       <c r="K618"/>
@@ -16906,9 +16882,7 @@
       <c r="G619" t="n">
         <v>100.0</v>
       </c>
-      <c r="H619" t="n">
-        <v>0.8530014204139107</v>
-      </c>
+      <c r="H619"/>
       <c r="I619"/>
       <c r="J619"/>
       <c r="K619"/>
@@ -16935,9 +16909,7 @@
       <c r="G620" t="n">
         <v>200.0</v>
       </c>
-      <c r="H620" t="n">
-        <v>0.8530014204139107</v>
-      </c>
+      <c r="H620"/>
       <c r="I620"/>
       <c r="J620"/>
       <c r="K620"/>
@@ -17208,11 +17180,17 @@
         <v>50.0</v>
       </c>
       <c r="H630" t="n">
+        <v>0.10546899706492585</v>
+      </c>
+      <c r="I630" t="n">
         <v>0.8861468654625573</v>
       </c>
-      <c r="I630"/>
-      <c r="J630"/>
-      <c r="K630"/>
+      <c r="J630" t="n">
+        <v>0.6158357771260997</v>
+      </c>
+      <c r="K630" t="n">
+        <v>0.8613781037898908</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -17236,9 +17214,7 @@
       <c r="G631" t="n">
         <v>100.0</v>
       </c>
-      <c r="H631" t="n">
-        <v>0.8861468654625573</v>
-      </c>
+      <c r="H631"/>
       <c r="I631"/>
       <c r="J631"/>
       <c r="K631"/>
@@ -17265,9 +17241,7 @@
       <c r="G632" t="n">
         <v>200.0</v>
       </c>
-      <c r="H632" t="n">
-        <v>0.8861468654625573</v>
-      </c>
+      <c r="H632"/>
       <c r="I632"/>
       <c r="J632"/>
       <c r="K632"/>
@@ -18185,9 +18159,7 @@
       <c r="G666" t="n">
         <v>50.0</v>
       </c>
-      <c r="H666" t="n">
-        <v>0.8352897716735835</v>
-      </c>
+      <c r="H666"/>
       <c r="I666"/>
       <c r="J666"/>
       <c r="K666"/>
@@ -18214,9 +18186,7 @@
       <c r="G667" t="n">
         <v>100.0</v>
       </c>
-      <c r="H667" t="n">
-        <v>0.8352897716735835</v>
-      </c>
+      <c r="H667"/>
       <c r="I667"/>
       <c r="J667"/>
       <c r="K667"/>
@@ -18243,9 +18213,7 @@
       <c r="G668" t="n">
         <v>200.0</v>
       </c>
-      <c r="H668" t="n">
-        <v>0.8352897716735835</v>
-      </c>
+      <c r="H668"/>
       <c r="I668"/>
       <c r="J668"/>
       <c r="K668"/>
@@ -18515,9 +18483,7 @@
       <c r="G678" t="n">
         <v>50.0</v>
       </c>
-      <c r="H678" t="n">
-        <v>0.8451919541377363</v>
-      </c>
+      <c r="H678"/>
       <c r="I678"/>
       <c r="J678"/>
       <c r="K678"/>
@@ -18544,9 +18510,7 @@
       <c r="G679" t="n">
         <v>100.0</v>
       </c>
-      <c r="H679" t="n">
-        <v>0.8451919541377363</v>
-      </c>
+      <c r="H679"/>
       <c r="I679"/>
       <c r="J679"/>
       <c r="K679"/>
@@ -18573,9 +18537,7 @@
       <c r="G680" t="n">
         <v>200.0</v>
       </c>
-      <c r="H680" t="n">
-        <v>0.8451919541377363</v>
-      </c>
+      <c r="H680"/>
       <c r="I680"/>
       <c r="J680"/>
       <c r="K680"/>
@@ -18846,11 +18808,17 @@
         <v>50.0</v>
       </c>
       <c r="H690" t="n">
+        <v>0.11081600470786579</v>
+      </c>
+      <c r="I690" t="n">
         <v>0.8765498236461614</v>
       </c>
-      <c r="I690"/>
-      <c r="J690"/>
-      <c r="K690"/>
+      <c r="J690" t="n">
+        <v>0.5730145175064048</v>
+      </c>
+      <c r="K690" t="n">
+        <v>0.8635577944697879</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
@@ -18874,9 +18842,7 @@
       <c r="G691" t="n">
         <v>100.0</v>
       </c>
-      <c r="H691" t="n">
-        <v>0.8765498236461614</v>
-      </c>
+      <c r="H691"/>
       <c r="I691"/>
       <c r="J691"/>
       <c r="K691"/>
@@ -18903,9 +18869,7 @@
       <c r="G692" t="n">
         <v>200.0</v>
       </c>
-      <c r="H692" t="n">
-        <v>0.8765498236461614</v>
-      </c>
+      <c r="H692"/>
       <c r="I692"/>
       <c r="J692"/>
       <c r="K692"/>
@@ -20147,9 +20111,7 @@
       <c r="G738" t="n">
         <v>50.0</v>
       </c>
-      <c r="H738" t="n">
-        <v>0.8359617491779897</v>
-      </c>
+      <c r="H738"/>
       <c r="I738"/>
       <c r="J738"/>
       <c r="K738"/>
@@ -20176,9 +20138,7 @@
       <c r="G739" t="n">
         <v>100.0</v>
       </c>
-      <c r="H739" t="n">
-        <v>0.8359617491779897</v>
-      </c>
+      <c r="H739"/>
       <c r="I739"/>
       <c r="J739"/>
       <c r="K739"/>
@@ -20205,9 +20165,7 @@
       <c r="G740" t="n">
         <v>200.0</v>
       </c>
-      <c r="H740" t="n">
-        <v>0.8359617491779897</v>
-      </c>
+      <c r="H740"/>
       <c r="I740"/>
       <c r="J740"/>
       <c r="K740"/>
@@ -20478,11 +20436,17 @@
         <v>50.0</v>
       </c>
       <c r="H750" t="n">
+        <v>0.1140360583681903</v>
+      </c>
+      <c r="I750" t="n">
         <v>0.8685268427347416</v>
       </c>
-      <c r="I750"/>
-      <c r="J750"/>
-      <c r="K750"/>
+      <c r="J750" t="n">
+        <v>0.5431034482758621</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0.8645731836475323</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="s">
@@ -20506,9 +20470,7 @@
       <c r="G751" t="n">
         <v>100.0</v>
       </c>
-      <c r="H751" t="n">
-        <v>0.8685268427347416</v>
-      </c>
+      <c r="H751"/>
       <c r="I751"/>
       <c r="J751"/>
       <c r="K751"/>
@@ -20535,9 +20497,7 @@
       <c r="G752" t="n">
         <v>200.0</v>
       </c>
-      <c r="H752" t="n">
-        <v>0.8685268427347416</v>
-      </c>
+      <c r="H752"/>
       <c r="I752"/>
       <c r="J752"/>
       <c r="K752"/>
@@ -21779,9 +21739,7 @@
       <c r="G798" t="n">
         <v>50.0</v>
       </c>
-      <c r="H798" t="n">
-        <v>0.8289512387043877</v>
-      </c>
+      <c r="H798"/>
       <c r="I798"/>
       <c r="J798"/>
       <c r="K798"/>
@@ -21808,9 +21766,7 @@
       <c r="G799" t="n">
         <v>100.0</v>
       </c>
-      <c r="H799" t="n">
-        <v>0.8289512387043877</v>
-      </c>
+      <c r="H799"/>
       <c r="I799"/>
       <c r="J799"/>
       <c r="K799"/>
@@ -21837,9 +21793,7 @@
       <c r="G800" t="n">
         <v>200.0</v>
       </c>
-      <c r="H800" t="n">
-        <v>0.8289512387043877</v>
-      </c>
+      <c r="H800"/>
       <c r="I800"/>
       <c r="J800"/>
       <c r="K800"/>
@@ -22110,11 +22064,17 @@
         <v>50.0</v>
       </c>
       <c r="H810" t="n">
+        <v>0.1180153492590435</v>
+      </c>
+      <c r="I810" t="n">
         <v>0.8643024498920937</v>
       </c>
-      <c r="I810"/>
-      <c r="J810"/>
-      <c r="K810"/>
+      <c r="J810" t="n">
+        <v>0.5445692883895131</v>
+      </c>
+      <c r="K810" t="n">
+        <v>0.8659763172281285</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" t="s">
@@ -22138,9 +22098,7 @@
       <c r="G811" t="n">
         <v>100.0</v>
       </c>
-      <c r="H811" t="n">
-        <v>0.8643024498920937</v>
-      </c>
+      <c r="H811"/>
       <c r="I811"/>
       <c r="J811"/>
       <c r="K811"/>
@@ -22167,9 +22125,7 @@
       <c r="G812" t="n">
         <v>200.0</v>
       </c>
-      <c r="H812" t="n">
-        <v>0.8643024498920937</v>
-      </c>
+      <c r="H812"/>
       <c r="I812"/>
       <c r="J812"/>
       <c r="K812"/>
@@ -23411,9 +23367,7 @@
       <c r="G858" t="n">
         <v>50.0</v>
       </c>
-      <c r="H858" t="n">
-        <v>0.8214886530093605</v>
-      </c>
+      <c r="H858"/>
       <c r="I858"/>
       <c r="J858"/>
       <c r="K858"/>
@@ -23440,9 +23394,7 @@
       <c r="G859" t="n">
         <v>100.0</v>
       </c>
-      <c r="H859" t="n">
-        <v>0.8214886530093605</v>
-      </c>
+      <c r="H859"/>
       <c r="I859"/>
       <c r="J859"/>
       <c r="K859"/>
@@ -23469,9 +23421,7 @@
       <c r="G860" t="n">
         <v>200.0</v>
       </c>
-      <c r="H860" t="n">
-        <v>0.8214886530093605</v>
-      </c>
+      <c r="H860"/>
       <c r="I860"/>
       <c r="J860"/>
       <c r="K860"/>
@@ -23742,11 +23692,17 @@
         <v>50.0</v>
       </c>
       <c r="H870" t="n">
+        <v>0.13026261318659324</v>
+      </c>
+      <c r="I870" t="n">
         <v>0.8560969110336775</v>
       </c>
-      <c r="I870"/>
-      <c r="J870"/>
-      <c r="K870"/>
+      <c r="J870" t="n">
+        <v>0.5309842041312273</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0.8732290136101846</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" t="s">
@@ -23770,9 +23726,7 @@
       <c r="G871" t="n">
         <v>100.0</v>
       </c>
-      <c r="H871" t="n">
-        <v>0.8560969110336775</v>
-      </c>
+      <c r="H871"/>
       <c r="I871"/>
       <c r="J871"/>
       <c r="K871"/>
@@ -23799,9 +23753,7 @@
       <c r="G872" t="n">
         <v>200.0</v>
       </c>
-      <c r="H872" t="n">
-        <v>0.8560969110336775</v>
-      </c>
+      <c r="H872"/>
       <c r="I872"/>
       <c r="J872"/>
       <c r="K872"/>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -7791,10 +7791,18 @@
       <c r="G282" t="n">
         <v>100.0</v>
       </c>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
-      <c r="K282"/>
+      <c r="H282" t="n">
+        <v>0.13797594023902082</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.8560947079022253</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.6506024096385542</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.6765515791416894</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -8895,10 +8903,18 @@
       <c r="G322" t="n">
         <v>100.0</v>
       </c>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322"/>
+      <c r="H322" t="n">
+        <v>0.17877151397278368</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.817073432174098</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.6951470378263468</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -10015,10 +10015,18 @@
       <c r="G362" t="n">
         <v>100.0</v>
       </c>
-      <c r="H362"/>
-      <c r="I362"/>
-      <c r="J362"/>
-      <c r="K362"/>
+      <c r="H362" t="n">
+        <v>0.2564531177031268</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.7419124205355557</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.3451829723674384</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.7563510601698444</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -11119,10 +11127,18 @@
       <c r="G402" t="n">
         <v>100.0</v>
       </c>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
-      <c r="K402"/>
+      <c r="H402" t="n">
+        <v>0.29979003191507253</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.6901395552559813</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.7830226182316655</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -5565,20 +5565,12 @@
         <v>100.0</v>
       </c>
       <c r="G202" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0.11383785134807106</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0.8779288358969148</v>
-      </c>
-      <c r="J202" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.6725884703196348</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+      <c r="K202"/>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -5600,7 +5592,7 @@
         <v>100.0</v>
       </c>
       <c r="G203" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H203"/>
       <c r="I203"/>
@@ -5627,7 +5619,7 @@
         <v>3000.0</v>
       </c>
       <c r="G204" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H204"/>
       <c r="I204"/>
@@ -5654,7 +5646,7 @@
         <v>3000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H205"/>
       <c r="I205"/>
@@ -5681,7 +5673,7 @@
         <v>100.0</v>
       </c>
       <c r="G206" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H206"/>
       <c r="I206"/>
@@ -5708,7 +5700,7 @@
         <v>100.0</v>
       </c>
       <c r="G207" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H207"/>
       <c r="I207"/>
@@ -5735,7 +5727,7 @@
         <v>3000.0</v>
       </c>
       <c r="G208" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H208"/>
       <c r="I208"/>
@@ -5762,7 +5754,7 @@
         <v>3000.0</v>
       </c>
       <c r="G209" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H209"/>
       <c r="I209"/>
@@ -5789,20 +5781,12 @@
         <v>100.0</v>
       </c>
       <c r="G210" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0.10956696620508403</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0.8799267844668528</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0.6030927835051546</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.7071905417112572</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+      <c r="K210"/>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -5824,7 +5808,7 @@
         <v>100.0</v>
       </c>
       <c r="G211" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H211"/>
       <c r="I211"/>
@@ -5851,7 +5835,7 @@
         <v>3000.0</v>
       </c>
       <c r="G212" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H212"/>
       <c r="I212"/>
@@ -5878,7 +5862,7 @@
         <v>3000.0</v>
       </c>
       <c r="G213" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H213"/>
       <c r="I213"/>
@@ -5905,7 +5889,7 @@
         <v>100.0</v>
       </c>
       <c r="G214" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H214"/>
       <c r="I214"/>
@@ -5932,7 +5916,7 @@
         <v>100.0</v>
       </c>
       <c r="G215" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H215"/>
       <c r="I215"/>
@@ -5959,7 +5943,7 @@
         <v>3000.0</v>
       </c>
       <c r="G216" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H216"/>
       <c r="I216"/>
@@ -5986,7 +5970,7 @@
         <v>3000.0</v>
       </c>
       <c r="G217" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H217"/>
       <c r="I217"/>
@@ -6013,7 +5997,7 @@
         <v>100.0</v>
       </c>
       <c r="G218" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H218"/>
       <c r="I218"/>
@@ -6040,7 +6024,7 @@
         <v>100.0</v>
       </c>
       <c r="G219" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H219"/>
       <c r="I219"/>
@@ -6067,7 +6051,7 @@
         <v>3000.0</v>
       </c>
       <c r="G220" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H220"/>
       <c r="I220"/>
@@ -6094,7 +6078,7 @@
         <v>3000.0</v>
       </c>
       <c r="G221" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H221"/>
       <c r="I221"/>
@@ -6121,7 +6105,7 @@
         <v>100.0</v>
       </c>
       <c r="G222" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H222"/>
       <c r="I222"/>
@@ -6148,7 +6132,7 @@
         <v>100.0</v>
       </c>
       <c r="G223" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H223"/>
       <c r="I223"/>
@@ -6175,7 +6159,7 @@
         <v>3000.0</v>
       </c>
       <c r="G224" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H224"/>
       <c r="I224"/>
@@ -6202,7 +6186,7 @@
         <v>3000.0</v>
       </c>
       <c r="G225" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H225"/>
       <c r="I225"/>
@@ -6229,20 +6213,12 @@
         <v>100.0</v>
       </c>
       <c r="G226" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0.10014504998483499</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0.8873079230165632</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0.6592797783933518</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.7834970550628784</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+      <c r="K226"/>
     </row>
     <row r="227">
       <c r="A227" t="s">
@@ -6264,7 +6240,7 @@
         <v>100.0</v>
       </c>
       <c r="G227" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H227"/>
       <c r="I227"/>
@@ -6291,7 +6267,7 @@
         <v>3000.0</v>
       </c>
       <c r="G228" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H228"/>
       <c r="I228"/>
@@ -6318,7 +6294,7 @@
         <v>3000.0</v>
       </c>
       <c r="G229" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H229"/>
       <c r="I229"/>
@@ -6345,7 +6321,7 @@
         <v>100.0</v>
       </c>
       <c r="G230" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H230"/>
       <c r="I230"/>
@@ -6372,7 +6348,7 @@
         <v>100.0</v>
       </c>
       <c r="G231" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H231"/>
       <c r="I231"/>
@@ -6399,7 +6375,7 @@
         <v>3000.0</v>
       </c>
       <c r="G232" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H232"/>
       <c r="I232"/>
@@ -6426,7 +6402,7 @@
         <v>3000.0</v>
       </c>
       <c r="G233" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H233"/>
       <c r="I233"/>
@@ -6453,13 +6429,13 @@
         <v>100.0</v>
       </c>
       <c r="G234" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H234" t="n">
-        <v>0.06957460426957131</v>
+        <v>0.08452656711174157</v>
       </c>
       <c r="I234" t="n">
-        <v>0.9136778897090378</v>
+        <v>0.8880283908495232</v>
       </c>
       <c r="J234" t="n">
         <v>0.6275862068965518</v>
@@ -6488,7 +6464,7 @@
         <v>100.0</v>
       </c>
       <c r="G235" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H235"/>
       <c r="I235"/>
@@ -6515,7 +6491,7 @@
         <v>3000.0</v>
       </c>
       <c r="G236" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H236"/>
       <c r="I236"/>
@@ -6542,7 +6518,7 @@
         <v>3000.0</v>
       </c>
       <c r="G237" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H237"/>
       <c r="I237"/>
@@ -6569,7 +6545,7 @@
         <v>100.0</v>
       </c>
       <c r="G238" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H238"/>
       <c r="I238"/>
@@ -6596,7 +6572,7 @@
         <v>100.0</v>
       </c>
       <c r="G239" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H239"/>
       <c r="I239"/>
@@ -6623,7 +6599,7 @@
         <v>3000.0</v>
       </c>
       <c r="G240" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H240"/>
       <c r="I240"/>
@@ -6650,7 +6626,7 @@
         <v>3000.0</v>
       </c>
       <c r="G241" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H241"/>
       <c r="I241"/>
@@ -6677,20 +6653,12 @@
         <v>100.0</v>
       </c>
       <c r="G242" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0.1256535741147748</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0.8667072895773102</v>
-      </c>
-      <c r="J242" t="n">
-        <v>0.5707317073170731</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.6725835550255328</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+      <c r="K242"/>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -6712,7 +6680,7 @@
         <v>100.0</v>
       </c>
       <c r="G243" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H243"/>
       <c r="I243"/>
@@ -6739,7 +6707,7 @@
         <v>3000.0</v>
       </c>
       <c r="G244" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H244"/>
       <c r="I244"/>
@@ -6766,7 +6734,7 @@
         <v>3000.0</v>
       </c>
       <c r="G245" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H245"/>
       <c r="I245"/>
@@ -6793,7 +6761,7 @@
         <v>100.0</v>
       </c>
       <c r="G246" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H246"/>
       <c r="I246"/>
@@ -6820,7 +6788,7 @@
         <v>100.0</v>
       </c>
       <c r="G247" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H247"/>
       <c r="I247"/>
@@ -6847,7 +6815,7 @@
         <v>3000.0</v>
       </c>
       <c r="G248" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H248"/>
       <c r="I248"/>
@@ -6874,7 +6842,7 @@
         <v>3000.0</v>
       </c>
       <c r="G249" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H249"/>
       <c r="I249"/>
@@ -6901,20 +6869,12 @@
         <v>100.0</v>
       </c>
       <c r="G250" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0.1207032791598022</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0.869895810349427</v>
-      </c>
-      <c r="J250" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.7071881768378138</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+      <c r="K250"/>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -6936,7 +6896,7 @@
         <v>100.0</v>
       </c>
       <c r="G251" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H251"/>
       <c r="I251"/>
@@ -6963,7 +6923,7 @@
         <v>3000.0</v>
       </c>
       <c r="G252" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H252"/>
       <c r="I252"/>
@@ -6990,7 +6950,7 @@
         <v>3000.0</v>
       </c>
       <c r="G253" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H253"/>
       <c r="I253"/>
@@ -7017,7 +6977,7 @@
         <v>100.0</v>
       </c>
       <c r="G254" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H254"/>
       <c r="I254"/>
@@ -7044,7 +7004,7 @@
         <v>100.0</v>
       </c>
       <c r="G255" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H255"/>
       <c r="I255"/>
@@ -7071,7 +7031,7 @@
         <v>3000.0</v>
       </c>
       <c r="G256" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H256"/>
       <c r="I256"/>
@@ -7098,7 +7058,7 @@
         <v>3000.0</v>
       </c>
       <c r="G257" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H257"/>
       <c r="I257"/>
@@ -7125,7 +7085,7 @@
         <v>100.0</v>
       </c>
       <c r="G258" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H258"/>
       <c r="I258"/>
@@ -7152,7 +7112,7 @@
         <v>100.0</v>
       </c>
       <c r="G259" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H259"/>
       <c r="I259"/>
@@ -7179,7 +7139,7 @@
         <v>3000.0</v>
       </c>
       <c r="G260" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H260"/>
       <c r="I260"/>
@@ -7206,7 +7166,7 @@
         <v>3000.0</v>
       </c>
       <c r="G261" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H261"/>
       <c r="I261"/>
@@ -7233,7 +7193,7 @@
         <v>100.0</v>
       </c>
       <c r="G262" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H262"/>
       <c r="I262"/>
@@ -7260,7 +7220,7 @@
         <v>100.0</v>
       </c>
       <c r="G263" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H263"/>
       <c r="I263"/>
@@ -7287,7 +7247,7 @@
         <v>3000.0</v>
       </c>
       <c r="G264" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H264"/>
       <c r="I264"/>
@@ -7314,7 +7274,7 @@
         <v>3000.0</v>
       </c>
       <c r="G265" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H265"/>
       <c r="I265"/>
@@ -7341,20 +7301,12 @@
         <v>100.0</v>
       </c>
       <c r="G266" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0.11015840735600643</v>
-      </c>
-      <c r="I266" t="n">
-        <v>0.8768759386006698</v>
-      </c>
-      <c r="J266" t="n">
-        <v>0.6483790523690773</v>
-      </c>
-      <c r="K266" t="n">
-        <v>0.784493309609273</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -7376,7 +7328,7 @@
         <v>100.0</v>
       </c>
       <c r="G267" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H267"/>
       <c r="I267"/>
@@ -7403,7 +7355,7 @@
         <v>3000.0</v>
       </c>
       <c r="G268" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H268"/>
       <c r="I268"/>
@@ -7430,7 +7382,7 @@
         <v>3000.0</v>
       </c>
       <c r="G269" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H269"/>
       <c r="I269"/>
@@ -7457,7 +7409,7 @@
         <v>100.0</v>
       </c>
       <c r="G270" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H270"/>
       <c r="I270"/>
@@ -7484,7 +7436,7 @@
         <v>100.0</v>
       </c>
       <c r="G271" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H271"/>
       <c r="I271"/>
@@ -7511,7 +7463,7 @@
         <v>3000.0</v>
       </c>
       <c r="G272" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H272"/>
       <c r="I272"/>
@@ -7538,7 +7490,7 @@
         <v>3000.0</v>
       </c>
       <c r="G273" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H273"/>
       <c r="I273"/>
@@ -7565,20 +7517,12 @@
         <v>100.0</v>
       </c>
       <c r="G274" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0.07610804997608557</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0.9106804196546494</v>
-      </c>
-      <c r="J274" t="n">
-        <v>0.6113445378151261</v>
-      </c>
-      <c r="K274" t="n">
-        <v>0.8442046350551167</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="K274"/>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -7600,7 +7544,7 @@
         <v>100.0</v>
       </c>
       <c r="G275" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H275"/>
       <c r="I275"/>
@@ -7627,7 +7571,7 @@
         <v>3000.0</v>
       </c>
       <c r="G276" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H276"/>
       <c r="I276"/>
@@ -7654,7 +7598,7 @@
         <v>3000.0</v>
       </c>
       <c r="G277" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H277"/>
       <c r="I277"/>
@@ -7681,7 +7625,7 @@
         <v>100.0</v>
       </c>
       <c r="G278" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H278"/>
       <c r="I278"/>
@@ -7708,7 +7652,7 @@
         <v>100.0</v>
       </c>
       <c r="G279" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H279"/>
       <c r="I279"/>
@@ -7735,7 +7679,7 @@
         <v>3000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H280"/>
       <c r="I280"/>
@@ -7762,7 +7706,7 @@
         <v>3000.0</v>
       </c>
       <c r="G281" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H281"/>
       <c r="I281"/>
@@ -7789,20 +7733,12 @@
         <v>100.0</v>
       </c>
       <c r="G282" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0.13797594023902082</v>
-      </c>
-      <c r="I282" t="n">
-        <v>0.8560947079022253</v>
-      </c>
-      <c r="J282" t="n">
-        <v>0.6506024096385542</v>
-      </c>
-      <c r="K282" t="n">
-        <v>0.6765515791416894</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H282"/>
+      <c r="I282"/>
+      <c r="J282"/>
+      <c r="K282"/>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -7824,7 +7760,7 @@
         <v>100.0</v>
       </c>
       <c r="G283" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H283"/>
       <c r="I283"/>
@@ -7851,7 +7787,7 @@
         <v>3000.0</v>
       </c>
       <c r="G284" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H284"/>
       <c r="I284"/>
@@ -7878,7 +7814,7 @@
         <v>3000.0</v>
       </c>
       <c r="G285" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H285"/>
       <c r="I285"/>
@@ -7905,7 +7841,7 @@
         <v>100.0</v>
       </c>
       <c r="G286" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H286"/>
       <c r="I286"/>
@@ -7932,7 +7868,7 @@
         <v>100.0</v>
       </c>
       <c r="G287" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H287"/>
       <c r="I287"/>
@@ -7959,7 +7895,7 @@
         <v>3000.0</v>
       </c>
       <c r="G288" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H288"/>
       <c r="I288"/>
@@ -7986,7 +7922,7 @@
         <v>3000.0</v>
       </c>
       <c r="G289" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H289"/>
       <c r="I289"/>
@@ -8013,20 +7949,12 @@
         <v>100.0</v>
       </c>
       <c r="G290" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0.13330287255988166</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0.858117188533957</v>
-      </c>
-      <c r="J290" t="n">
-        <v>0.6687306501547987</v>
-      </c>
-      <c r="K290" t="n">
-        <v>0.7113065326633166</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -8048,7 +7976,7 @@
         <v>100.0</v>
       </c>
       <c r="G291" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H291"/>
       <c r="I291"/>
@@ -8075,7 +8003,7 @@
         <v>3000.0</v>
       </c>
       <c r="G292" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H292"/>
       <c r="I292"/>
@@ -8102,7 +8030,7 @@
         <v>3000.0</v>
       </c>
       <c r="G293" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H293"/>
       <c r="I293"/>
@@ -8129,7 +8057,7 @@
         <v>100.0</v>
       </c>
       <c r="G294" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H294"/>
       <c r="I294"/>
@@ -8156,7 +8084,7 @@
         <v>100.0</v>
       </c>
       <c r="G295" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H295"/>
       <c r="I295"/>
@@ -8183,7 +8111,7 @@
         <v>3000.0</v>
       </c>
       <c r="G296" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H296"/>
       <c r="I296"/>
@@ -8210,7 +8138,7 @@
         <v>3000.0</v>
       </c>
       <c r="G297" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H297"/>
       <c r="I297"/>
@@ -8237,7 +8165,7 @@
         <v>100.0</v>
       </c>
       <c r="G298" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H298"/>
       <c r="I298"/>
@@ -8264,7 +8192,7 @@
         <v>100.0</v>
       </c>
       <c r="G299" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H299"/>
       <c r="I299"/>
@@ -8291,7 +8219,7 @@
         <v>3000.0</v>
       </c>
       <c r="G300" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H300"/>
       <c r="I300"/>
@@ -8318,7 +8246,7 @@
         <v>3000.0</v>
       </c>
       <c r="G301" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H301"/>
       <c r="I301"/>
@@ -8345,7 +8273,7 @@
         <v>100.0</v>
       </c>
       <c r="G302" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H302"/>
       <c r="I302"/>
@@ -8372,7 +8300,7 @@
         <v>100.0</v>
       </c>
       <c r="G303" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H303"/>
       <c r="I303"/>
@@ -8399,7 +8327,7 @@
         <v>3000.0</v>
       </c>
       <c r="G304" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H304"/>
       <c r="I304"/>
@@ -8426,7 +8354,7 @@
         <v>3000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H305"/>
       <c r="I305"/>
@@ -8453,20 +8381,12 @@
         <v>100.0</v>
       </c>
       <c r="G306" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0.12211390716878233</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0.8628918219897902</v>
-      </c>
-      <c r="J306" t="n">
-        <v>0.6609195402298851</v>
-      </c>
-      <c r="K306" t="n">
-        <v>0.788444733998273</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -8488,7 +8408,7 @@
         <v>100.0</v>
       </c>
       <c r="G307" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H307"/>
       <c r="I307"/>
@@ -8515,7 +8435,7 @@
         <v>3000.0</v>
       </c>
       <c r="G308" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H308"/>
       <c r="I308"/>
@@ -8542,7 +8462,7 @@
         <v>3000.0</v>
       </c>
       <c r="G309" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H309"/>
       <c r="I309"/>
@@ -8569,7 +8489,7 @@
         <v>100.0</v>
       </c>
       <c r="G310" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H310"/>
       <c r="I310"/>
@@ -8596,7 +8516,7 @@
         <v>100.0</v>
       </c>
       <c r="G311" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H311"/>
       <c r="I311"/>
@@ -8623,7 +8543,7 @@
         <v>3000.0</v>
       </c>
       <c r="G312" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H312"/>
       <c r="I312"/>
@@ -8650,7 +8570,7 @@
         <v>3000.0</v>
       </c>
       <c r="G313" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H313"/>
       <c r="I313"/>
@@ -8677,20 +8597,12 @@
         <v>100.0</v>
       </c>
       <c r="G314" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0.08320420113096624</v>
-      </c>
-      <c r="I314" t="n">
-        <v>0.9032138991402185</v>
-      </c>
-      <c r="J314" t="n">
-        <v>0.6097122302158273</v>
-      </c>
-      <c r="K314" t="n">
-        <v>0.846672008685088</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -8712,7 +8624,7 @@
         <v>100.0</v>
       </c>
       <c r="G315" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H315"/>
       <c r="I315"/>
@@ -8739,7 +8651,7 @@
         <v>3000.0</v>
       </c>
       <c r="G316" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H316"/>
       <c r="I316"/>
@@ -8766,7 +8678,7 @@
         <v>3000.0</v>
       </c>
       <c r="G317" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H317"/>
       <c r="I317"/>
@@ -8793,7 +8705,7 @@
         <v>100.0</v>
       </c>
       <c r="G318" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H318"/>
       <c r="I318"/>
@@ -8820,7 +8732,7 @@
         <v>100.0</v>
       </c>
       <c r="G319" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H319"/>
       <c r="I319"/>
@@ -8847,7 +8759,7 @@
         <v>3000.0</v>
       </c>
       <c r="G320" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H320"/>
       <c r="I320"/>
@@ -8874,7 +8786,7 @@
         <v>3000.0</v>
       </c>
       <c r="G321" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H321"/>
       <c r="I321"/>
@@ -8901,20 +8813,12 @@
         <v>100.0</v>
       </c>
       <c r="G322" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0.17877151397278368</v>
-      </c>
-      <c r="I322" t="n">
-        <v>0.817073432174098</v>
-      </c>
-      <c r="J322" t="n">
-        <v>0.6131059245960503</v>
-      </c>
-      <c r="K322" t="n">
-        <v>0.6951470378263468</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -8936,7 +8840,7 @@
         <v>100.0</v>
       </c>
       <c r="G323" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H323"/>
       <c r="I323"/>
@@ -8963,7 +8867,7 @@
         <v>3000.0</v>
       </c>
       <c r="G324" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H324"/>
       <c r="I324"/>
@@ -8990,7 +8894,7 @@
         <v>3000.0</v>
       </c>
       <c r="G325" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H325"/>
       <c r="I325"/>
@@ -9017,7 +8921,7 @@
         <v>100.0</v>
       </c>
       <c r="G326" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H326"/>
       <c r="I326"/>
@@ -9044,7 +8948,7 @@
         <v>100.0</v>
       </c>
       <c r="G327" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H327"/>
       <c r="I327"/>
@@ -9071,7 +8975,7 @@
         <v>3000.0</v>
       </c>
       <c r="G328" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H328"/>
       <c r="I328"/>
@@ -9098,7 +9002,7 @@
         <v>3000.0</v>
       </c>
       <c r="G329" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H329"/>
       <c r="I329"/>
@@ -9125,20 +9029,12 @@
         <v>100.0</v>
       </c>
       <c r="G330" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0.17099332551466184</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0.8235435479636456</v>
-      </c>
-      <c r="J330" t="n">
-        <v>0.617059891107078</v>
-      </c>
-      <c r="K330" t="n">
-        <v>0.7309062840345553</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -9160,7 +9056,7 @@
         <v>100.0</v>
       </c>
       <c r="G331" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H331"/>
       <c r="I331"/>
@@ -9187,7 +9083,7 @@
         <v>3000.0</v>
       </c>
       <c r="G332" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H332"/>
       <c r="I332"/>
@@ -9214,7 +9110,7 @@
         <v>3000.0</v>
       </c>
       <c r="G333" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H333"/>
       <c r="I333"/>
@@ -9241,7 +9137,7 @@
         <v>100.0</v>
       </c>
       <c r="G334" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H334"/>
       <c r="I334"/>
@@ -9268,7 +9164,7 @@
         <v>100.0</v>
       </c>
       <c r="G335" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H335"/>
       <c r="I335"/>
@@ -9295,7 +9191,7 @@
         <v>3000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H336"/>
       <c r="I336"/>
@@ -9322,7 +9218,7 @@
         <v>3000.0</v>
       </c>
       <c r="G337" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H337"/>
       <c r="I337"/>
@@ -9349,7 +9245,7 @@
         <v>100.0</v>
       </c>
       <c r="G338" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H338"/>
       <c r="I338"/>
@@ -9376,7 +9272,7 @@
         <v>100.0</v>
       </c>
       <c r="G339" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H339"/>
       <c r="I339"/>
@@ -9403,7 +9299,7 @@
         <v>3000.0</v>
       </c>
       <c r="G340" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H340"/>
       <c r="I340"/>
@@ -9430,7 +9326,7 @@
         <v>3000.0</v>
       </c>
       <c r="G341" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H341"/>
       <c r="I341"/>
@@ -9457,7 +9353,7 @@
         <v>100.0</v>
       </c>
       <c r="G342" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H342"/>
       <c r="I342"/>
@@ -9484,7 +9380,7 @@
         <v>100.0</v>
       </c>
       <c r="G343" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H343"/>
       <c r="I343"/>
@@ -9511,7 +9407,7 @@
         <v>3000.0</v>
       </c>
       <c r="G344" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H344"/>
       <c r="I344"/>
@@ -9538,7 +9434,7 @@
         <v>3000.0</v>
       </c>
       <c r="G345" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H345"/>
       <c r="I345"/>
@@ -9565,20 +9461,12 @@
         <v>100.0</v>
       </c>
       <c r="G346" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0.15815458072584487</v>
-      </c>
-      <c r="I346" t="n">
-        <v>0.829888019134777</v>
-      </c>
-      <c r="J346" t="n">
-        <v>0.6461232604373758</v>
-      </c>
-      <c r="K346" t="n">
-        <v>0.802983547235102</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H346"/>
+      <c r="I346"/>
+      <c r="J346"/>
+      <c r="K346"/>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -9600,7 +9488,7 @@
         <v>100.0</v>
       </c>
       <c r="G347" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H347"/>
       <c r="I347"/>
@@ -9627,7 +9515,7 @@
         <v>3000.0</v>
       </c>
       <c r="G348" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H348"/>
       <c r="I348"/>
@@ -9654,7 +9542,7 @@
         <v>3000.0</v>
       </c>
       <c r="G349" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H349"/>
       <c r="I349"/>
@@ -9681,7 +9569,7 @@
         <v>100.0</v>
       </c>
       <c r="G350" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H350"/>
       <c r="I350"/>
@@ -9708,7 +9596,7 @@
         <v>100.0</v>
       </c>
       <c r="G351" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H351"/>
       <c r="I351"/>
@@ -9735,7 +9623,7 @@
         <v>3000.0</v>
       </c>
       <c r="G352" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H352"/>
       <c r="I352"/>
@@ -9762,7 +9650,7 @@
         <v>3000.0</v>
       </c>
       <c r="G353" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H353"/>
       <c r="I353"/>
@@ -9789,20 +9677,12 @@
         <v>100.0</v>
       </c>
       <c r="G354" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0.11435270453190693</v>
-      </c>
-      <c r="I354" t="n">
-        <v>0.8633682569100523</v>
-      </c>
-      <c r="J354" t="n">
-        <v>0.6042908224076281</v>
-      </c>
-      <c r="K354" t="n">
-        <v>0.8552200343942585</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H354"/>
+      <c r="I354"/>
+      <c r="J354"/>
+      <c r="K354"/>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -9824,7 +9704,7 @@
         <v>100.0</v>
       </c>
       <c r="G355" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H355"/>
       <c r="I355"/>
@@ -9851,7 +9731,7 @@
         <v>3000.0</v>
       </c>
       <c r="G356" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H356"/>
       <c r="I356"/>
@@ -9878,7 +9758,7 @@
         <v>3000.0</v>
       </c>
       <c r="G357" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H357"/>
       <c r="I357"/>
@@ -9905,7 +9785,7 @@
         <v>100.0</v>
       </c>
       <c r="G358" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H358"/>
       <c r="I358"/>
@@ -9932,7 +9812,7 @@
         <v>100.0</v>
       </c>
       <c r="G359" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H359"/>
       <c r="I359"/>
@@ -9959,7 +9839,7 @@
         <v>3000.0</v>
       </c>
       <c r="G360" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H360"/>
       <c r="I360"/>
@@ -9986,7 +9866,7 @@
         <v>3000.0</v>
       </c>
       <c r="G361" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H361"/>
       <c r="I361"/>
@@ -10013,20 +9893,12 @@
         <v>100.0</v>
       </c>
       <c r="G362" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0.2564531177031268</v>
-      </c>
-      <c r="I362" t="n">
-        <v>0.7419124205355557</v>
-      </c>
-      <c r="J362" t="n">
-        <v>0.3451829723674384</v>
-      </c>
-      <c r="K362" t="n">
-        <v>0.7563510601698444</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H362"/>
+      <c r="I362"/>
+      <c r="J362"/>
+      <c r="K362"/>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -10048,7 +9920,7 @@
         <v>100.0</v>
       </c>
       <c r="G363" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H363"/>
       <c r="I363"/>
@@ -10075,7 +9947,7 @@
         <v>3000.0</v>
       </c>
       <c r="G364" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H364"/>
       <c r="I364"/>
@@ -10102,7 +9974,7 @@
         <v>3000.0</v>
       </c>
       <c r="G365" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H365"/>
       <c r="I365"/>
@@ -10129,7 +10001,7 @@
         <v>100.0</v>
       </c>
       <c r="G366" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H366"/>
       <c r="I366"/>
@@ -10156,7 +10028,7 @@
         <v>100.0</v>
       </c>
       <c r="G367" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H367"/>
       <c r="I367"/>
@@ -10183,7 +10055,7 @@
         <v>3000.0</v>
       </c>
       <c r="G368" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H368"/>
       <c r="I368"/>
@@ -10210,7 +10082,7 @@
         <v>3000.0</v>
       </c>
       <c r="G369" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H369"/>
       <c r="I369"/>
@@ -10237,20 +10109,12 @@
         <v>100.0</v>
       </c>
       <c r="G370" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0.24205792865068712</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0.7481637079412355</v>
-      </c>
-      <c r="J370" t="n">
-        <v>0.37089367714588484</v>
-      </c>
-      <c r="K370" t="n">
-        <v>0.7876993166287016</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H370"/>
+      <c r="I370"/>
+      <c r="J370"/>
+      <c r="K370"/>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -10272,7 +10136,7 @@
         <v>100.0</v>
       </c>
       <c r="G371" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H371"/>
       <c r="I371"/>
@@ -10299,7 +10163,7 @@
         <v>3000.0</v>
       </c>
       <c r="G372" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H372"/>
       <c r="I372"/>
@@ -10326,7 +10190,7 @@
         <v>3000.0</v>
       </c>
       <c r="G373" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H373"/>
       <c r="I373"/>
@@ -10353,7 +10217,7 @@
         <v>100.0</v>
       </c>
       <c r="G374" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H374"/>
       <c r="I374"/>
@@ -10380,7 +10244,7 @@
         <v>100.0</v>
       </c>
       <c r="G375" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H375"/>
       <c r="I375"/>
@@ -10407,7 +10271,7 @@
         <v>3000.0</v>
       </c>
       <c r="G376" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H376"/>
       <c r="I376"/>
@@ -10434,7 +10298,7 @@
         <v>3000.0</v>
       </c>
       <c r="G377" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H377"/>
       <c r="I377"/>
@@ -10461,7 +10325,7 @@
         <v>100.0</v>
       </c>
       <c r="G378" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H378"/>
       <c r="I378"/>
@@ -10488,7 +10352,7 @@
         <v>100.0</v>
       </c>
       <c r="G379" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H379"/>
       <c r="I379"/>
@@ -10515,7 +10379,7 @@
         <v>3000.0</v>
       </c>
       <c r="G380" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H380"/>
       <c r="I380"/>
@@ -10542,7 +10406,7 @@
         <v>3000.0</v>
       </c>
       <c r="G381" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H381"/>
       <c r="I381"/>
@@ -10569,7 +10433,7 @@
         <v>100.0</v>
       </c>
       <c r="G382" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H382"/>
       <c r="I382"/>
@@ -10596,7 +10460,7 @@
         <v>100.0</v>
       </c>
       <c r="G383" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H383"/>
       <c r="I383"/>
@@ -10623,7 +10487,7 @@
         <v>3000.0</v>
       </c>
       <c r="G384" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H384"/>
       <c r="I384"/>
@@ -10650,7 +10514,7 @@
         <v>3000.0</v>
       </c>
       <c r="G385" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H385"/>
       <c r="I385"/>
@@ -10677,20 +10541,12 @@
         <v>100.0</v>
       </c>
       <c r="G386" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0.2192167063787162</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0.762939954373795</v>
-      </c>
-      <c r="J386" t="n">
-        <v>0.34759255706886627</v>
-      </c>
-      <c r="K386" t="n">
-        <v>0.8541818729507722</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H386"/>
+      <c r="I386"/>
+      <c r="J386"/>
+      <c r="K386"/>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -10712,7 +10568,7 @@
         <v>100.0</v>
       </c>
       <c r="G387" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H387"/>
       <c r="I387"/>
@@ -10739,7 +10595,7 @@
         <v>3000.0</v>
       </c>
       <c r="G388" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H388"/>
       <c r="I388"/>
@@ -10766,7 +10622,7 @@
         <v>3000.0</v>
       </c>
       <c r="G389" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H389"/>
       <c r="I389"/>
@@ -10793,7 +10649,7 @@
         <v>100.0</v>
       </c>
       <c r="G390" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H390"/>
       <c r="I390"/>
@@ -10820,7 +10676,7 @@
         <v>100.0</v>
       </c>
       <c r="G391" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H391"/>
       <c r="I391"/>
@@ -10847,7 +10703,7 @@
         <v>3000.0</v>
       </c>
       <c r="G392" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H392"/>
       <c r="I392"/>
@@ -10874,7 +10730,7 @@
         <v>3000.0</v>
       </c>
       <c r="G393" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H393"/>
       <c r="I393"/>
@@ -10901,20 +10757,12 @@
         <v>100.0</v>
       </c>
       <c r="G394" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0.15591188698290853</v>
-      </c>
-      <c r="I394" t="n">
-        <v>0.8066704887466859</v>
-      </c>
-      <c r="J394" t="n">
-        <v>0.40249285899766296</v>
-      </c>
-      <c r="K394" t="n">
-        <v>0.9073669927065076</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H394"/>
+      <c r="I394"/>
+      <c r="J394"/>
+      <c r="K394"/>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -10936,7 +10784,7 @@
         <v>100.0</v>
       </c>
       <c r="G395" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H395"/>
       <c r="I395"/>
@@ -10963,7 +10811,7 @@
         <v>3000.0</v>
       </c>
       <c r="G396" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H396"/>
       <c r="I396"/>
@@ -10990,7 +10838,7 @@
         <v>3000.0</v>
       </c>
       <c r="G397" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H397"/>
       <c r="I397"/>
@@ -11017,7 +10865,7 @@
         <v>100.0</v>
       </c>
       <c r="G398" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H398"/>
       <c r="I398"/>
@@ -11044,7 +10892,7 @@
         <v>100.0</v>
       </c>
       <c r="G399" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H399"/>
       <c r="I399"/>
@@ -11071,7 +10919,7 @@
         <v>3000.0</v>
       </c>
       <c r="G400" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H400"/>
       <c r="I400"/>
@@ -11098,7 +10946,7 @@
         <v>3000.0</v>
       </c>
       <c r="G401" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H401"/>
       <c r="I401"/>
@@ -11125,20 +10973,12 @@
         <v>100.0</v>
       </c>
       <c r="G402" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0.29979003191507253</v>
-      </c>
-      <c r="I402" t="n">
-        <v>0.6901395552559813</v>
-      </c>
-      <c r="J402" t="n">
-        <v>0.20192307692307693</v>
-      </c>
-      <c r="K402" t="n">
-        <v>0.7830226182316655</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H402"/>
+      <c r="I402"/>
+      <c r="J402"/>
+      <c r="K402"/>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -11160,7 +11000,7 @@
         <v>100.0</v>
       </c>
       <c r="G403" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H403"/>
       <c r="I403"/>
@@ -11187,7 +11027,7 @@
         <v>3000.0</v>
       </c>
       <c r="G404" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H404"/>
       <c r="I404"/>
@@ -11214,7 +11054,7 @@
         <v>3000.0</v>
       </c>
       <c r="G405" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H405"/>
       <c r="I405"/>
@@ -11241,7 +11081,7 @@
         <v>100.0</v>
       </c>
       <c r="G406" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H406"/>
       <c r="I406"/>
@@ -11268,7 +11108,7 @@
         <v>100.0</v>
       </c>
       <c r="G407" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H407"/>
       <c r="I407"/>
@@ -11295,7 +11135,7 @@
         <v>3000.0</v>
       </c>
       <c r="G408" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H408"/>
       <c r="I408"/>
@@ -11322,7 +11162,7 @@
         <v>3000.0</v>
       </c>
       <c r="G409" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H409"/>
       <c r="I409"/>
@@ -11349,20 +11189,12 @@
         <v>100.0</v>
       </c>
       <c r="G410" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0.27807034565771993</v>
-      </c>
-      <c r="I410" t="n">
-        <v>0.707056704885237</v>
-      </c>
-      <c r="J410" t="n">
-        <v>0.21547732784596163</v>
-      </c>
-      <c r="K410" t="n">
-        <v>0.8168660901157051</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H410"/>
+      <c r="I410"/>
+      <c r="J410"/>
+      <c r="K410"/>
     </row>
     <row r="411">
       <c r="A411" t="s">
@@ -11384,7 +11216,7 @@
         <v>100.0</v>
       </c>
       <c r="G411" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H411"/>
       <c r="I411"/>
@@ -11411,7 +11243,7 @@
         <v>3000.0</v>
       </c>
       <c r="G412" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H412"/>
       <c r="I412"/>
@@ -11438,7 +11270,7 @@
         <v>3000.0</v>
       </c>
       <c r="G413" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H413"/>
       <c r="I413"/>
@@ -11465,7 +11297,7 @@
         <v>100.0</v>
       </c>
       <c r="G414" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H414"/>
       <c r="I414"/>
@@ -11492,7 +11324,7 @@
         <v>100.0</v>
       </c>
       <c r="G415" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H415"/>
       <c r="I415"/>
@@ -11519,7 +11351,7 @@
         <v>3000.0</v>
       </c>
       <c r="G416" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H416"/>
       <c r="I416"/>
@@ -11546,7 +11378,7 @@
         <v>3000.0</v>
       </c>
       <c r="G417" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H417"/>
       <c r="I417"/>
@@ -11573,7 +11405,7 @@
         <v>100.0</v>
       </c>
       <c r="G418" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H418"/>
       <c r="I418"/>
@@ -11600,7 +11432,7 @@
         <v>100.0</v>
       </c>
       <c r="G419" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H419"/>
       <c r="I419"/>
@@ -11627,7 +11459,7 @@
         <v>3000.0</v>
       </c>
       <c r="G420" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H420"/>
       <c r="I420"/>
@@ -11654,7 +11486,7 @@
         <v>3000.0</v>
       </c>
       <c r="G421" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H421"/>
       <c r="I421"/>
@@ -11681,7 +11513,7 @@
         <v>100.0</v>
       </c>
       <c r="G422" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H422"/>
       <c r="I422"/>
@@ -11708,7 +11540,7 @@
         <v>100.0</v>
       </c>
       <c r="G423" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H423"/>
       <c r="I423"/>
@@ -11735,7 +11567,7 @@
         <v>3000.0</v>
       </c>
       <c r="G424" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H424"/>
       <c r="I424"/>
@@ -11762,7 +11594,7 @@
         <v>3000.0</v>
       </c>
       <c r="G425" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H425"/>
       <c r="I425"/>
@@ -11789,20 +11621,12 @@
         <v>100.0</v>
       </c>
       <c r="G426" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0.24790867227654348</v>
-      </c>
-      <c r="I426" t="n">
-        <v>0.7272631436810069</v>
-      </c>
-      <c r="J426" t="n">
-        <v>0.2073961113229127</v>
-      </c>
-      <c r="K426" t="n">
-        <v>0.8947215383720705</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H426"/>
+      <c r="I426"/>
+      <c r="J426"/>
+      <c r="K426"/>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -11824,7 +11648,7 @@
         <v>100.0</v>
       </c>
       <c r="G427" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H427"/>
       <c r="I427"/>
@@ -11851,7 +11675,7 @@
         <v>3000.0</v>
       </c>
       <c r="G428" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H428"/>
       <c r="I428"/>
@@ -11878,7 +11702,7 @@
         <v>3000.0</v>
       </c>
       <c r="G429" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H429"/>
       <c r="I429"/>
@@ -11905,7 +11729,7 @@
         <v>100.0</v>
       </c>
       <c r="G430" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H430"/>
       <c r="I430"/>
@@ -11932,7 +11756,7 @@
         <v>100.0</v>
       </c>
       <c r="G431" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H431"/>
       <c r="I431"/>
@@ -11959,7 +11783,7 @@
         <v>3000.0</v>
       </c>
       <c r="G432" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H432"/>
       <c r="I432"/>
@@ -11986,7 +11810,7 @@
         <v>3000.0</v>
       </c>
       <c r="G433" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H433"/>
       <c r="I433"/>
@@ -12013,20 +11837,12 @@
         <v>100.0</v>
       </c>
       <c r="G434" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H434" t="n">
-        <v>0.18008163779167374</v>
-      </c>
-      <c r="I434" t="n">
-        <v>0.7816477920538115</v>
-      </c>
-      <c r="J434" t="n">
-        <v>0.261068513480089</v>
-      </c>
-      <c r="K434" t="n">
-        <v>0.9357681333533564</v>
-      </c>
+        <v>1000.0</v>
+      </c>
+      <c r="H434"/>
+      <c r="I434"/>
+      <c r="J434"/>
+      <c r="K434"/>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -12048,7 +11864,7 @@
         <v>100.0</v>
       </c>
       <c r="G435" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H435"/>
       <c r="I435"/>
@@ -12075,7 +11891,7 @@
         <v>3000.0</v>
       </c>
       <c r="G436" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H436"/>
       <c r="I436"/>
@@ -12102,7 +11918,7 @@
         <v>3000.0</v>
       </c>
       <c r="G437" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H437"/>
       <c r="I437"/>
@@ -12129,7 +11945,7 @@
         <v>100.0</v>
       </c>
       <c r="G438" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H438"/>
       <c r="I438"/>
@@ -12156,7 +11972,7 @@
         <v>100.0</v>
       </c>
       <c r="G439" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H439"/>
       <c r="I439"/>
@@ -12183,7 +11999,7 @@
         <v>3000.0</v>
       </c>
       <c r="G440" t="n">
-        <v>100.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H440"/>
       <c r="I440"/>
@@ -12210,7 +12026,7 @@
         <v>3000.0</v>
       </c>
       <c r="G441" t="n">
-        <v>200.0</v>
+        <v>500.0</v>
       </c>
       <c r="H441"/>
       <c r="I441"/>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -167,10 +167,18 @@
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
+      <c r="H2" t="n">
+        <v>0.34202161006494575</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8559841215866772</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6680735207789316</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -221,10 +229,16 @@
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
+      <c r="H4" t="n">
+        <v>0.1733982705668345</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8291499966520604</v>
+      </c>
       <c r="J4"/>
-      <c r="K4"/>
+      <c r="K4" t="n">
+        <v>0.8611197511664075</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -275,10 +289,18 @@
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
+      <c r="H6" t="n">
+        <v>0.3402132388594636</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.857561035060397</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7024264352402398</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -329,10 +351,16 @@
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="H8" t="n">
+        <v>0.16984652802317207</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.829675531315524</v>
+      </c>
       <c r="J8"/>
-      <c r="K8"/>
+      <c r="K8" t="n">
+        <v>0.8733592534992224</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -383,10 +411,18 @@
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
+      <c r="H10" t="n">
+        <v>0.3385987430573048</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8532304523073351</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.7269314064808631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -437,10 +473,16 @@
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
+      <c r="H12" t="n">
+        <v>0.16799271285729325</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8293841200493273</v>
+      </c>
       <c r="J12"/>
-      <c r="K12"/>
+      <c r="K12" t="n">
+        <v>0.8781441161223432</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -491,10 +533,18 @@
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
+      <c r="H14" t="n">
+        <v>0.33431520126873904</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8655121632910198</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.7727583154167194</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -545,10 +595,16 @@
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
+      <c r="H16" t="n">
+        <v>0.16424873002020846</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8337825033225653</v>
+      </c>
       <c r="J16"/>
-      <c r="K16"/>
+      <c r="K16" t="n">
+        <v>0.8912286158631415</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -599,10 +655,18 @@
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
+      <c r="H18" t="n">
+        <v>0.3097575963212628</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8916480112220981</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8299745052810489</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -653,10 +717,16 @@
       <c r="G20" t="n">
         <v>0.0</v>
       </c>
-      <c r="H20"/>
-      <c r="I20"/>
+      <c r="H20" t="n">
+        <v>0.1388662119953984</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8978570161173967</v>
+      </c>
       <c r="J20"/>
-      <c r="K20"/>
+      <c r="K20" t="n">
+        <v>0.9106376360808709</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -707,10 +777,18 @@
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
+      <c r="H22" t="n">
+        <v>0.384477496939729</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.825219897324291</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.668317032177065</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -761,10 +839,16 @@
       <c r="G24" t="n">
         <v>0.0</v>
       </c>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="H24" t="n">
+        <v>0.21725823127959887</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.742760285455492</v>
+      </c>
       <c r="J24"/>
-      <c r="K24"/>
+      <c r="K24" t="n">
+        <v>0.8611197511664075</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -815,10 +899,18 @@
       <c r="G26" t="n">
         <v>0.0</v>
       </c>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
+      <c r="H26" t="n">
+        <v>0.3824652113333181</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8268697747147995</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7026352555276585</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -869,10 +961,16 @@
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
-      <c r="H28"/>
-      <c r="I28"/>
+      <c r="H28" t="n">
+        <v>0.21174924146815538</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.7531077914383792</v>
+      </c>
       <c r="J28"/>
-      <c r="K28"/>
+      <c r="K28" t="n">
+        <v>0.8733592534992224</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -923,10 +1021,18 @@
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
+      <c r="H30" t="n">
+        <v>0.3814057453809263</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8245266873954786</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7271494082989988</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -977,10 +1083,16 @@
       <c r="G32" t="n">
         <v>0.0</v>
       </c>
-      <c r="H32"/>
-      <c r="I32"/>
+      <c r="H32" t="n">
+        <v>0.20990948896538902</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.7663575098803705</v>
+      </c>
       <c r="J32"/>
-      <c r="K32"/>
+      <c r="K32" t="n">
+        <v>0.8781441161223432</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1031,10 +1143,18 @@
       <c r="G34" t="n">
         <v>0.0</v>
       </c>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
+      <c r="H34" t="n">
+        <v>0.3779060234405186</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8397106809415716</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7728063873063418</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1085,10 +1205,16 @@
       <c r="G36" t="n">
         <v>0.0</v>
       </c>
-      <c r="H36"/>
-      <c r="I36"/>
+      <c r="H36" t="n">
+        <v>0.20603092556609048</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7835683322920938</v>
+      </c>
       <c r="J36"/>
-      <c r="K36"/>
+      <c r="K36" t="n">
+        <v>0.8912286158631415</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1139,10 +1265,18 @@
       <c r="G38" t="n">
         <v>0.0</v>
       </c>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
+      <c r="H38" t="n">
+        <v>0.35196394374844925</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8697047489436742</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.830039865630565</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1193,10 +1327,16 @@
       <c r="G40" t="n">
         <v>0.0</v>
       </c>
-      <c r="H40"/>
-      <c r="I40"/>
+      <c r="H40" t="n">
+        <v>0.1706990133906809</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8470542125665877</v>
+      </c>
       <c r="J40"/>
-      <c r="K40"/>
+      <c r="K40" t="n">
+        <v>0.9106376360808709</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1247,10 +1387,18 @@
       <c r="G42" t="n">
         <v>0.0</v>
       </c>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
+      <c r="H42" t="n">
+        <v>0.43097077718855764</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.7921678283202866</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6686419903158491</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1301,10 +1449,16 @@
       <c r="G44" t="n">
         <v>0.0</v>
       </c>
-      <c r="H44"/>
-      <c r="I44"/>
+      <c r="H44" t="n">
+        <v>0.27410431549057135</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6213553079493626</v>
+      </c>
       <c r="J44"/>
-      <c r="K44"/>
+      <c r="K44" t="n">
+        <v>0.8611197511664075</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1355,10 +1509,18 @@
       <c r="G46" t="n">
         <v>0.0</v>
       </c>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
+      <c r="H46" t="n">
+        <v>0.4293259090425007</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.794928785146567</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.3829787234042553</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.7029753614747664</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1409,10 +1571,16 @@
       <c r="G48" t="n">
         <v>0.0</v>
       </c>
-      <c r="H48"/>
-      <c r="I48"/>
+      <c r="H48" t="n">
+        <v>0.26663635775633765</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.6269252202767837</v>
+      </c>
       <c r="J48"/>
-      <c r="K48"/>
+      <c r="K48" t="n">
+        <v>0.8733592534992224</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1463,10 +1631,18 @@
       <c r="G50" t="n">
         <v>0.0</v>
       </c>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
+      <c r="H50" t="n">
+        <v>0.4279087673597671</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.791388137011532</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.7275001519233496</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1517,10 +1693,16 @@
       <c r="G52" t="n">
         <v>0.0</v>
       </c>
-      <c r="H52"/>
-      <c r="I52"/>
+      <c r="H52" t="n">
+        <v>0.26467640613050236</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.6394819700595746</v>
+      </c>
       <c r="J52"/>
-      <c r="K52"/>
+      <c r="K52" t="n">
+        <v>0.8781441161223432</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1571,10 +1753,18 @@
       <c r="G54" t="n">
         <v>0.0</v>
       </c>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
+      <c r="H54" t="n">
+        <v>0.424607230976875</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.8015689940964351</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.7732664995822891</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1625,10 +1815,16 @@
       <c r="G56" t="n">
         <v>0.0</v>
       </c>
-      <c r="H56"/>
-      <c r="I56"/>
+      <c r="H56" t="n">
+        <v>0.26116782008449174</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.6423031723894659</v>
+      </c>
       <c r="J56"/>
-      <c r="K56"/>
+      <c r="K56" t="n">
+        <v>0.8912286158631415</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1679,10 +1875,18 @@
       <c r="G58" t="n">
         <v>0.0</v>
       </c>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
+      <c r="H58" t="n">
+        <v>0.40208679988576174</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8355883724629233</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8303423215514798</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1733,10 +1937,16 @@
       <c r="G60" t="n">
         <v>0.0</v>
       </c>
-      <c r="H60"/>
-      <c r="I60"/>
+      <c r="H60" t="n">
+        <v>0.22716744129453156</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.7584225138240475</v>
+      </c>
       <c r="J60"/>
-      <c r="K60"/>
+      <c r="K60" t="n">
+        <v>0.9106376360808709</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1787,10 +1997,18 @@
       <c r="G62" t="n">
         <v>0.0</v>
       </c>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
+      <c r="H62" t="n">
+        <v>0.5833914906908519</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6013824962976825</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5914893617021276</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.6782639146376632</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1841,10 +2059,18 @@
       <c r="G64" t="n">
         <v>0.0</v>
       </c>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
+      <c r="H64" t="n">
+        <v>0.46241963293809885</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.4097822464651549</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8647523906748057</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -1895,10 +2121,18 @@
       <c r="G66" t="n">
         <v>0.0</v>
       </c>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
-      <c r="K66"/>
+      <c r="H66" t="n">
+        <v>0.5781987814760493</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6108778792661116</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5870535714285714</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.7127157667275487</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1949,10 +2183,18 @@
       <c r="G68" t="n">
         <v>0.0</v>
       </c>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
+      <c r="H68" t="n">
+        <v>0.452328222949434</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.4237442215826298</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.8769106580215087</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -2003,10 +2245,18 @@
       <c r="G70" t="n">
         <v>0.0</v>
       </c>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
+      <c r="H70" t="n">
+        <v>0.5755868505467806</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6075278130876816</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5788288288288288</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.7374238177282897</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -2057,10 +2307,18 @@
       <c r="G72" t="n">
         <v>0.0</v>
       </c>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
-      <c r="K72"/>
+      <c r="H72" t="n">
+        <v>0.451533502528784</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.42529195289154087</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.881717574147853</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -2111,10 +2369,18 @@
       <c r="G74" t="n">
         <v>0.0</v>
       </c>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
+      <c r="H74" t="n">
+        <v>0.5708066694770931</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.6208307813904221</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5501618122977346</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.7800559513519872</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -2165,10 +2431,18 @@
       <c r="G76" t="n">
         <v>0.0</v>
       </c>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
+      <c r="H76" t="n">
+        <v>0.4501250797474864</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.4305550054193487</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.2875</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.8948311329844023</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -2219,10 +2493,18 @@
       <c r="G78" t="n">
         <v>0.0</v>
       </c>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
-      <c r="K78"/>
+      <c r="H78" t="n">
+        <v>0.5354529145614016</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.705072068427037</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.8340570498805105</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -2273,10 +2555,18 @@
       <c r="G80" t="n">
         <v>0.0</v>
       </c>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
+      <c r="H80" t="n">
+        <v>0.40815348780796507</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.49426219234201624</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.3283582089552239</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9141479618666791</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -5567,10 +5857,18 @@
       <c r="G202" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-      <c r="K202"/>
+      <c r="H202" t="n">
+        <v>0.411057600869479</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.7457249133872849</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.6725884703196348</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -5594,10 +5892,18 @@
       <c r="G203" t="n">
         <v>500.0</v>
       </c>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-      <c r="K203"/>
+      <c r="H203" t="n">
+        <v>0.3860285335938774</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.7561296820453355</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.6725884703196348</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
@@ -5783,10 +6089,18 @@
       <c r="G210" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
-      <c r="K210"/>
+      <c r="H210" t="n">
+        <v>0.3915768657962553</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.748139456969374</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.6030927835051546</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0.7071905417112572</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -5810,10 +6124,18 @@
       <c r="G211" t="n">
         <v>500.0</v>
       </c>
-      <c r="H211"/>
-      <c r="I211"/>
-      <c r="J211"/>
-      <c r="K211"/>
+      <c r="H211" t="n">
+        <v>0.3625069311564524</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.7587931350745026</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.6030927835051546</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.7071905417112572</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
@@ -6215,10 +6537,18 @@
       <c r="G226" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H226"/>
-      <c r="I226"/>
-      <c r="J226"/>
-      <c r="K226"/>
+      <c r="H226" t="n">
+        <v>0.3262922168660503</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.8147182011544974</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.6592797783933518</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.7834970550628784</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
@@ -6242,10 +6572,18 @@
       <c r="G227" t="n">
         <v>500.0</v>
       </c>
-      <c r="H227"/>
-      <c r="I227"/>
-      <c r="J227"/>
-      <c r="K227"/>
+      <c r="H227" t="n">
+        <v>0.29141135816013813</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.8317397951438096</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.6592797783933518</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.7834970550628784</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
@@ -6432,10 +6770,10 @@
         <v>1000.0</v>
       </c>
       <c r="H234" t="n">
-        <v>0.08452656711174157</v>
+        <v>0.2630817194533726</v>
       </c>
       <c r="I234" t="n">
-        <v>0.8880283908495232</v>
+        <v>0.8652123466051755</v>
       </c>
       <c r="J234" t="n">
         <v>0.6275862068965518</v>
@@ -6466,10 +6804,18 @@
       <c r="G235" t="n">
         <v>500.0</v>
       </c>
-      <c r="H235"/>
-      <c r="I235"/>
-      <c r="J235"/>
-      <c r="K235"/>
+      <c r="H235" t="n">
+        <v>0.2322913881800923</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.8796761780027527</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.6275862068965518</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0.8434007813746635</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
@@ -6655,10 +7001,18 @@
       <c r="G242" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
-      <c r="K242"/>
+      <c r="H242" t="n">
+        <v>0.44123263825577735</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.718797648644745</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.6725835550255328</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -6682,10 +7036,18 @@
       <c r="G243" t="n">
         <v>500.0</v>
       </c>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243"/>
-      <c r="K243"/>
+      <c r="H243" t="n">
+        <v>0.41780408299379945</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.724647754382071</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.5707317073170731</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.6725835550255328</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -6871,10 +7233,18 @@
       <c r="G250" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
-      <c r="K250"/>
+      <c r="H250" t="n">
+        <v>0.42238224892676857</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.7246897084709311</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.7071881768378138</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -6898,10 +7268,18 @@
       <c r="G251" t="n">
         <v>500.0</v>
       </c>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
-      <c r="K251"/>
+      <c r="H251" t="n">
+        <v>0.3943253286896073</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.7295607064941252</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.7071881768378138</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
@@ -7303,10 +7681,18 @@
       <c r="G266" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
-      <c r="K266"/>
+      <c r="H266" t="n">
+        <v>0.3547897819474763</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.7927738089960427</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.6483790523690773</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.784493309609273</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -7330,10 +7716,18 @@
       <c r="G267" t="n">
         <v>500.0</v>
       </c>
-      <c r="H267"/>
-      <c r="I267"/>
-      <c r="J267"/>
-      <c r="K267"/>
+      <c r="H267" t="n">
+        <v>0.3189061485852226</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.8105990351358078</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.6483790523690773</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.784493309609273</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -7519,10 +7913,18 @@
       <c r="G274" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
-      <c r="K274"/>
+      <c r="H274" t="n">
+        <v>0.2819146586211808</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.8476762918143286</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.6113445378151261</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.8442046350551167</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -7546,10 +7948,18 @@
       <c r="G275" t="n">
         <v>500.0</v>
       </c>
-      <c r="H275"/>
-      <c r="I275"/>
-      <c r="J275"/>
-      <c r="K275"/>
+      <c r="H275" t="n">
+        <v>0.25506905612165953</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.8609027901717758</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.6113445378151261</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.8442046350551167</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -7735,10 +8145,18 @@
       <c r="G282" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
-      <c r="K282"/>
+      <c r="H282" t="n">
+        <v>0.47426894586097085</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.6848116018704726</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.6506024096385542</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.6765515791416894</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -7762,10 +8180,18 @@
       <c r="G283" t="n">
         <v>500.0</v>
       </c>
-      <c r="H283"/>
-      <c r="I283"/>
-      <c r="J283"/>
-      <c r="K283"/>
+      <c r="H283" t="n">
+        <v>0.45246638491721397</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0.6990270667384959</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.6506024096385542</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.6765515791416894</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
@@ -7951,10 +8377,18 @@
       <c r="G290" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
-      <c r="K290"/>
+      <c r="H290" t="n">
+        <v>0.4548215089096702</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.6947649817380214</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.6687306501547987</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.7113065326633166</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -7978,10 +8412,18 @@
       <c r="G291" t="n">
         <v>500.0</v>
       </c>
-      <c r="H291"/>
-      <c r="I291"/>
-      <c r="J291"/>
-      <c r="K291"/>
+      <c r="H291" t="n">
+        <v>0.42968072491685994</v>
+      </c>
+      <c r="I291" t="n">
+        <v>0.7050282825227063</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.6687306501547987</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.7113065326633166</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
@@ -8383,10 +8825,18 @@
       <c r="G306" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
-      <c r="K306"/>
+      <c r="H306" t="n">
+        <v>0.3862701157318177</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.7683717255012872</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.6609195402298851</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.788444733998273</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -8410,10 +8860,18 @@
       <c r="G307" t="n">
         <v>500.0</v>
       </c>
-      <c r="H307"/>
-      <c r="I307"/>
-      <c r="J307"/>
-      <c r="K307"/>
+      <c r="H307" t="n">
+        <v>0.35133622442952805</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.7818698738727177</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.6609195402298851</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.788444733998273</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -8599,10 +9057,18 @@
       <c r="G314" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H314"/>
-      <c r="I314"/>
-      <c r="J314"/>
-      <c r="K314"/>
+      <c r="H314" t="n">
+        <v>0.30513768250058887</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.8273811050360529</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.6097122302158273</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.846672008685088</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -8626,10 +9092,18 @@
       <c r="G315" t="n">
         <v>500.0</v>
       </c>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
-      <c r="K315"/>
+      <c r="H315" t="n">
+        <v>0.27780072728069216</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.8451397520736843</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.6097122302158273</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.846672008685088</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -8815,10 +9289,18 @@
       <c r="G322" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322"/>
+      <c r="H322" t="n">
+        <v>0.5835731588414671</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.5421149761659809</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.6951470378263468</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -8842,10 +9324,18 @@
       <c r="G323" t="n">
         <v>500.0</v>
       </c>
-      <c r="H323"/>
-      <c r="I323"/>
-      <c r="J323"/>
-      <c r="K323"/>
+      <c r="H323" t="n">
+        <v>0.5685260655115117</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.5585287081938046</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.6131059245960503</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.6951470378263468</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -9031,10 +9521,18 @@
       <c r="G330" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
-      <c r="K330"/>
+      <c r="H330" t="n">
+        <v>0.561041111895498</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.5602665015706072</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.617059891107078</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.7309062840345553</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -9058,10 +9556,18 @@
       <c r="G331" t="n">
         <v>500.0</v>
       </c>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
-      <c r="K331"/>
+      <c r="H331" t="n">
+        <v>0.5420936278873917</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.5738190427591258</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.617059891107078</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.7309062840345553</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -9463,10 +9969,18 @@
       <c r="G346" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
-      <c r="K346"/>
+      <c r="H346" t="n">
+        <v>0.48372614483669807</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.658257955962494</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.6461232604373758</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.802983547235102</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -9490,10 +10004,18 @@
       <c r="G347" t="n">
         <v>500.0</v>
       </c>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
-      <c r="K347"/>
+      <c r="H347" t="n">
+        <v>0.4546353099475561</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.6755676987622844</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.6461232604373758</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.802983547235102</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -9679,10 +10201,18 @@
       <c r="G354" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
-      <c r="K354"/>
+      <c r="H354" t="n">
+        <v>0.36978485121903265</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.771096543669709</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.6042908224076281</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.8552200343942585</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -9706,10 +10236,18 @@
       <c r="G355" t="n">
         <v>500.0</v>
       </c>
-      <c r="H355"/>
-      <c r="I355"/>
-      <c r="J355"/>
-      <c r="K355"/>
+      <c r="H355" t="n">
+        <v>0.34926730139981305</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.7862037676024562</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.6042908224076281</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.8552200343942585</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -9895,10 +10433,18 @@
       <c r="G362" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H362"/>
-      <c r="I362"/>
-      <c r="J362"/>
-      <c r="K362"/>
+      <c r="H362" t="n">
+        <v>0.7525227181146618</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.3290046574282259</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.3451829723674384</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.7563510601698444</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -9922,10 +10468,18 @@
       <c r="G363" t="n">
         <v>500.0</v>
       </c>
-      <c r="H363"/>
-      <c r="I363"/>
-      <c r="J363"/>
-      <c r="K363"/>
+      <c r="H363" t="n">
+        <v>0.7495190121413299</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.3376286679950568</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.3451829723674384</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.7563510601698444</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -10111,10 +10665,18 @@
       <c r="G370" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
-      <c r="K370"/>
+      <c r="H370" t="n">
+        <v>0.7252525352692636</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.35930597293524874</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.37089367714588484</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.7876993166287016</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -10138,10 +10700,18 @@
       <c r="G371" t="n">
         <v>500.0</v>
       </c>
-      <c r="H371"/>
-      <c r="I371"/>
-      <c r="J371"/>
-      <c r="K371"/>
+      <c r="H371" t="n">
+        <v>0.7198104630472931</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.3616395985816472</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.37089367714588484</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.7876993166287016</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
@@ -10543,10 +11113,18 @@
       <c r="G386" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
-      <c r="K386"/>
+      <c r="H386" t="n">
+        <v>0.6464719620591084</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.4617897960675309</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.34759255706886627</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.8541818729507722</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -10570,10 +11148,18 @@
       <c r="G387" t="n">
         <v>500.0</v>
       </c>
-      <c r="H387"/>
-      <c r="I387"/>
-      <c r="J387"/>
-      <c r="K387"/>
+      <c r="H387" t="n">
+        <v>0.6309434195041492</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.4764743962882064</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.34759255706886627</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.8541818729507722</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -10759,10 +11345,18 @@
       <c r="G394" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H394"/>
-      <c r="I394"/>
-      <c r="J394"/>
-      <c r="K394"/>
+      <c r="H394" t="n">
+        <v>0.49101620159413856</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.6108197967412515</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.40249285899766296</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.9073669927065076</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -10786,10 +11380,18 @@
       <c r="G395" t="n">
         <v>500.0</v>
       </c>
-      <c r="H395"/>
-      <c r="I395"/>
-      <c r="J395"/>
-      <c r="K395"/>
+      <c r="H395" t="n">
+        <v>0.4717880625034309</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.6228109755557972</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.40249285899766296</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.9073669927065076</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
@@ -10975,10 +11577,18 @@
       <c r="G402" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
-      <c r="K402"/>
+      <c r="H402" t="n">
+        <v>0.8166959530113581</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.20315217784520315</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.7830226182316655</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -11002,10 +11612,18 @@
       <c r="G403" t="n">
         <v>500.0</v>
       </c>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
-      <c r="K403"/>
+      <c r="H403" t="n">
+        <v>0.813652187195442</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.21101662592888057</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.20192307692307693</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.7830226182316655</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -11191,10 +11809,18 @@
       <c r="G410" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H410"/>
-      <c r="I410"/>
-      <c r="J410"/>
-      <c r="K410"/>
+      <c r="H410" t="n">
+        <v>0.7853200518386476</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.24934156221132703</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.21547732784596163</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.8168660901157051</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
@@ -11218,10 +11844,18 @@
       <c r="G411" t="n">
         <v>500.0</v>
       </c>
-      <c r="H411"/>
-      <c r="I411"/>
-      <c r="J411"/>
-      <c r="K411"/>
+      <c r="H411" t="n">
+        <v>0.783122643141091</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.2543905477751984</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.21547732784596163</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.8168660901157051</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
@@ -11623,10 +12257,18 @@
       <c r="G426" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H426"/>
-      <c r="I426"/>
-      <c r="J426"/>
-      <c r="K426"/>
+      <c r="H426" t="n">
+        <v>0.7010873177938406</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.3537256192520614</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.2073961113229127</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.8947215383720705</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -11650,10 +12292,18 @@
       <c r="G427" t="n">
         <v>500.0</v>
       </c>
-      <c r="H427"/>
-      <c r="I427"/>
-      <c r="J427"/>
-      <c r="K427"/>
+      <c r="H427" t="n">
+        <v>0.6901555112068273</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.36500928343932904</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.2073961113229127</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.8947215383720705</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
@@ -11839,10 +12489,18 @@
       <c r="G434" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H434"/>
-      <c r="I434"/>
-      <c r="J434"/>
-      <c r="K434"/>
+      <c r="H434" t="n">
+        <v>0.5384432388841202</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.5220255337068762</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.261068513480089</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.9357681333533564</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -11866,10 +12524,18 @@
       <c r="G435" t="n">
         <v>500.0</v>
       </c>
-      <c r="H435"/>
-      <c r="I435"/>
-      <c r="J435"/>
-      <c r="K435"/>
+      <c r="H435" t="n">
+        <v>0.5192855228952202</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.5335760934562532</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.261068513480089</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.9357681333533564</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -5981,10 +5981,18 @@
       <c r="G206" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
-      <c r="K206"/>
+      <c r="H206" t="n">
+        <v>0.22310846153699618</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.6765096877843833</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.8729633803410252</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
@@ -6008,10 +6016,18 @@
       <c r="G207" t="n">
         <v>500.0</v>
       </c>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
-      <c r="K207"/>
+      <c r="H207" t="n">
+        <v>0.20714820370256878</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.708604704647671</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0.8729633803410252</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
@@ -6213,10 +6229,18 @@
       <c r="G214" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
-      <c r="K214"/>
+      <c r="H214" t="n">
+        <v>0.18965055897773056</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.7085603361633875</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.2873134328358209</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.8854381606097612</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
@@ -6240,10 +6264,18 @@
       <c r="G215" t="n">
         <v>500.0</v>
       </c>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
-      <c r="K215"/>
+      <c r="H215" t="n">
+        <v>0.17539474522388632</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.7248582726466504</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.2873134328358209</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0.8854381606097612</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
@@ -6321,10 +6353,18 @@
       <c r="G218" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H218"/>
-      <c r="I218"/>
-      <c r="J218"/>
-      <c r="K218"/>
+      <c r="H218" t="n">
+        <v>0.373377505527023</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.7640680842589201</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.7318989767214318</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -6348,10 +6388,18 @@
       <c r="G219" t="n">
         <v>500.0</v>
       </c>
-      <c r="H219"/>
-      <c r="I219"/>
-      <c r="J219"/>
-      <c r="K219"/>
+      <c r="H219" t="n">
+        <v>0.3415367805822343</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.7832294809041206</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.7318989767214318</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
@@ -6429,10 +6477,18 @@
       <c r="G222" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H222"/>
-      <c r="I222"/>
-      <c r="J222"/>
-      <c r="K222"/>
+      <c r="H222" t="n">
+        <v>0.16833460565724748</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.7201255633010067</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0.8903128355192522</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
@@ -6661,10 +6717,18 @@
       <c r="G230" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H230"/>
-      <c r="I230"/>
-      <c r="J230"/>
-      <c r="K230"/>
+      <c r="H230" t="n">
+        <v>0.14919724410666269</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.7463061689900864</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.3272058823529412</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0.9053874398581919</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
@@ -6688,10 +6752,18 @@
       <c r="G231" t="n">
         <v>500.0</v>
       </c>
-      <c r="H231"/>
-      <c r="I231"/>
-      <c r="J231"/>
-      <c r="K231"/>
+      <c r="H231" t="n">
+        <v>0.1361315103714652</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.7740711311867619</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.3272058823529412</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0.9053874398581919</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
@@ -6893,10 +6965,18 @@
       <c r="G238" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H238"/>
-      <c r="I238"/>
-      <c r="J238"/>
-      <c r="K238"/>
+      <c r="H238" t="n">
+        <v>0.11143844792822205</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.8154312303471764</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.9121238892064647</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
@@ -6920,10 +7000,18 @@
       <c r="G239" t="n">
         <v>500.0</v>
       </c>
-      <c r="H239"/>
-      <c r="I239"/>
-      <c r="J239"/>
-      <c r="K239"/>
+      <c r="H239" t="n">
+        <v>0.09673382769355694</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.8214604986925691</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0.9121238892064647</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
@@ -7125,10 +7213,18 @@
       <c r="G246" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
-      <c r="K246"/>
+      <c r="H246" t="n">
+        <v>0.2515488663096136</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.6330687061535617</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0.8731791864881808</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -7152,10 +7248,18 @@
       <c r="G247" t="n">
         <v>500.0</v>
       </c>
-      <c r="H247"/>
-      <c r="I247"/>
-      <c r="J247"/>
-      <c r="K247"/>
+      <c r="H247" t="n">
+        <v>0.23046494564671027</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.668759051326886</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.8731791864881808</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
@@ -7357,10 +7461,18 @@
       <c r="G254" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
-      <c r="K254"/>
+      <c r="H254" t="n">
+        <v>0.212294882076751</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.6603021173536888</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.299625468164794</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.8856596699280667</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -7384,10 +7496,18 @@
       <c r="G255" t="n">
         <v>500.0</v>
       </c>
-      <c r="H255"/>
-      <c r="I255"/>
-      <c r="J255"/>
-      <c r="K255"/>
+      <c r="H255" t="n">
+        <v>0.1942372075532538</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.6942941391299418</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.299625468164794</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.8856596699280667</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -7465,10 +7585,18 @@
       <c r="G258" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
-      <c r="K258"/>
+      <c r="H258" t="n">
+        <v>0.4039355819215678</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.7413901116590778</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.5939086294416244</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.7318958751643513</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -7492,10 +7620,18 @@
       <c r="G259" t="n">
         <v>500.0</v>
       </c>
-      <c r="H259"/>
-      <c r="I259"/>
-      <c r="J259"/>
-      <c r="K259"/>
+      <c r="H259" t="n">
+        <v>0.37280978480334176</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.7542170865035571</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.5939086294416244</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.7318958751643513</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
@@ -7805,10 +7941,18 @@
       <c r="G270" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
-      <c r="K270"/>
+      <c r="H270" t="n">
+        <v>0.16480354756559715</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.7180425014026511</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.33676975945017185</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.9065462038357901</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -7832,10 +7976,18 @@
       <c r="G271" t="n">
         <v>500.0</v>
       </c>
-      <c r="H271"/>
-      <c r="I271"/>
-      <c r="J271"/>
-      <c r="K271"/>
+      <c r="H271" t="n">
+        <v>0.1523303142283819</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.7464217897441481</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.33676975945017185</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.9065462038357901</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -8037,10 +8189,18 @@
       <c r="G278" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
-      <c r="K278"/>
+      <c r="H278" t="n">
+        <v>0.12642346993290873</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.7986234120529385</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.24017467248908297</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.9191388788445716</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -8064,10 +8224,18 @@
       <c r="G279" t="n">
         <v>500.0</v>
       </c>
-      <c r="H279"/>
-      <c r="I279"/>
-      <c r="J279"/>
-      <c r="K279"/>
+      <c r="H279" t="n">
+        <v>0.10409734327337351</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0.8069584594455051</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.24017467248908297</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.9191388788445716</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
@@ -8269,10 +8437,18 @@
       <c r="G286" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H286"/>
-      <c r="I286"/>
-      <c r="J286"/>
-      <c r="K286"/>
+      <c r="H286" t="n">
+        <v>0.2805163522032491</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.5959259969662989</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.20600858369098712</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.8756430387911663</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -8296,10 +8472,18 @@
       <c r="G287" t="n">
         <v>500.0</v>
       </c>
-      <c r="H287"/>
-      <c r="I287"/>
-      <c r="J287"/>
-      <c r="K287"/>
+      <c r="H287" t="n">
+        <v>0.25708069915239085</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0.6401792889335627</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.20600858369098712</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.8756430387911663</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
@@ -8501,10 +8685,18 @@
       <c r="G294" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H294"/>
-      <c r="I294"/>
-      <c r="J294"/>
-      <c r="K294"/>
+      <c r="H294" t="n">
+        <v>0.23874812655295952</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.6328891742205252</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.2546419098143236</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.8881731226549702</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -8528,10 +8720,18 @@
       <c r="G295" t="n">
         <v>500.0</v>
       </c>
-      <c r="H295"/>
-      <c r="I295"/>
-      <c r="J295"/>
-      <c r="K295"/>
+      <c r="H295" t="n">
+        <v>0.2222116028172124</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0.6640418266265605</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.2546419098143236</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.8881731226549702</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
@@ -8609,10 +8809,18 @@
       <c r="G298" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="J298"/>
-      <c r="K298"/>
+      <c r="H298" t="n">
+        <v>0.4369830858533118</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.716237755823283</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.7361641686194679</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -8636,10 +8844,18 @@
       <c r="G299" t="n">
         <v>500.0</v>
       </c>
-      <c r="H299"/>
-      <c r="I299"/>
-      <c r="J299"/>
-      <c r="K299"/>
+      <c r="H299" t="n">
+        <v>0.4078815453747723</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0.7304052439605371</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.7361641686194679</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
@@ -8949,10 +9165,18 @@
       <c r="G310" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
-      <c r="K310"/>
+      <c r="H310" t="n">
+        <v>0.18391907866422202</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.6804278902223838</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.2879581151832461</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.9084012333252101</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -8976,10 +9200,18 @@
       <c r="G311" t="n">
         <v>500.0</v>
       </c>
-      <c r="H311"/>
-      <c r="I311"/>
-      <c r="J311"/>
-      <c r="K311"/>
+      <c r="H311" t="n">
+        <v>0.1748292188102398</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.7138655551946036</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.2879581151832461</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.9084012333252101</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
@@ -9181,10 +9413,18 @@
       <c r="G318" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
-      <c r="K318"/>
+      <c r="H318" t="n">
+        <v>0.14367889362616906</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.7812276989985438</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.9211479140062956</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -9208,10 +9448,18 @@
       <c r="G319" t="n">
         <v>500.0</v>
       </c>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
-      <c r="K319"/>
+      <c r="H319" t="n">
+        <v>0.11802748453261623</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.8005123563993078</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.20059880239520958</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.9211479140062956</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -9413,10 +9661,18 @@
       <c r="G326" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H326"/>
-      <c r="I326"/>
-      <c r="J326"/>
-      <c r="K326"/>
+      <c r="H326" t="n">
+        <v>0.372510934797233</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.48916475653094293</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1811320754716981</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.8824434659941008</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -9440,10 +9696,18 @@
       <c r="G327" t="n">
         <v>500.0</v>
       </c>
-      <c r="H327"/>
-      <c r="I327"/>
-      <c r="J327"/>
-      <c r="K327"/>
+      <c r="H327" t="n">
+        <v>0.35766617914447113</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.5152698486198698</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.1811320754716981</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.8824434659941008</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -9645,10 +9909,18 @@
       <c r="G334" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
-      <c r="K334"/>
+      <c r="H334" t="n">
+        <v>0.32623722094190283</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.5202495063684378</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.1984848484848485</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.8931307062119808</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -9672,10 +9944,18 @@
       <c r="G335" t="n">
         <v>500.0</v>
       </c>
-      <c r="H335"/>
-      <c r="I335"/>
-      <c r="J335"/>
-      <c r="K335"/>
+      <c r="H335" t="n">
+        <v>0.31537086622688393</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.54968937907282</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.1984848484848485</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.8931307062119808</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -9753,10 +10033,18 @@
       <c r="G338" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H338"/>
-      <c r="I338"/>
-      <c r="J338"/>
-      <c r="K338"/>
+      <c r="H338" t="n">
+        <v>0.542311481223997</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.5897671892871891</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.756420015435525</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -9780,10 +10068,18 @@
       <c r="G339" t="n">
         <v>500.0</v>
       </c>
-      <c r="H339"/>
-      <c r="I339"/>
-      <c r="J339"/>
-      <c r="K339"/>
+      <c r="H339" t="n">
+        <v>0.5195572094020101</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.6120559577516225</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.756420015435525</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
@@ -10093,10 +10389,18 @@
       <c r="G350" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
-      <c r="K350"/>
+      <c r="H350" t="n">
+        <v>0.24725902550024428</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.6221251284195946</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.20458265139116202</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.9103955998361641</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -10120,10 +10424,18 @@
       <c r="G351" t="n">
         <v>500.0</v>
       </c>
-      <c r="H351"/>
-      <c r="I351"/>
-      <c r="J351"/>
-      <c r="K351"/>
+      <c r="H351" t="n">
+        <v>0.2371430358752311</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.6491530626769008</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.20458265139116202</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.9103955998361641</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
@@ -10325,10 +10637,18 @@
       <c r="G358" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
-      <c r="K358"/>
+      <c r="H358" t="n">
+        <v>0.18730782809715057</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.7212188806614055</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.215633423180593</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.9228872497365648</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -10352,10 +10672,18 @@
       <c r="G359" t="n">
         <v>500.0</v>
       </c>
-      <c r="H359"/>
-      <c r="I359"/>
-      <c r="J359"/>
-      <c r="K359"/>
+      <c r="H359" t="n">
+        <v>0.17351016403161929</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.7322270324825365</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.215633423180593</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.9228872497365648</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
@@ -10557,10 +10885,18 @@
       <c r="G366" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
-      <c r="K366"/>
+      <c r="H366" t="n">
+        <v>0.5438090860942212</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.322093705848598</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.15870307167235495</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.901323328485169</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -10584,10 +10920,18 @@
       <c r="G367" t="n">
         <v>500.0</v>
       </c>
-      <c r="H367"/>
-      <c r="I367"/>
-      <c r="J367"/>
-      <c r="K367"/>
+      <c r="H367" t="n">
+        <v>0.5297240015884497</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.33589316222457344</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.15870307167235495</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.901323328485169</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
@@ -10789,10 +11133,18 @@
       <c r="G374" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H374"/>
-      <c r="I374"/>
-      <c r="J374"/>
-      <c r="K374"/>
+      <c r="H374" t="n">
+        <v>0.47940024859715274</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.37264568028142153</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.1610978520286396</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.9136051542254644</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
@@ -10816,10 +11168,18 @@
       <c r="G375" t="n">
         <v>500.0</v>
       </c>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
-      <c r="K375"/>
+      <c r="H375" t="n">
+        <v>0.4704680124214781</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.40116208255079633</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.1610978520286396</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.9136051542254644</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
@@ -10897,10 +11257,18 @@
       <c r="G378" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H378"/>
-      <c r="I378"/>
-      <c r="J378"/>
-      <c r="K378"/>
+      <c r="H378" t="n">
+        <v>0.7069280238956803</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.3894608094142128</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.36615220862160724</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.8148327392053637</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -10924,10 +11292,18 @@
       <c r="G379" t="n">
         <v>500.0</v>
       </c>
-      <c r="H379"/>
-      <c r="I379"/>
-      <c r="J379"/>
-      <c r="K379"/>
+      <c r="H379" t="n">
+        <v>0.6977650999051118</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.40300829073337247</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.36615220862160724</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.8148327392053637</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
@@ -11237,10 +11613,18 @@
       <c r="G390" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
-      <c r="K390"/>
+      <c r="H390" t="n">
+        <v>0.3657542884719433</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.5181768971528481</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.17542662116040955</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.9312227851567849</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -11264,10 +11648,18 @@
       <c r="G391" t="n">
         <v>500.0</v>
       </c>
-      <c r="H391"/>
-      <c r="I391"/>
-      <c r="J391"/>
-      <c r="K391"/>
+      <c r="H391" t="n">
+        <v>0.3549168748419564</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.529771337626672</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.17542662116040955</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.9312227851567849</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
@@ -11469,10 +11861,18 @@
       <c r="G398" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
-      <c r="K398"/>
+      <c r="H398" t="n">
+        <v>0.297109655097822</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.5954369527168932</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.16186252771618626</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.9332602358730243</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -11496,10 +11896,18 @@
       <c r="G399" t="n">
         <v>500.0</v>
       </c>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
-      <c r="K399"/>
+      <c r="H399" t="n">
+        <v>0.2817137845695894</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.6320002633118419</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.16186252771618626</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.9332602358730243</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -11701,10 +12109,18 @@
       <c r="G406" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
-      <c r="K406"/>
+      <c r="H406" t="n">
+        <v>0.6146904463442399</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.25690609776823436</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.07118055555555555</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.929896199505261</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -11728,10 +12144,18 @@
       <c r="G407" t="n">
         <v>500.0</v>
       </c>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
-      <c r="K407"/>
+      <c r="H407" t="n">
+        <v>0.6089890534764802</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.26795733133964855</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.07118055555555555</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.929896199505261</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
@@ -11933,10 +12357,18 @@
       <c r="G414" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H414"/>
-      <c r="I414"/>
-      <c r="J414"/>
-      <c r="K414"/>
+      <c r="H414" t="n">
+        <v>0.5473096144300985</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.30239064051817965</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.07172806229410003</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.941090489016721</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
@@ -11960,10 +12392,18 @@
       <c r="G415" t="n">
         <v>500.0</v>
       </c>
-      <c r="H415"/>
-      <c r="I415"/>
-      <c r="J415"/>
-      <c r="K415"/>
+      <c r="H415" t="n">
+        <v>0.5411028645165864</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.3314793308411096</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.07172806229410003</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.941090489016721</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
@@ -12041,10 +12481,18 @@
       <c r="G418" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H418"/>
-      <c r="I418"/>
-      <c r="J418"/>
-      <c r="K418"/>
+      <c r="H418" t="n">
+        <v>0.7659054439714464</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.2779282710657179</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.2133906724994439</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.8460354269842517</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
@@ -12068,10 +12516,18 @@
       <c r="G419" t="n">
         <v>500.0</v>
       </c>
-      <c r="H419"/>
-      <c r="I419"/>
-      <c r="J419"/>
-      <c r="K419"/>
+      <c r="H419" t="n">
+        <v>0.7590894524303745</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.2842610081423937</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.2133906724994439</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.8460354269842517</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
@@ -12381,10 +12837,18 @@
       <c r="G430" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H430"/>
-      <c r="I430"/>
-      <c r="J430"/>
-      <c r="K430"/>
+      <c r="H430" t="n">
+        <v>0.4220157292794283</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.4518860019514696</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.08079677708146822</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.9439089813825555</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
@@ -12408,10 +12872,18 @@
       <c r="G431" t="n">
         <v>500.0</v>
       </c>
-      <c r="H431"/>
-      <c r="I431"/>
-      <c r="J431"/>
-      <c r="K431"/>
+      <c r="H431" t="n">
+        <v>0.4107650475684908</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.4766966138012787</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.08079677708146822</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.9439089813825555</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
@@ -12613,10 +13085,18 @@
       <c r="G438" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H438"/>
-      <c r="I438"/>
-      <c r="J438"/>
-      <c r="K438"/>
+      <c r="H438" t="n">
+        <v>0.3500661663541303</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.5375707355681208</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.0686771414090218</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.9493117057340228</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -12640,10 +13120,18 @@
       <c r="G439" t="n">
         <v>500.0</v>
       </c>
-      <c r="H439"/>
-      <c r="I439"/>
-      <c r="J439"/>
-      <c r="K439"/>
+      <c r="H439" t="n">
+        <v>0.32545160914693994</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.5671068127165083</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.0686771414090218</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.9493117057340228</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -6512,10 +6512,18 @@
       <c r="G223" t="n">
         <v>500.0</v>
       </c>
-      <c r="H223"/>
-      <c r="I223"/>
-      <c r="J223"/>
-      <c r="K223"/>
+      <c r="H223" t="n">
+        <v>0.15756792690580132</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.7498369764472751</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.32083333333333336</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.8903128355192522</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
@@ -7709,10 +7717,18 @@
       <c r="G262" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
-      <c r="K262"/>
+      <c r="H262" t="n">
+        <v>0.18858446668308734</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.6788407030478992</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.33755274261603374</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.8905374668295354</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -7736,10 +7752,18 @@
       <c r="G263" t="n">
         <v>500.0</v>
       </c>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
-      <c r="K263"/>
+      <c r="H263" t="n">
+        <v>0.1770590615811879</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.7106824531078687</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.33755274261603374</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.8905374668295354</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -8933,10 +8957,18 @@
       <c r="G302" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
-      <c r="K302"/>
+      <c r="H302" t="n">
+        <v>0.21152777799677233</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.6458725617039549</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.8930688674958523</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
@@ -8960,10 +8992,18 @@
       <c r="G303" t="n">
         <v>500.0</v>
       </c>
-      <c r="H303"/>
-      <c r="I303"/>
-      <c r="J303"/>
-      <c r="K303"/>
+      <c r="H303" t="n">
+        <v>0.1996090800438782</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0.6827743875948925</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.2782608695652174</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.8930688674958523</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
@@ -10157,10 +10197,18 @@
       <c r="G342" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
-      <c r="K342"/>
+      <c r="H342" t="n">
+        <v>0.2836487078666012</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.565821849440549</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.20153846153846153</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.898052667462076</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -10184,10 +10232,18 @@
       <c r="G343" t="n">
         <v>500.0</v>
       </c>
-      <c r="H343"/>
-      <c r="I343"/>
-      <c r="J343"/>
-      <c r="K343"/>
+      <c r="H343" t="n">
+        <v>0.2752417655114938</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.5845579825567789</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.20153846153846153</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.898052667462076</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
@@ -11381,10 +11437,18 @@
       <c r="G382" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H382"/>
-      <c r="I382"/>
-      <c r="J382"/>
-      <c r="K382"/>
+      <c r="H382" t="n">
+        <v>0.42404180790935997</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.4371355014867545</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.16307692307692306</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.9183188294397013</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
@@ -11408,10 +11472,18 @@
       <c r="G383" t="n">
         <v>500.0</v>
       </c>
-      <c r="H383"/>
-      <c r="I383"/>
-      <c r="J383"/>
-      <c r="K383"/>
+      <c r="H383" t="n">
+        <v>0.41684222788820013</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.45057961477726477</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.16307692307692306</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.9183188294397013</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
@@ -12605,10 +12677,18 @@
       <c r="G422" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
-      <c r="K422"/>
+      <c r="H422" t="n">
+        <v>0.48864824841885135</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.3699582426579423</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.07465333763302161</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.9448252026805379</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -12632,10 +12712,18 @@
       <c r="G423" t="n">
         <v>500.0</v>
       </c>
-      <c r="H423"/>
-      <c r="I423"/>
-      <c r="J423"/>
-      <c r="K423"/>
+      <c r="H423" t="n">
+        <v>0.4823630741024208</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.39586482605341067</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.07465333763302161</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.9448252026805379</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
@@ -13210,9 +13298,15 @@
         <v>0.0</v>
       </c>
       <c r="H442"/>
-      <c r="I442"/>
-      <c r="J442"/>
-      <c r="K442"/>
+      <c r="I442" t="n">
+        <v>0.8828346456262772</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.062472160356347436</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.6671705967737518</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -13264,9 +13358,15 @@
         <v>0.0</v>
       </c>
       <c r="H444"/>
-      <c r="I444"/>
-      <c r="J444"/>
-      <c r="K444"/>
+      <c r="I444" t="n">
+        <v>0.8101112275233839</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.006330216621174284</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.8617081299914494</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -13317,10 +13417,18 @@
       <c r="G446" t="n">
         <v>0.0</v>
       </c>
-      <c r="H446"/>
-      <c r="I446"/>
-      <c r="J446"/>
-      <c r="K446"/>
+      <c r="H446" t="n">
+        <v>0.12525875443573942</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.8826919904065491</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.0454365472183726</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.6989784460329198</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -13371,10 +13479,18 @@
       <c r="G448" t="n">
         <v>0.0</v>
       </c>
-      <c r="H448"/>
-      <c r="I448"/>
-      <c r="J448"/>
-      <c r="K448"/>
+      <c r="H448" t="n">
+        <v>0.10295052900366462</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.8103763860797686</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.004966795022043641</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.8736032666546455</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -13425,10 +13541,18 @@
       <c r="G450" t="n">
         <v>0.0</v>
       </c>
-      <c r="H450"/>
-      <c r="I450"/>
-      <c r="J450"/>
-      <c r="K450"/>
+      <c r="H450" t="n">
+        <v>0.12463420577942302</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.8837257696219154</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.039067660658676985</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.7236874537835839</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -13479,10 +13603,18 @@
       <c r="G452" t="n">
         <v>0.0</v>
       </c>
-      <c r="H452"/>
-      <c r="I452"/>
-      <c r="J452"/>
-      <c r="K452"/>
+      <c r="H452" t="n">
+        <v>0.09465324584888138</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.808826899581843</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.004836288843181945</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.8787394063483385</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
@@ -13533,10 +13665,18 @@
       <c r="G454" t="n">
         <v>0.0</v>
       </c>
-      <c r="H454"/>
-      <c r="I454"/>
-      <c r="J454"/>
-      <c r="K454"/>
+      <c r="H454" t="n">
+        <v>0.1247286636721527</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.8828838614652054</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.030580192165558018</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.7703713000960447</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -13587,10 +13727,18 @@
       <c r="G456" t="n">
         <v>0.0</v>
       </c>
-      <c r="H456"/>
-      <c r="I456"/>
-      <c r="J456"/>
-      <c r="K456"/>
+      <c r="H456" t="n">
+        <v>0.09513718497649694</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.8064305142640004</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.0031003382187147687</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.8891934627547841</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
@@ -13641,10 +13789,18 @@
       <c r="G458" t="n">
         <v>0.0</v>
       </c>
-      <c r="H458"/>
-      <c r="I458"/>
-      <c r="J458"/>
-      <c r="K458"/>
+      <c r="H458" t="n">
+        <v>0.13042339124191307</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.8803846130657604</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.02595311695002576</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.8325841242693102</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
@@ -13695,10 +13851,18 @@
       <c r="G460" t="n">
         <v>0.0</v>
       </c>
-      <c r="H460"/>
-      <c r="I460"/>
-      <c r="J460"/>
-      <c r="K460"/>
+      <c r="H460" t="n">
+        <v>0.09620926084548422</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.8020587041983118</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.0035535667280863384</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.9122822747432725</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -13750,9 +13914,15 @@
         <v>0.0</v>
       </c>
       <c r="H462"/>
-      <c r="I462"/>
-      <c r="J462"/>
-      <c r="K462"/>
+      <c r="I462" t="n">
+        <v>0.8632477465509364</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.06221781742098888</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.6670814603661879</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
@@ -13804,9 +13974,15 @@
         <v>0.0</v>
       </c>
       <c r="H464"/>
-      <c r="I464"/>
-      <c r="J464"/>
-      <c r="K464"/>
+      <c r="I464" t="n">
+        <v>0.7988934828937714</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.005767731878409977</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.8600130724342404</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -13857,10 +14033,18 @@
       <c r="G466" t="n">
         <v>0.0</v>
       </c>
-      <c r="H466"/>
-      <c r="I466"/>
-      <c r="J466"/>
-      <c r="K466"/>
+      <c r="H466" t="n">
+        <v>0.18413868695066102</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.8638365009498902</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.04510321886312494</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0.6988937859053633</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
@@ -13911,10 +14095,18 @@
       <c r="G468" t="n">
         <v>0.0</v>
       </c>
-      <c r="H468"/>
-      <c r="I468"/>
-      <c r="J468"/>
-      <c r="K468"/>
+      <c r="H468" t="n">
+        <v>0.11794888379251159</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.8022375631354994</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.00456254700426172</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0.8720550219934874</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -13965,10 +14157,18 @@
       <c r="G470" t="n">
         <v>0.0</v>
       </c>
-      <c r="H470"/>
-      <c r="I470"/>
-      <c r="J470"/>
-      <c r="K470"/>
+      <c r="H470" t="n">
+        <v>0.1824028207635451</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.8642395438689549</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0.03882045539380366</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0.7236218918563347</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -14019,10 +14219,18 @@
       <c r="G472" t="n">
         <v>0.0</v>
       </c>
-      <c r="H472"/>
-      <c r="I472"/>
-      <c r="J472"/>
-      <c r="K472"/>
+      <c r="H472" t="n">
+        <v>0.10975187589140033</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.7976002947173629</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0.004446665001249063</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0.8772545532701695</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -14073,10 +14281,18 @@
       <c r="G474" t="n">
         <v>0.0</v>
       </c>
-      <c r="H474"/>
-      <c r="I474"/>
-      <c r="J474"/>
-      <c r="K474"/>
+      <c r="H474" t="n">
+        <v>0.18249336481268724</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.8640377938626896</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0.03035289815322728</v>
+      </c>
+      <c r="K474" t="n">
+        <v>0.7702800849702113</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -14127,10 +14343,18 @@
       <c r="G476" t="n">
         <v>0.0</v>
       </c>
-      <c r="H476"/>
-      <c r="I476"/>
-      <c r="J476"/>
-      <c r="K476"/>
+      <c r="H476" t="n">
+        <v>0.11082622439720169</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.7950309588844153</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.0029736404415100044</v>
+      </c>
+      <c r="K476" t="n">
+        <v>0.8881743187385628</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -14181,10 +14405,18 @@
       <c r="G478" t="n">
         <v>0.0</v>
       </c>
-      <c r="H478"/>
-      <c r="I478"/>
-      <c r="J478"/>
-      <c r="K478"/>
+      <c r="H478" t="n">
+        <v>0.19439392498845048</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.8594242509370694</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.02139150693635497</v>
+      </c>
+      <c r="K478" t="n">
+        <v>0.8294183765928407</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -14235,10 +14467,18 @@
       <c r="G480" t="n">
         <v>0.0</v>
       </c>
-      <c r="H480"/>
-      <c r="I480"/>
-      <c r="J480"/>
-      <c r="K480"/>
+      <c r="H480" t="n">
+        <v>0.11337026639430797</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.7904443888741776</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.003009138866186195</v>
+      </c>
+      <c r="K480" t="n">
+        <v>0.9100653290352629</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -14290,9 +14530,15 @@
         <v>0.0</v>
       </c>
       <c r="H482"/>
-      <c r="I482"/>
-      <c r="J482"/>
-      <c r="K482"/>
+      <c r="I482" t="n">
+        <v>0.8251053897536997</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0.062337380745880314</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0.6669484593806781</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -14344,9 +14590,15 @@
         <v>0.0</v>
       </c>
       <c r="H484"/>
-      <c r="I484"/>
-      <c r="J484"/>
-      <c r="K484"/>
+      <c r="I484" t="n">
+        <v>0.7743959274812717</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.005328852616418627</v>
+      </c>
+      <c r="K484" t="n">
+        <v>0.8586942307920922</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -14397,10 +14649,18 @@
       <c r="G486" t="n">
         <v>0.0</v>
       </c>
-      <c r="H486"/>
-      <c r="I486"/>
-      <c r="J486"/>
-      <c r="K486"/>
+      <c r="H486" t="n">
+        <v>0.27201464442297496</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.8250368563737187</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.04534053636889832</v>
+      </c>
+      <c r="K486" t="n">
+        <v>0.6988143594247448</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -14451,10 +14711,18 @@
       <c r="G488" t="n">
         <v>0.0</v>
       </c>
-      <c r="H488"/>
-      <c r="I488"/>
-      <c r="J488"/>
-      <c r="K488"/>
+      <c r="H488" t="n">
+        <v>0.1549994344755643</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.7747717165454934</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.004226660473757547</v>
+      </c>
+      <c r="K488" t="n">
+        <v>0.8708496296912707</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -14505,10 +14773,18 @@
       <c r="G490" t="n">
         <v>0.0</v>
       </c>
-      <c r="H490"/>
-      <c r="I490"/>
-      <c r="J490"/>
-      <c r="K490"/>
+      <c r="H490" t="n">
+        <v>0.2695773528135963</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.8269357271340988</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.03903876254488537</v>
+      </c>
+      <c r="K490" t="n">
+        <v>0.7235373865887996</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
@@ -14559,10 +14835,18 @@
       <c r="G492" t="n">
         <v>0.0</v>
       </c>
-      <c r="H492"/>
-      <c r="I492"/>
-      <c r="J492"/>
-      <c r="K492"/>
+      <c r="H492" t="n">
+        <v>0.14740742357724337</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.7729790640730847</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.004120370370370371</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0.8760981466731654</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
@@ -14613,10 +14897,18 @@
       <c r="G494" t="n">
         <v>0.0</v>
       </c>
-      <c r="H494"/>
-      <c r="I494"/>
-      <c r="J494"/>
-      <c r="K494"/>
+      <c r="H494" t="n">
+        <v>0.2689477973499891</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.8271291841538521</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0.030475160039671805</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0.7701253116388925</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
@@ -14667,10 +14959,18 @@
       <c r="G496" t="n">
         <v>0.0</v>
       </c>
-      <c r="H496"/>
-      <c r="I496"/>
-      <c r="J496"/>
-      <c r="K496"/>
+      <c r="H496" t="n">
+        <v>0.14930598333701223</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.767614684939586</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.002833782402675834</v>
+      </c>
+      <c r="K496" t="n">
+        <v>0.8873543935921366</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
@@ -14721,10 +15021,18 @@
       <c r="G498" t="n">
         <v>0.0</v>
       </c>
-      <c r="H498"/>
-      <c r="I498"/>
-      <c r="J498"/>
-      <c r="K498"/>
+      <c r="H498" t="n">
+        <v>0.2866074097348277</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.8203816833573333</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.019625589482208355</v>
+      </c>
+      <c r="K498" t="n">
+        <v>0.8273773224376957</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
@@ -14775,10 +15083,18 @@
       <c r="G500" t="n">
         <v>0.0</v>
       </c>
-      <c r="H500"/>
-      <c r="I500"/>
-      <c r="J500"/>
-      <c r="K500"/>
+      <c r="H500" t="n">
+        <v>0.15389833987563878</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.7619042012057411</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0.002822102989338722</v>
+      </c>
+      <c r="K500" t="n">
+        <v>0.9090711940021067</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
@@ -14830,9 +15146,15 @@
         <v>0.0</v>
       </c>
       <c r="H502"/>
-      <c r="I502"/>
-      <c r="J502"/>
-      <c r="K502"/>
+      <c r="I502" t="n">
+        <v>0.6675544388286602</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0.05894056204924148</v>
+      </c>
+      <c r="K502" t="n">
+        <v>0.6653283850652272</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
@@ -14884,9 +15206,15 @@
         <v>0.0</v>
       </c>
       <c r="H504"/>
-      <c r="I504"/>
-      <c r="J504"/>
-      <c r="K504"/>
+      <c r="I504" t="n">
+        <v>0.5620293495014131</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0.005419538863798431</v>
+      </c>
+      <c r="K504" t="n">
+        <v>0.8590765089800391</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
@@ -14937,10 +15265,18 @@
       <c r="G506" t="n">
         <v>0.0</v>
       </c>
-      <c r="H506"/>
-      <c r="I506"/>
-      <c r="J506"/>
-      <c r="K506"/>
+      <c r="H506" t="n">
+        <v>0.4948024199473664</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.6705126072689717</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.04449279711884754</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0.6976157145828765</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -14991,10 +15327,18 @@
       <c r="G508" t="n">
         <v>0.0</v>
       </c>
-      <c r="H508"/>
-      <c r="I508"/>
-      <c r="J508"/>
-      <c r="K508"/>
+      <c r="H508" t="n">
+        <v>0.34969397573101885</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.5654164362497256</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.004324821716126064</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0.8712543471011386</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -15045,10 +15389,18 @@
       <c r="G510" t="n">
         <v>0.0</v>
       </c>
-      <c r="H510"/>
-      <c r="I510"/>
-      <c r="J510"/>
-      <c r="K510"/>
+      <c r="H510" t="n">
+        <v>0.492179423272767</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.6720891632816024</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.03877139979859013</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0.7226703692669189</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -15099,10 +15451,18 @@
       <c r="G512" t="n">
         <v>0.0</v>
       </c>
-      <c r="H512"/>
-      <c r="I512"/>
-      <c r="J512"/>
-      <c r="K512"/>
+      <c r="H512" t="n">
+        <v>0.3438541642376939</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.5603437102995026</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.00421921577619812</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0.8765125529989043</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -15153,10 +15513,18 @@
       <c r="G514" t="n">
         <v>0.0</v>
       </c>
-      <c r="H514"/>
-      <c r="I514"/>
-      <c r="J514"/>
-      <c r="K514"/>
+      <c r="H514" t="n">
+        <v>0.4900853581639815</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.6757016550311984</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.02677120858939041</v>
+      </c>
+      <c r="K514" t="n">
+        <v>0.7669277293124112</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -15207,10 +15575,18 @@
       <c r="G516" t="n">
         <v>0.0</v>
       </c>
-      <c r="H516"/>
-      <c r="I516"/>
-      <c r="J516"/>
-      <c r="K516"/>
+      <c r="H516" t="n">
+        <v>0.34816261608296833</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.5592435102500032</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0.003910868576625739</v>
+      </c>
+      <c r="K516" t="n">
+        <v>0.891029037885599</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -15261,10 +15637,18 @@
       <c r="G518" t="n">
         <v>0.0</v>
       </c>
-      <c r="H518"/>
-      <c r="I518"/>
-      <c r="J518"/>
-      <c r="K518"/>
+      <c r="H518" t="n">
+        <v>0.5123813933165765</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.662874934167253</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.017092645347670826</v>
+      </c>
+      <c r="K518" t="n">
+        <v>0.8235224129212647</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -15315,10 +15699,18 @@
       <c r="G520" t="n">
         <v>0.0</v>
       </c>
-      <c r="H520"/>
-      <c r="I520"/>
-      <c r="J520"/>
-      <c r="K520"/>
+      <c r="H520" t="n">
+        <v>0.3670539334467348</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.5437326587482343</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.0029516123967720663</v>
+      </c>
+      <c r="K520" t="n">
+        <v>0.9085366626528931</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -15585,10 +15977,18 @@
       <c r="G530" t="n">
         <v>0.0</v>
       </c>
-      <c r="H530"/>
-      <c r="I530"/>
-      <c r="J530"/>
-      <c r="K530"/>
+      <c r="H530" t="n">
+        <v>0.2104786133306874</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.7860456357434249</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0.034977852451504504</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0.7201984542397042</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -15639,10 +16039,18 @@
       <c r="G532" t="n">
         <v>0.0</v>
       </c>
-      <c r="H532"/>
-      <c r="I532"/>
-      <c r="J532"/>
-      <c r="K532"/>
+      <c r="H532" t="n">
+        <v>0.13065621232715188</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.7359434244767324</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0.004120525366984291</v>
+      </c>
+      <c r="K532" t="n">
+        <v>0.8743514048135834</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -15693,10 +16101,18 @@
       <c r="G534" t="n">
         <v>0.0</v>
       </c>
-      <c r="H534"/>
-      <c r="I534"/>
-      <c r="J534"/>
-      <c r="K534"/>
+      <c r="H534" t="n">
+        <v>0.21155312657972816</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.782251936034597</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0.029505582137161084</v>
+      </c>
+      <c r="K534" t="n">
+        <v>0.7681075456309587</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -15747,10 +16163,18 @@
       <c r="G536" t="n">
         <v>0.0</v>
       </c>
-      <c r="H536"/>
-      <c r="I536"/>
-      <c r="J536"/>
-      <c r="K536"/>
+      <c r="H536" t="n">
+        <v>0.1338940301092526</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.7299387107785893</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0.003780316867009302</v>
+      </c>
+      <c r="K536" t="n">
+        <v>0.8889977813986207</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
@@ -15801,10 +16225,18 @@
       <c r="G538" t="n">
         <v>0.0</v>
       </c>
-      <c r="H538"/>
-      <c r="I538"/>
-      <c r="J538"/>
-      <c r="K538"/>
+      <c r="H538" t="n">
+        <v>0.19560412708718675</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.7937125734504802</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.017564667344403026</v>
+      </c>
+      <c r="K538" t="n">
+        <v>0.8249675771493943</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
@@ -15855,10 +16287,18 @@
       <c r="G540" t="n">
         <v>0.0</v>
       </c>
-      <c r="H540"/>
-      <c r="I540"/>
-      <c r="J540"/>
-      <c r="K540"/>
+      <c r="H540" t="n">
+        <v>0.1204047402658349</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.7383933274813927</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.0040702869055891985</v>
+      </c>
+      <c r="K540" t="n">
+        <v>0.9133796642285082</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
@@ -16125,10 +16565,18 @@
       <c r="G550" t="n">
         <v>0.0</v>
       </c>
-      <c r="H550"/>
-      <c r="I550"/>
-      <c r="J550"/>
-      <c r="K550"/>
+      <c r="H550" t="n">
+        <v>0.2682949997789612</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.7664599153574794</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0.03578693588487908</v>
+      </c>
+      <c r="K550" t="n">
+        <v>0.7204262679238966</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -16179,10 +16627,18 @@
       <c r="G552" t="n">
         <v>0.0</v>
       </c>
-      <c r="H552"/>
-      <c r="I552"/>
-      <c r="J552"/>
-      <c r="K552"/>
+      <c r="H552" t="n">
+        <v>0.1524269482002851</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.7139422993630542</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0.004489151217890099</v>
+      </c>
+      <c r="K552" t="n">
+        <v>0.8756517158064926</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
@@ -16233,10 +16689,18 @@
       <c r="G554" t="n">
         <v>0.0</v>
       </c>
-      <c r="H554"/>
-      <c r="I554"/>
-      <c r="J554"/>
-      <c r="K554"/>
+      <c r="H554" t="n">
+        <v>0.27020521166295197</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.762036573309675</v>
+      </c>
+      <c r="J554" t="n">
+        <v>0.030277157493760674</v>
+      </c>
+      <c r="K554" t="n">
+        <v>0.7684356471357395</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -16287,10 +16751,18 @@
       <c r="G556" t="n">
         <v>0.0</v>
       </c>
-      <c r="H556"/>
-      <c r="I556"/>
-      <c r="J556"/>
-      <c r="K556"/>
+      <c r="H556" t="n">
+        <v>0.1568023487237571</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.7069661468272028</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0.004155865531004403</v>
+      </c>
+      <c r="K556" t="n">
+        <v>0.8904027467436918</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -16341,10 +16813,18 @@
       <c r="G558" t="n">
         <v>0.0</v>
       </c>
-      <c r="H558"/>
-      <c r="I558"/>
-      <c r="J558"/>
-      <c r="K558"/>
+      <c r="H558" t="n">
+        <v>0.2510065955890786</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.7757136617439809</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0.018549188473004307</v>
+      </c>
+      <c r="K558" t="n">
+        <v>0.8254442915780736</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -16395,10 +16875,18 @@
       <c r="G560" t="n">
         <v>0.0</v>
       </c>
-      <c r="H560"/>
-      <c r="I560"/>
-      <c r="J560"/>
-      <c r="K560"/>
+      <c r="H560" t="n">
+        <v>0.14252628034721382</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.7191415792179694</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0.004583651642475172</v>
+      </c>
+      <c r="K560" t="n">
+        <v>0.9152974521046671</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -16665,10 +17153,18 @@
       <c r="G570" t="n">
         <v>0.0</v>
       </c>
-      <c r="H570"/>
-      <c r="I570"/>
-      <c r="J570"/>
-      <c r="K570"/>
+      <c r="H570" t="n">
+        <v>0.34126767890410636</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.7393720542868707</v>
+      </c>
+      <c r="J570" t="n">
+        <v>0.035887802034073976</v>
+      </c>
+      <c r="K570" t="n">
+        <v>0.7185577425140185</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
@@ -16719,10 +17215,18 @@
       <c r="G572" t="n">
         <v>0.0</v>
       </c>
-      <c r="H572"/>
-      <c r="I572"/>
-      <c r="J572"/>
-      <c r="K572"/>
+      <c r="H572" t="n">
+        <v>0.20105103066318883</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.6810314677336856</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0.004652901832080097</v>
+      </c>
+      <c r="K572" t="n">
+        <v>0.876245545130555</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
@@ -16773,10 +17277,18 @@
       <c r="G574" t="n">
         <v>0.0</v>
       </c>
-      <c r="H574"/>
-      <c r="I574"/>
-      <c r="J574"/>
-      <c r="K574"/>
+      <c r="H574" t="n">
+        <v>0.3436032784852092</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.7347740071134454</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0.03105232892466935</v>
+      </c>
+      <c r="K574" t="n">
+        <v>0.767383052169226</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -16827,10 +17339,18 @@
       <c r="G576" t="n">
         <v>0.0</v>
       </c>
-      <c r="H576"/>
-      <c r="I576"/>
-      <c r="J576"/>
-      <c r="K576"/>
+      <c r="H576" t="n">
+        <v>0.20596224985147768</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.6739396528638385</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0.004318144431649943</v>
+      </c>
+      <c r="K576" t="n">
+        <v>0.891010255291294</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
@@ -16881,10 +17401,18 @@
       <c r="G578" t="n">
         <v>0.0</v>
       </c>
-      <c r="H578"/>
-      <c r="I578"/>
-      <c r="J578"/>
-      <c r="K578"/>
+      <c r="H578" t="n">
+        <v>0.318927281058962</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.7512977222232469</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0.019602474949351148</v>
+      </c>
+      <c r="K578" t="n">
+        <v>0.8262972860553501</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -16935,10 +17463,18 @@
       <c r="G580" t="n">
         <v>0.0</v>
       </c>
-      <c r="H580"/>
-      <c r="I580"/>
-      <c r="J580"/>
-      <c r="K580"/>
+      <c r="H580" t="n">
+        <v>0.18407774162292337</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.6859400853162827</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0.0046653337141769015</v>
+      </c>
+      <c r="K580" t="n">
+        <v>0.9155278102505978</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
@@ -17205,10 +17741,18 @@
       <c r="G590" t="n">
         <v>0.0</v>
       </c>
-      <c r="H590"/>
-      <c r="I590"/>
-      <c r="J590"/>
-      <c r="K590"/>
+      <c r="H590" t="n">
+        <v>0.5593303534529857</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.5832286187858979</v>
+      </c>
+      <c r="J590" t="n">
+        <v>0.035304347826086956</v>
+      </c>
+      <c r="K590" t="n">
+        <v>0.7167478046703265</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
@@ -17259,10 +17803,18 @@
       <c r="G592" t="n">
         <v>0.0</v>
       </c>
-      <c r="H592"/>
-      <c r="I592"/>
-      <c r="J592"/>
-      <c r="K592"/>
+      <c r="H592" t="n">
+        <v>0.40455467487024804</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.46268322779221077</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0.004682090022033365</v>
+      </c>
+      <c r="K592" t="n">
+        <v>0.8766447569737695</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
@@ -17313,10 +17865,18 @@
       <c r="G594" t="n">
         <v>0.0</v>
       </c>
-      <c r="H594"/>
-      <c r="I594"/>
-      <c r="J594"/>
-      <c r="K594"/>
+      <c r="H594" t="n">
+        <v>0.5628682651274559</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.5791445403630522</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.03096861500026024</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0.7661398183361827</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -17367,10 +17927,18 @@
       <c r="G596" t="n">
         <v>0.0</v>
       </c>
-      <c r="H596"/>
-      <c r="I596"/>
-      <c r="J596"/>
-      <c r="K596"/>
+      <c r="H596" t="n">
+        <v>0.41453691216213795</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.45065329571051105</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0.004337050805452293</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0.8913100744325665</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
@@ -17421,10 +17989,18 @@
       <c r="G598" t="n">
         <v>0.0</v>
       </c>
-      <c r="H598"/>
-      <c r="I598"/>
-      <c r="J598"/>
-      <c r="K598"/>
+      <c r="H598" t="n">
+        <v>0.5385505956149869</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.6048839221348221</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0.02065501511967608</v>
+      </c>
+      <c r="K598" t="n">
+        <v>0.826805096743747</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
@@ -17475,10 +18051,18 @@
       <c r="G600" t="n">
         <v>0.0</v>
       </c>
-      <c r="H600"/>
-      <c r="I600"/>
-      <c r="J600"/>
-      <c r="K600"/>
+      <c r="H600" t="n">
+        <v>0.3755703247170512</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.4739637407321362</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0.004524493169755503</v>
+      </c>
+      <c r="K600" t="n">
+        <v>0.9154136129431782</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
@@ -28329,10 +28913,18 @@
       <c r="G1002" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1002"/>
-      <c r="I1002"/>
-      <c r="J1002"/>
-      <c r="K1002"/>
+      <c r="H1002" t="n">
+        <v>0.41497298753512474</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>0.7805218301126747</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>0.09575518262586377</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0.6682291959534411</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" t="s">
@@ -28383,10 +28975,18 @@
       <c r="G1004" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1004"/>
-      <c r="I1004"/>
-      <c r="J1004"/>
-      <c r="K1004"/>
+      <c r="H1004" t="n">
+        <v>0.2484218060434628</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>0.6567782814596212</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>0.0053683268714583956</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0.8598485048989768</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" t="s">
@@ -28437,10 +29037,18 @@
       <c r="G1006" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1006"/>
-      <c r="I1006"/>
-      <c r="J1006"/>
-      <c r="K1006"/>
+      <c r="H1006" t="n">
+        <v>0.4118336931198603</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>0.7826860886293724</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>0.02543424317617866</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0.7004702514823145</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" t="s">
@@ -28491,10 +29099,18 @@
       <c r="G1008" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1008"/>
-      <c r="I1008"/>
-      <c r="J1008"/>
-      <c r="K1008"/>
+      <c r="H1008" t="n">
+        <v>0.2440301335501394</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>0.6601192588657635</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>0.0015906680805938495</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0.871510390751543</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" t="s">
@@ -28545,10 +29161,18 @@
       <c r="G1010" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1010"/>
-      <c r="I1010"/>
-      <c r="J1010"/>
-      <c r="K1010"/>
+      <c r="H1010" t="n">
+        <v>0.41041902051868473</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>0.7825513855365288</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>0.02543424317617866</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0.725250460028624</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" t="s">
@@ -28599,10 +29223,18 @@
       <c r="G1012" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1012"/>
-      <c r="I1012"/>
-      <c r="J1012"/>
-      <c r="K1012"/>
+      <c r="H1012" t="n">
+        <v>0.2401920745100019</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>0.6669649460891186</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>0.001041124414367517</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0.8761843762902424</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" t="s">
@@ -28653,10 +29285,18 @@
       <c r="G1014" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1014"/>
-      <c r="I1014"/>
-      <c r="J1014"/>
-      <c r="K1014"/>
+      <c r="H1014" t="n">
+        <v>0.4069330260839434</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>0.790012426874672</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>0.010292524377031419</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0.7708911548979018</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" t="s">
@@ -28707,10 +29347,18 @@
       <c r="G1016" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1016"/>
-      <c r="I1016"/>
-      <c r="J1016"/>
-      <c r="K1016"/>
+      <c r="H1016" t="n">
+        <v>0.23180468286827158</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>0.6868717309562429</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>5.17196793379881E-4</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0.8893434164360219</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" t="s">
@@ -28761,10 +29409,18 @@
       <c r="G1018" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1018"/>
-      <c r="I1018"/>
-      <c r="J1018"/>
-      <c r="K1018"/>
+      <c r="H1018" t="n">
+        <v>0.3829578999072157</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>0.8242735152341816</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>0.006813417190775681</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0.8286267755010248</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" t="s">
@@ -28815,10 +29471,18 @@
       <c r="G1020" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1020"/>
-      <c r="I1020"/>
-      <c r="J1020"/>
-      <c r="K1020"/>
+      <c r="H1020" t="n">
+        <v>0.19571596190466548</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>0.7547721349480945</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>2.59000259000259E-4</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0.9089860532052232</v>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" t="s">
@@ -28869,10 +29533,18 @@
       <c r="G1022" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1022"/>
-      <c r="I1022"/>
-      <c r="J1022"/>
-      <c r="K1022"/>
+      <c r="H1022" t="n">
+        <v>0.4562169759582701</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>0.7386550547975026</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>0.1025390625</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0.6685573126572697</v>
+      </c>
     </row>
     <row r="1023">
       <c r="A1023" t="s">
@@ -28923,10 +29595,18 @@
       <c r="G1024" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1024"/>
-      <c r="I1024"/>
-      <c r="J1024"/>
-      <c r="K1024"/>
+      <c r="H1024" t="n">
+        <v>0.30099055045422696</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>0.5762542004817687</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>0.005678421996413628</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0.8598753765438961</v>
+      </c>
     </row>
     <row r="1025">
       <c r="A1025" t="s">
@@ -28977,10 +29657,18 @@
       <c r="G1026" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1026"/>
-      <c r="I1026"/>
-      <c r="J1026"/>
-      <c r="K1026"/>
+      <c r="H1026" t="n">
+        <v>0.45417708767273407</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>0.7421037475327702</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0.7008080188196788</v>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" t="s">
@@ -29031,10 +29719,18 @@
       <c r="G1028" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1028"/>
-      <c r="I1028"/>
-      <c r="J1028"/>
-      <c r="K1028"/>
+      <c r="H1028" t="n">
+        <v>0.2960677126822498</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>0.5780392002768832</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>0.0015894039735099338</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0.8715083503162798</v>
+      </c>
     </row>
     <row r="1029">
       <c r="A1029" t="s">
@@ -29085,10 +29781,18 @@
       <c r="G1030" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1030"/>
-      <c r="I1030"/>
-      <c r="J1030"/>
-      <c r="K1030"/>
+      <c r="H1030" t="n">
+        <v>0.45282261623283976</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>0.7430887655451623</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0.7256009000715966</v>
+      </c>
     </row>
     <row r="1031">
       <c r="A1031" t="s">
@@ -29139,10 +29843,18 @@
       <c r="G1032" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1032"/>
-      <c r="I1032"/>
-      <c r="J1032"/>
-      <c r="K1032"/>
+      <c r="H1032" t="n">
+        <v>0.2928950472487404</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>0.5836854128143683</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>0.0010403120936280884</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0.8761824100786068</v>
+      </c>
     </row>
     <row r="1033">
       <c r="A1033" t="s">
@@ -29193,10 +29905,18 @@
       <c r="G1034" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1034"/>
-      <c r="I1034"/>
-      <c r="J1034"/>
-      <c r="K1034"/>
+      <c r="H1034" t="n">
+        <v>0.44898220031130714</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>0.7508879338742162</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>0.013440860215053764</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0.7711655971160484</v>
+      </c>
     </row>
     <row r="1035">
       <c r="A1035" t="s">
@@ -29247,10 +29967,18 @@
       <c r="G1036" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1036"/>
-      <c r="I1036"/>
-      <c r="J1036"/>
-      <c r="K1036"/>
+      <c r="H1036" t="n">
+        <v>0.2840266099021747</v>
+      </c>
+      <c r="I1036" t="n">
+        <v>0.5987316051529026</v>
+      </c>
+      <c r="J1036" t="n">
+        <v>7.735946364105209E-4</v>
+      </c>
+      <c r="K1036" t="n">
+        <v>0.8895070321887389</v>
+      </c>
     </row>
     <row r="1037">
       <c r="A1037" t="s">
@@ -29301,10 +30029,18 @@
       <c r="G1038" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1038"/>
-      <c r="I1038"/>
-      <c r="J1038"/>
-      <c r="K1038"/>
+      <c r="H1038" t="n">
+        <v>0.4247663309191341</v>
+      </c>
+      <c r="I1038" t="n">
+        <v>0.7853970528930874</v>
+      </c>
+      <c r="J1038" t="n">
+        <v>0.006792058516196447</v>
+      </c>
+      <c r="K1038" t="n">
+        <v>0.82862151980904</v>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" t="s">
@@ -29355,10 +30091,18 @@
       <c r="G1040" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1040"/>
-      <c r="I1040"/>
-      <c r="J1040"/>
-      <c r="K1040"/>
+      <c r="H1040" t="n">
+        <v>0.23775316149106</v>
+      </c>
+      <c r="I1040" t="n">
+        <v>0.6909731972700254</v>
+      </c>
+      <c r="J1040" t="n">
+        <v>5.178663904712584E-4</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>0.9091592227255408</v>
+      </c>
     </row>
     <row r="1041">
       <c r="A1041" t="s">
@@ -29409,10 +30153,18 @@
       <c r="G1042" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1042"/>
-      <c r="I1042"/>
-      <c r="J1042"/>
-      <c r="K1042"/>
+      <c r="H1042" t="n">
+        <v>0.5035147409478337</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>0.6880980763851232</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>0.10738255033557047</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>0.6687936222035737</v>
+      </c>
     </row>
     <row r="1043">
       <c r="A1043" t="s">
@@ -29463,10 +30215,18 @@
       <c r="G1044" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1044"/>
-      <c r="I1044"/>
-      <c r="J1044"/>
-      <c r="K1044"/>
+      <c r="H1044" t="n">
+        <v>0.3590897579644485</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>0.5047421843379949</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>0.006520450503852994</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>0.8603488101040496</v>
+      </c>
     </row>
     <row r="1045">
       <c r="A1045" t="s">
@@ -29517,10 +30277,18 @@
       <c r="G1046" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1046"/>
-      <c r="I1046"/>
-      <c r="J1046"/>
-      <c r="K1046"/>
+      <c r="H1046" t="n">
+        <v>0.5010765564309209</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>0.6904787042808341</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>0.03400121432908318</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0.7010540319279575</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" t="s">
@@ -29571,10 +30339,18 @@
       <c r="G1048" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1048"/>
-      <c r="I1048"/>
-      <c r="J1048"/>
-      <c r="K1048"/>
+      <c r="H1048" t="n">
+        <v>0.3542583059660442</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>0.5103093379513584</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>0.0026399155227032735</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0.8720240302603278</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" t="s">
@@ -29625,10 +30401,18 @@
       <c r="G1050" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1050"/>
-      <c r="I1050"/>
-      <c r="J1050"/>
-      <c r="K1050"/>
+      <c r="H1050" t="n">
+        <v>0.4989766474852138</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>0.6931498624326049</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>0.03323262839879154</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0.7258331073509924</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" t="s">
@@ -29679,10 +30463,18 @@
       <c r="G1052" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1052"/>
-      <c r="I1052"/>
-      <c r="J1052"/>
-      <c r="K1052"/>
+      <c r="H1052" t="n">
+        <v>0.3502889437649333</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>0.5259029458285815</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>0.002073613271124935</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0.8767018785560653</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" t="s">
@@ -29733,10 +30525,18 @@
       <c r="G1054" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1054"/>
-      <c r="I1054"/>
-      <c r="J1054"/>
-      <c r="K1054"/>
+      <c r="H1054" t="n">
+        <v>0.49460487296071615</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>0.7016562770004939</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>0.016025641025641024</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0.7713940807578594</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" t="s">
@@ -29787,10 +30587,18 @@
       <c r="G1056" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1056"/>
-      <c r="I1056"/>
-      <c r="J1056"/>
-      <c r="K1056"/>
+      <c r="H1056" t="n">
+        <v>0.34474790460934446</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>0.527634835057347</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>0.0018031942297784646</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0.8900425378629359</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" t="s">
@@ -29841,10 +30649,18 @@
       <c r="G1058" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1058"/>
-      <c r="I1058"/>
-      <c r="J1058"/>
-      <c r="K1058"/>
+      <c r="H1058" t="n">
+        <v>0.467172518107692</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>0.7473359421932659</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>0.008826583592938734</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0.8288178662181024</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" t="s">
@@ -29895,10 +30711,18 @@
       <c r="G1060" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1060"/>
-      <c r="I1060"/>
-      <c r="J1060"/>
-      <c r="K1060"/>
+      <c r="H1060" t="n">
+        <v>0.30411147993355586</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>0.5847055403435153</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>7.741935483870968E-4</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0.9093266991319077</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" t="s">
@@ -29949,10 +30773,18 @@
       <c r="G1062" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1062"/>
-      <c r="I1062"/>
-      <c r="J1062"/>
-      <c r="K1062"/>
+      <c r="H1062" t="n">
+        <v>0.6435362170291374</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>0.5231724731229092</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>0.261038961038961</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0.6792503011624087</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" t="s">
@@ -30003,10 +30835,18 @@
       <c r="G1064" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1064"/>
-      <c r="I1064"/>
-      <c r="J1064"/>
-      <c r="K1064"/>
+      <c r="H1064" t="n">
+        <v>0.54837976653392</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>0.32165375443166655</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>0.01093167701863354</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0.8627378759975445</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" t="s">
@@ -30057,10 +30897,18 @@
       <c r="G1066" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1066"/>
-      <c r="I1066"/>
-      <c r="J1066"/>
-      <c r="K1066"/>
+      <c r="H1066" t="n">
+        <v>0.6412087788088946</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>0.5273475539376543</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>0.16007445323406236</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0.71211576065702</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" t="s">
@@ -30111,10 +30959,18 @@
       <c r="G1068" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1068"/>
-      <c r="I1068"/>
-      <c r="J1068"/>
-      <c r="K1068"/>
+      <c r="H1068" t="n">
+        <v>0.5420894386992543</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>0.33876987018630933</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>0.007103574702108158</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0.8745432139599149</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" t="s">
@@ -30165,10 +31021,18 @@
       <c r="G1070" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1070"/>
-      <c r="I1070"/>
-      <c r="J1070"/>
-      <c r="K1070"/>
+      <c r="H1070" t="n">
+        <v>0.6390866461139735</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>0.531337302807733</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>0.15840666975451598</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0.7373179621142205</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" t="s">
@@ -30219,10 +31083,18 @@
       <c r="G1072" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1072"/>
-      <c r="I1072"/>
-      <c r="J1072"/>
-      <c r="K1072"/>
+      <c r="H1072" t="n">
+        <v>0.5375077100967217</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>0.34294339840875304</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>0.006540369869192602</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0.8792537783207345</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" t="s">
@@ -30273,10 +31145,18 @@
       <c r="G1074" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1074"/>
-      <c r="I1074"/>
-      <c r="J1074"/>
-      <c r="K1074"/>
+      <c r="H1074" t="n">
+        <v>0.635269156711187</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>0.5409659742937286</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>0.13076278290025148</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0.7836502634280562</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" t="s">
@@ -30327,10 +31207,18 @@
       <c r="G1076" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1076"/>
-      <c r="I1076"/>
-      <c r="J1076"/>
-      <c r="K1076"/>
+      <c r="H1076" t="n">
+        <v>0.5327804596947859</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>0.3517424820186379</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>0.006329113924050633</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0.8928013895326844</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" t="s">
@@ -30381,10 +31269,18 @@
       <c r="G1078" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1078"/>
-      <c r="I1078"/>
-      <c r="J1078"/>
-      <c r="K1078"/>
+      <c r="H1078" t="n">
+        <v>0.5975831562052393</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>0.5904832820659007</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>0.08962472406181016</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0.8377241108028654</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" t="s">
@@ -30435,10 +31331,18 @@
       <c r="G1080" t="n">
         <v>0.0</v>
       </c>
-      <c r="H1080"/>
-      <c r="I1080"/>
-      <c r="J1080"/>
-      <c r="K1080"/>
+      <c r="H1080" t="n">
+        <v>0.48762415646221097</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>0.39571656041630027</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>0.00576008014024543</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0.9126325078946529</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -15762,9 +15762,15 @@
         <v>0.0</v>
       </c>
       <c r="H522"/>
-      <c r="I522"/>
-      <c r="J522"/>
-      <c r="K522"/>
+      <c r="I522" t="n">
+        <v>0.7937151973528733</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0.05814873417721519</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0.6648283095947886</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -15816,9 +15822,15 @@
         <v>0.0</v>
       </c>
       <c r="H524"/>
-      <c r="I524"/>
-      <c r="J524"/>
-      <c r="K524"/>
+      <c r="I524" t="n">
+        <v>0.7402740684343604</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.005394704281118535</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.8580620719456826</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -15869,10 +15881,18 @@
       <c r="G526" t="n">
         <v>0.0</v>
       </c>
-      <c r="H526"/>
-      <c r="I526"/>
-      <c r="J526"/>
-      <c r="K526"/>
+      <c r="H526" t="n">
+        <v>0.20904763300949714</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.7899636091788098</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.04208947321980058</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.696350888815281</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -15923,10 +15943,18 @@
       <c r="G528" t="n">
         <v>0.0</v>
       </c>
-      <c r="H528"/>
-      <c r="I528"/>
-      <c r="J528"/>
-      <c r="K528"/>
+      <c r="H528" t="n">
+        <v>0.12743696760307907</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.7376331248992656</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0.004202483285577842</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0.8700668312289488</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -16350,9 +16378,15 @@
         <v>0.0</v>
       </c>
       <c r="H542"/>
-      <c r="I542"/>
-      <c r="J542"/>
-      <c r="K542"/>
+      <c r="I542" t="n">
+        <v>0.7744992982113671</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0.05778210116731518</v>
+      </c>
+      <c r="K542" t="n">
+        <v>0.6646435165223928</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
@@ -16404,9 +16438,15 @@
         <v>0.0</v>
       </c>
       <c r="H544"/>
-      <c r="I544"/>
-      <c r="J544"/>
-      <c r="K544"/>
+      <c r="I544" t="n">
+        <v>0.7189563992103057</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0.00577152396851896</v>
+      </c>
+      <c r="K544" t="n">
+        <v>0.8592275547978278</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -16457,10 +16497,18 @@
       <c r="G546" t="n">
         <v>0.0</v>
       </c>
-      <c r="H546"/>
-      <c r="I546"/>
-      <c r="J546"/>
-      <c r="K546"/>
+      <c r="H546" t="n">
+        <v>0.2665258227486263</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.7707567067099852</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0.041996348143639686</v>
+      </c>
+      <c r="K546" t="n">
+        <v>0.6962068698661183</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -16511,10 +16559,18 @@
       <c r="G548" t="n">
         <v>0.0</v>
       </c>
-      <c r="H548"/>
-      <c r="I548"/>
-      <c r="J548"/>
-      <c r="K548"/>
+      <c r="H548" t="n">
+        <v>0.14923813827414428</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.7167864507335487</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.004608294930875576</v>
+      </c>
+      <c r="K548" t="n">
+        <v>0.871316757375427</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -16938,9 +16994,15 @@
         <v>0.0</v>
       </c>
       <c r="H562"/>
-      <c r="I562"/>
-      <c r="J562"/>
-      <c r="K562"/>
+      <c r="I562" t="n">
+        <v>0.746169181055198</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0.05333118504793362</v>
+      </c>
+      <c r="K562" t="n">
+        <v>0.6613098915913048</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -16992,9 +17054,15 @@
         <v>0.0</v>
       </c>
       <c r="H564"/>
-      <c r="I564"/>
-      <c r="J564"/>
-      <c r="K564"/>
+      <c r="I564" t="n">
+        <v>0.6866039616111387</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0.005958623319668224</v>
+      </c>
+      <c r="K564" t="n">
+        <v>0.8597971360381862</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -17045,10 +17113,18 @@
       <c r="G566" t="n">
         <v>0.0</v>
       </c>
-      <c r="H566"/>
-      <c r="I566"/>
-      <c r="J566"/>
-      <c r="K566"/>
+      <c r="H566" t="n">
+        <v>0.33925531604120274</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.7431530146165861</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0.04030780505679736</v>
+      </c>
+      <c r="K566" t="n">
+        <v>0.6933494354884008</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
@@ -17099,10 +17175,18 @@
       <c r="G568" t="n">
         <v>0.0</v>
       </c>
-      <c r="H568"/>
-      <c r="I568"/>
-      <c r="J568"/>
-      <c r="K568"/>
+      <c r="H568" t="n">
+        <v>0.19727822976976855</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.6839830292441502</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0.004789757288260489</v>
+      </c>
+      <c r="K568" t="n">
+        <v>0.8718973747016706</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -17526,9 +17610,15 @@
         <v>0.0</v>
       </c>
       <c r="H582"/>
-      <c r="I582"/>
-      <c r="J582"/>
-      <c r="K582"/>
+      <c r="I582" t="n">
+        <v>0.5897775979600931</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0.04979168089611365</v>
+      </c>
+      <c r="K582" t="n">
+        <v>0.6579556164853054</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -17579,10 +17669,18 @@
       <c r="G584" t="n">
         <v>0.0</v>
       </c>
-      <c r="H584"/>
-      <c r="I584"/>
-      <c r="J584"/>
-      <c r="K584"/>
+      <c r="H584" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.47012352710553024</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0.006491063029162747</v>
+      </c>
+      <c r="K584" t="n">
+        <v>0.8614072622450754</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -17633,10 +17731,18 @@
       <c r="G586" t="n">
         <v>0.0</v>
       </c>
-      <c r="H586"/>
-      <c r="I586"/>
-      <c r="J586"/>
-      <c r="K586"/>
+      <c r="H586" t="n">
+        <v>0.5574317885796068</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.5863229632786205</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0.03843979649519502</v>
+      </c>
+      <c r="K586" t="n">
+        <v>0.6904473588009504</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
@@ -17687,10 +17793,18 @@
       <c r="G588" t="n">
         <v>0.0</v>
       </c>
-      <c r="H588"/>
-      <c r="I588"/>
-      <c r="J588"/>
-      <c r="K588"/>
+      <c r="H588" t="n">
+        <v>0.3980423229849888</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.4689494243909442</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0.005319390770629689</v>
+      </c>
+      <c r="K588" t="n">
+        <v>0.8735609452065467</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -174,13 +174,13 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.29669418034366707</v>
+        <v>0.295901187162618</v>
       </c>
       <c r="I2" t="n">
-        <v>0.29092501563738044</v>
+        <v>0.2905043050655766</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8042909221053278</v>
+        <v>0.9279338506497754</v>
       </c>
       <c r="K2" t="n">
         <v>0.2</v>
@@ -212,13 +212,13 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.33137232432090596</v>
+        <v>0.3304426870089595</v>
       </c>
       <c r="I3" t="n">
-        <v>0.32492148191485054</v>
+        <v>0.32444827698339673</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7720126984723826</v>
+        <v>0.9155533223027235</v>
       </c>
       <c r="K3" t="n">
         <v>0.3333333333333333</v>
@@ -250,13 +250,13 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.47826129346441343</v>
+        <v>0.47554325250433155</v>
       </c>
       <c r="I4" t="n">
-        <v>0.46719113026301745</v>
+        <v>0.4664092692417163</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5757184235755165</v>
+        <v>0.8369872872277502</v>
       </c>
       <c r="K4" t="n">
         <v>0.5914893617021276</v>
@@ -288,13 +288,13 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2946078014317702</v>
+        <v>0.2938640345830839</v>
       </c>
       <c r="I5" t="n">
-        <v>0.28886956038810124</v>
+        <v>0.2885388064770747</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8071574776763154</v>
+        <v>0.92881531142319</v>
       </c>
       <c r="K5" t="n">
         <v>0.16666666666666666</v>
@@ -326,13 +326,13 @@
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.32942813623173856</v>
+        <v>0.32853874910102104</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3229813098135655</v>
+        <v>0.3225676227500133</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7770754844650806</v>
+        <v>0.9167672345980346</v>
       </c>
       <c r="K6" t="n">
         <v>0.2631578947368421</v>
@@ -364,13 +364,13 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4776917706557227</v>
+        <v>0.4749388400637294</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4664591704204341</v>
+        <v>0.46561323720171016</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5766101211125196</v>
+        <v>0.8296250170011974</v>
       </c>
       <c r="K7" t="n">
         <v>0.5870535714285714</v>
@@ -402,13 +402,13 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2922233790214557</v>
+        <v>0.291569567767852</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2866252547231069</v>
+        <v>0.2863108132430967</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8102444312238074</v>
+        <v>0.9295592439286247</v>
       </c>
       <c r="K8" t="n">
         <v>0.14285714285714285</v>
@@ -440,13 +440,13 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.32745179985448025</v>
+        <v>0.3265178567301878</v>
       </c>
       <c r="I9" t="n">
-        <v>0.32100919948091405</v>
+        <v>0.3205276296079611</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7812106873579728</v>
+        <v>0.9177980799847706</v>
       </c>
       <c r="K9" t="n">
         <v>0.2571428571428571</v>
@@ -478,13 +478,13 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.47671369224433735</v>
+        <v>0.47410857148784064</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4653743906111039</v>
+        <v>0.4647020705735003</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5802989578479048</v>
+        <v>0.8330364682854575</v>
       </c>
       <c r="K10" t="n">
         <v>0.5788288288288288</v>
@@ -516,13 +516,13 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2884341995243459</v>
+        <v>0.28770009434141425</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2827713318714938</v>
+        <v>0.28240428798638506</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8243043372223151</v>
+        <v>0.9399040864054393</v>
       </c>
       <c r="K11" t="n">
         <v>0.6666666666666666</v>
@@ -554,13 +554,13 @@
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3234541797336899</v>
+        <v>0.3226009397449505</v>
       </c>
       <c r="I12" t="n">
-        <v>0.31705441760937225</v>
+        <v>0.3165798436524071</v>
       </c>
       <c r="J12" t="n">
-        <v>0.796674074373653</v>
+        <v>0.9295948000687528</v>
       </c>
       <c r="K12" t="n">
         <v>0.2857142857142857</v>
@@ -592,13 +592,13 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.47462998901583114</v>
+        <v>0.4720842011930104</v>
       </c>
       <c r="I13" t="n">
-        <v>0.46333587854458713</v>
+        <v>0.4627071163031693</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5982873792451506</v>
+        <v>0.848747607057197</v>
       </c>
       <c r="K13" t="n">
         <v>0.5501618122977346</v>
@@ -630,13 +630,13 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.13317114604925176</v>
+        <v>0.1326983543832478</v>
       </c>
       <c r="I14" t="n">
-        <v>0.12918114260481675</v>
+        <v>0.12899423779893335</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7091471631473915</v>
+        <v>0.9375784164724833</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="n">
@@ -666,13 +666,13 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.16355442217617555</v>
+        <v>0.16282951463910486</v>
       </c>
       <c r="I15" t="n">
-        <v>0.15855864887193633</v>
+        <v>0.1581008951096126</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6654606062310741</v>
+        <v>0.9264290904917196</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="n">
@@ -702,13 +702,13 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3251946614192554</v>
+        <v>0.3213772640545708</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3129292627608131</v>
+        <v>0.3126599915382455</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3523931373060305</v>
+        <v>0.7905295496456166</v>
       </c>
       <c r="K16" t="n">
         <v>0.375</v>
@@ -740,13 +740,13 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.13153457055697518</v>
+        <v>0.13110633438252928</v>
       </c>
       <c r="I17" t="n">
-        <v>0.12756930473474307</v>
+        <v>0.12743261261958277</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7034843383873288</v>
+        <v>0.9376767942013428</v>
       </c>
       <c r="K17"/>
       <c r="L17" t="n">
@@ -776,13 +776,13 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.16145698455792692</v>
+        <v>0.16070797046978413</v>
       </c>
       <c r="I18" t="n">
-        <v>0.15653513819335033</v>
+        <v>0.15601678201500963</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6721004307341448</v>
+        <v>0.9265763143889505</v>
       </c>
       <c r="K18"/>
       <c r="L18" t="n">
@@ -812,13 +812,13 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.32333847239628877</v>
+        <v>0.31959452081622974</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3112248968195472</v>
+        <v>0.31081777746795514</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3621775659512325</v>
+        <v>0.783974623876006</v>
       </c>
       <c r="K19" t="n">
         <v>0.2875</v>
@@ -850,13 +850,13 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12975803780285167</v>
+        <v>0.1293276131566044</v>
       </c>
       <c r="I20" t="n">
-        <v>0.12583220335520803</v>
+        <v>0.12564236694662043</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6978646469392489</v>
+        <v>0.9371751855531856</v>
       </c>
       <c r="K20"/>
       <c r="L20" t="n">
@@ -886,13 +886,13 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.15937711308008343</v>
+        <v>0.15872128617865786</v>
       </c>
       <c r="I21" t="n">
-        <v>0.154514517286543</v>
+        <v>0.15411885596609712</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6735977732965764</v>
+        <v>0.9250185012614184</v>
       </c>
       <c r="K21"/>
       <c r="L21" t="n">
@@ -922,13 +922,13 @@
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.32108611738131326</v>
+        <v>0.3174278028264966</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3090266873655633</v>
+        <v>0.3086648315479442</v>
       </c>
       <c r="J22" t="n">
-        <v>0.36231984276789475</v>
+        <v>0.7927505556946255</v>
       </c>
       <c r="K22" t="n">
         <v>0.2875</v>
@@ -960,13 +960,13 @@
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.12592735087158485</v>
+        <v>0.12554900709751501</v>
       </c>
       <c r="I23" t="n">
-        <v>0.12207759230113427</v>
+        <v>0.12192173275586453</v>
       </c>
       <c r="J23" t="n">
-        <v>0.706073682916347</v>
+        <v>0.9338450305576353</v>
       </c>
       <c r="K23"/>
       <c r="L23" t="n">
@@ -996,13 +996,13 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.154748463111876</v>
+        <v>0.15404603249177387</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1499122509395427</v>
+        <v>0.14951165269962732</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6704489427428475</v>
+        <v>0.9288605523063795</v>
       </c>
       <c r="K24"/>
       <c r="L24" t="n">
@@ -1032,13 +1032,13 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.31768858279293044</v>
+        <v>0.3140040363373814</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3058019951156911</v>
+        <v>0.30518091016621396</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3727647191374252</v>
+        <v>0.7941054533894196</v>
       </c>
       <c r="K25" t="n">
         <v>0.2875</v>
@@ -3534,13 +3534,13 @@
         <v>500.0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.31467220719890343</v>
+        <v>0.31314943212189267</v>
       </c>
       <c r="I114" t="n">
-        <v>0.30804259986262345</v>
+        <v>0.30745434997719184</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7130328351679817</v>
+        <v>0.8825714271350921</v>
       </c>
       <c r="K114" t="n">
         <v>0.585</v>
@@ -3572,13 +3572,13 @@
         <v>1000.0</v>
       </c>
       <c r="H115" t="n">
-        <v>0.3390805814318377</v>
+        <v>0.33757251296992946</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3320385162811382</v>
+        <v>0.33139571812453805</v>
       </c>
       <c r="J115" t="n">
-        <v>0.6968730051174754</v>
+        <v>0.8715055354634607</v>
       </c>
       <c r="K115" t="n">
         <v>0.585</v>
@@ -3610,13 +3610,13 @@
         <v>500.0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3403202471338228</v>
+        <v>0.33829470766574865</v>
       </c>
       <c r="I116" t="n">
-        <v>0.33303224845846435</v>
+        <v>0.3322114076928473</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6862916640690141</v>
+        <v>0.8710901755169135</v>
       </c>
       <c r="K116" t="n">
         <v>0.5707317073170731</v>
@@ -3648,13 +3648,13 @@
         <v>1000.0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3634257549279417</v>
+        <v>0.36137291120514325</v>
       </c>
       <c r="I117" t="n">
-        <v>0.35577238962189384</v>
+        <v>0.3547892064264698</v>
       </c>
       <c r="J117" t="n">
-        <v>0.6815221445388251</v>
+        <v>0.8702761790440567</v>
       </c>
       <c r="K117" t="n">
         <v>0.5707317073170731</v>
@@ -3686,13 +3686,13 @@
         <v>500.0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.45152533753123253</v>
+        <v>0.4471646222786737</v>
       </c>
       <c r="I118" t="n">
-        <v>0.44072955420819016</v>
+        <v>0.4392828774682395</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5397198178656077</v>
+        <v>0.8054968130736035</v>
       </c>
       <c r="K118" t="n">
         <v>0.6131059245960503</v>
@@ -3724,13 +3724,13 @@
         <v>1000.0</v>
       </c>
       <c r="H119" t="n">
-        <v>0.46662680519103955</v>
+        <v>0.46249754721648567</v>
       </c>
       <c r="I119" t="n">
-        <v>0.4552700616326941</v>
+        <v>0.45400133330754194</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5228934310152373</v>
+        <v>0.8033390209201705</v>
       </c>
       <c r="K119" t="n">
         <v>0.6131059245960503</v>
@@ -3762,13 +3762,13 @@
         <v>500.0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.4926570500534581</v>
+        <v>0.4795163937580157</v>
       </c>
       <c r="I120" t="n">
-        <v>0.47504489614063805</v>
+        <v>0.4707038719499337</v>
       </c>
       <c r="J120" t="n">
-        <v>0.19794675329037736</v>
+        <v>0.45313242012343685</v>
       </c>
       <c r="K120" t="n">
         <v>0.20192307692307693</v>
@@ -3800,13 +3800,13 @@
         <v>1000.0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4989559910649386</v>
+        <v>0.48625657780286086</v>
       </c>
       <c r="I121" t="n">
-        <v>0.4812015727718175</v>
+        <v>0.4773658648149585</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1980253249112953</v>
+        <v>0.4551972580667837</v>
       </c>
       <c r="K121" t="n">
         <v>0.20192307692307693</v>
@@ -3838,19 +3838,19 @@
         <v>500.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.29933399868242044</v>
+        <v>0.31149513065953177</v>
       </c>
       <c r="I122" t="n">
-        <v>0.29285200914409987</v>
+        <v>0.30573818269343184</v>
       </c>
       <c r="J122" t="n">
-        <v>0.7152266509223888</v>
+        <v>0.884743776375495</v>
       </c>
       <c r="K122" t="n">
-        <v>0.6030927835051546</v>
+        <v>0.585</v>
       </c>
       <c r="L122" t="n">
-        <v>0.7071905417112572</v>
+        <v>0.7071815883887802</v>
       </c>
     </row>
     <row r="123">
@@ -3876,19 +3876,19 @@
         <v>1000.0</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3255559082483358</v>
+        <v>0.33570661326445234</v>
       </c>
       <c r="I123" t="n">
-        <v>0.31870290592092676</v>
+        <v>0.3295284519077967</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6973334970515064</v>
+        <v>0.8651041596296531</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6030927835051546</v>
+        <v>0.585</v>
       </c>
       <c r="L123" t="n">
-        <v>0.7071905417112572</v>
+        <v>0.7071815883887802</v>
       </c>
     </row>
     <row r="124">
@@ -3914,19 +3914,19 @@
         <v>500.0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.32486689800044566</v>
+        <v>0.33664680027887106</v>
       </c>
       <c r="I124" t="n">
-        <v>0.31776316806741856</v>
+        <v>0.33058457258111856</v>
       </c>
       <c r="J124" t="n">
-        <v>0.6885650553498135</v>
+        <v>0.872315647839852</v>
       </c>
       <c r="K124" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="L124" t="n">
-        <v>0.7071881768378138</v>
+        <v>0.7071777308911517</v>
       </c>
     </row>
     <row r="125">
@@ -3952,19 +3952,19 @@
         <v>1000.0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3504757270542811</v>
+        <v>0.35985521322794845</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3429496747622882</v>
+        <v>0.35325905859346235</v>
       </c>
       <c r="J125" t="n">
-        <v>0.6842820009439736</v>
+        <v>0.8656126947909486</v>
       </c>
       <c r="K125" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="L125" t="n">
-        <v>0.7071881768378138</v>
+        <v>0.7071777308911517</v>
       </c>
     </row>
     <row r="126">
@@ -3990,19 +3990,19 @@
         <v>500.0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.4367212749370604</v>
+        <v>0.445336748452921</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4263686127412203</v>
+        <v>0.4374584605035318</v>
       </c>
       <c r="J126" t="n">
-        <v>0.5538623923300656</v>
+        <v>0.8133026910933264</v>
       </c>
       <c r="K126" t="n">
-        <v>0.617059891107078</v>
+        <v>0.6131059245960503</v>
       </c>
       <c r="L126" t="n">
-        <v>0.7309062840345553</v>
+        <v>0.7309797409849763</v>
       </c>
     </row>
     <row r="127">
@@ -4028,19 +4028,19 @@
         <v>1000.0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.454903330879944</v>
+        <v>0.4617392033611856</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4438023115360823</v>
+        <v>0.4532928488391723</v>
       </c>
       <c r="J127" t="n">
-        <v>0.5372670479071375</v>
+        <v>0.8022667168467805</v>
       </c>
       <c r="K127" t="n">
-        <v>0.617059891107078</v>
+        <v>0.6131059245960503</v>
       </c>
       <c r="L127" t="n">
-        <v>0.7309062840345553</v>
+        <v>0.7309797409849763</v>
       </c>
     </row>
     <row r="128">
@@ -4066,19 +4066,19 @@
         <v>500.0</v>
       </c>
       <c r="H128" t="n">
-        <v>0.5137777314107277</v>
+        <v>0.49085206269128573</v>
       </c>
       <c r="I128" t="n">
-        <v>0.4963169901784952</v>
+        <v>0.4818488697654565</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2342094898900747</v>
+        <v>0.46845262302203194</v>
       </c>
       <c r="K128" t="n">
-        <v>0.21547732784596163</v>
+        <v>0.1813189989017976</v>
       </c>
       <c r="L128" t="n">
-        <v>0.8168660901157051</v>
+        <v>0.8205616438356165</v>
       </c>
     </row>
     <row r="129">
@@ -4104,19 +4104,19 @@
         <v>1000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.52233324967992</v>
+        <v>0.499893704873361</v>
       </c>
       <c r="I129" t="n">
-        <v>0.5046819723352629</v>
+        <v>0.49071160712695744</v>
       </c>
       <c r="J129" t="n">
-        <v>0.236606189584254</v>
+        <v>0.4735471447487313</v>
       </c>
       <c r="K129" t="n">
-        <v>0.21547732784596163</v>
+        <v>0.1813189989017976</v>
       </c>
       <c r="L129" t="n">
-        <v>0.8168660901157051</v>
+        <v>0.8205616438356165</v>
       </c>
     </row>
     <row r="130">
@@ -4142,19 +4142,19 @@
         <v>500.0</v>
       </c>
       <c r="H130" t="n">
-        <v>0.2833838152976075</v>
+        <v>0.3096205952962795</v>
       </c>
       <c r="I130" t="n">
-        <v>0.27721446880983597</v>
+        <v>0.30390144207748915</v>
       </c>
       <c r="J130" t="n">
-        <v>0.7340764005061092</v>
+        <v>0.8844338046816594</v>
       </c>
       <c r="K130" t="n">
-        <v>0.609375</v>
+        <v>0.585</v>
       </c>
       <c r="L130" t="n">
-        <v>0.7318989767214318</v>
+        <v>0.7318880463144162</v>
       </c>
     </row>
     <row r="131">
@@ -4180,19 +4180,19 @@
         <v>1000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.31048537983157176</v>
+        <v>0.3336542471531329</v>
       </c>
       <c r="I131" t="n">
-        <v>0.30386227873067445</v>
+        <v>0.3275487846625823</v>
       </c>
       <c r="J131" t="n">
-        <v>0.7126616232013699</v>
+        <v>0.8772652064582233</v>
       </c>
       <c r="K131" t="n">
-        <v>0.609375</v>
+        <v>0.585</v>
       </c>
       <c r="L131" t="n">
-        <v>0.7318989767214318</v>
+        <v>0.7318880463144162</v>
       </c>
     </row>
     <row r="132">
@@ -4218,19 +4218,19 @@
         <v>500.0</v>
       </c>
       <c r="H132" t="n">
-        <v>0.30846020281205094</v>
+        <v>0.335180910639354</v>
       </c>
       <c r="I132" t="n">
-        <v>0.301574233083776</v>
+        <v>0.32907215055799727</v>
       </c>
       <c r="J132" t="n">
-        <v>0.7079862791101603</v>
+        <v>0.8737405662601572</v>
       </c>
       <c r="K132" t="n">
-        <v>0.5939086294416244</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="L132" t="n">
-        <v>0.7318958751643513</v>
+        <v>0.7318849442966496</v>
       </c>
     </row>
     <row r="133">
@@ -4256,19 +4256,19 @@
         <v>1000.0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3357313105108183</v>
+        <v>0.35826666487233794</v>
       </c>
       <c r="I133" t="n">
-        <v>0.3283890559250035</v>
+        <v>0.35168018719592725</v>
       </c>
       <c r="J133" t="n">
-        <v>0.6950355877925931</v>
+        <v>0.8763646632172475</v>
       </c>
       <c r="K133" t="n">
-        <v>0.5939086294416244</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="L133" t="n">
-        <v>0.7318958751643513</v>
+        <v>0.7318849442966496</v>
       </c>
     </row>
     <row r="134">
@@ -4294,19 +4294,19 @@
         <v>500.0</v>
       </c>
       <c r="H134" t="n">
-        <v>0.4209544285272585</v>
+        <v>0.44423492424545147</v>
       </c>
       <c r="I134" t="n">
-        <v>0.4108565091369393</v>
+        <v>0.43635740045908245</v>
       </c>
       <c r="J134" t="n">
-        <v>0.588194851936554</v>
+        <v>0.8170298140209384</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.6021220159151194</v>
       </c>
       <c r="L134" t="n">
-        <v>0.756420015435525</v>
+        <v>0.7565703890939474</v>
       </c>
     </row>
     <row r="135">
@@ -4332,19 +4332,19 @@
         <v>1000.0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4412384586119483</v>
+        <v>0.4601738300724972</v>
       </c>
       <c r="I135" t="n">
-        <v>0.4304748506594125</v>
+        <v>0.4517596205126955</v>
       </c>
       <c r="J135" t="n">
-        <v>0.5663591281598291</v>
+        <v>0.8116735074055118</v>
       </c>
       <c r="K135" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.6021220159151194</v>
       </c>
       <c r="L135" t="n">
-        <v>0.756420015435525</v>
+        <v>0.7565703890939474</v>
       </c>
     </row>
     <row r="136">
@@ -4370,19 +4370,19 @@
         <v>500.0</v>
       </c>
       <c r="H136" t="n">
-        <v>0.516493144099075</v>
+        <v>0.5017885556629045</v>
       </c>
       <c r="I136" t="n">
-        <v>0.49867510477633564</v>
+        <v>0.49265527666056474</v>
       </c>
       <c r="J136" t="n">
-        <v>0.25838386784308764</v>
+        <v>0.48227061982979363</v>
       </c>
       <c r="K136" t="n">
-        <v>0.2133906724994439</v>
+        <v>0.17876167019875136</v>
       </c>
       <c r="L136" t="n">
-        <v>0.8460354269842517</v>
+        <v>0.852696242928954</v>
       </c>
     </row>
     <row r="137">
@@ -4408,19 +4408,19 @@
         <v>1000.0</v>
       </c>
       <c r="H137" t="n">
-        <v>0.5243419291457135</v>
+        <v>0.5100119612510123</v>
       </c>
       <c r="I137" t="n">
-        <v>0.5064086610739797</v>
+        <v>0.5008915986664665</v>
       </c>
       <c r="J137" t="n">
-        <v>0.25983206001981657</v>
+        <v>0.4902178063097741</v>
       </c>
       <c r="K137" t="n">
-        <v>0.2133906724994439</v>
+        <v>0.17876167019875136</v>
       </c>
       <c r="L137" t="n">
-        <v>0.8460354269842517</v>
+        <v>0.852696242928954</v>
       </c>
     </row>
     <row r="138">
@@ -4446,19 +4446,19 @@
         <v>500.0</v>
       </c>
       <c r="H138" t="n">
-        <v>0.24428058706130382</v>
+        <v>0.3065291726910362</v>
       </c>
       <c r="I138" t="n">
-        <v>0.2389218002970297</v>
+        <v>0.3008473991249848</v>
       </c>
       <c r="J138" t="n">
-        <v>0.7470696113027666</v>
+        <v>0.9040704732469034</v>
       </c>
       <c r="K138" t="n">
-        <v>0.6592797783933518</v>
+        <v>0.585</v>
       </c>
       <c r="L138" t="n">
-        <v>0.7834970550628784</v>
+        <v>0.7780291911285062</v>
       </c>
     </row>
     <row r="139">
@@ -4484,19 +4484,19 @@
         <v>1000.0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.27368014741994756</v>
+        <v>0.33022185000237037</v>
       </c>
       <c r="I139" t="n">
-        <v>0.2676331136615861</v>
+        <v>0.32410062565477826</v>
       </c>
       <c r="J139" t="n">
-        <v>0.7667832838707526</v>
+        <v>0.9006812565358363</v>
       </c>
       <c r="K139" t="n">
-        <v>0.6592797783933518</v>
+        <v>0.585</v>
       </c>
       <c r="L139" t="n">
-        <v>0.7834970550628784</v>
+        <v>0.7780291911285062</v>
       </c>
     </row>
     <row r="140">
@@ -4522,19 +4522,19 @@
         <v>500.0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.2669829974966332</v>
+        <v>0.3318451503406309</v>
       </c>
       <c r="I140" t="n">
-        <v>0.26090899181651733</v>
+        <v>0.32567450005544724</v>
       </c>
       <c r="J140" t="n">
-        <v>0.7445838744825035</v>
+        <v>0.8940628201213977</v>
       </c>
       <c r="K140" t="n">
-        <v>0.6483790523690773</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="L140" t="n">
-        <v>0.784493309609273</v>
+        <v>0.7780275000254818</v>
       </c>
     </row>
     <row r="141">
@@ -4560,19 +4560,19 @@
         <v>1000.0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.29676247864855504</v>
+        <v>0.3555741229106752</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2901838317312429</v>
+        <v>0.34896722392744023</v>
       </c>
       <c r="J141" t="n">
-        <v>0.7334067761100959</v>
+        <v>0.8791531964383121</v>
       </c>
       <c r="K141" t="n">
-        <v>0.6483790523690773</v>
+        <v>0.5707317073170731</v>
       </c>
       <c r="L141" t="n">
-        <v>0.784493309609273</v>
+        <v>0.7780275000254818</v>
       </c>
     </row>
     <row r="142">
@@ -4598,19 +4598,19 @@
         <v>500.0</v>
       </c>
       <c r="H142" t="n">
-        <v>0.37318524106427203</v>
+        <v>0.44217220592419504</v>
       </c>
       <c r="I142" t="n">
-        <v>0.36407359591202276</v>
+        <v>0.4342251348871042</v>
       </c>
       <c r="J142" t="n">
-        <v>0.6348360070170038</v>
+        <v>0.8314023884787952</v>
       </c>
       <c r="K142" t="n">
-        <v>0.6461232604373758</v>
+        <v>0.5772843723313408</v>
       </c>
       <c r="L142" t="n">
-        <v>0.802983547235102</v>
+        <v>0.8042364412201712</v>
       </c>
     </row>
     <row r="143">
@@ -4636,19 +4636,19 @@
         <v>1000.0</v>
       </c>
       <c r="H143" t="n">
-        <v>0.39703580838152336</v>
+        <v>0.4582889956211622</v>
       </c>
       <c r="I143" t="n">
-        <v>0.38727584819297867</v>
+        <v>0.44989936221804916</v>
       </c>
       <c r="J143" t="n">
-        <v>0.6213755652356318</v>
+        <v>0.8198709158576678</v>
       </c>
       <c r="K143" t="n">
-        <v>0.6461232604373758</v>
+        <v>0.5772843723313408</v>
       </c>
       <c r="L143" t="n">
-        <v>0.802983547235102</v>
+        <v>0.8042364412201712</v>
       </c>
     </row>
     <row r="144">
@@ -4674,19 +4674,19 @@
         <v>500.0</v>
       </c>
       <c r="H144" t="n">
-        <v>0.48493496709193895</v>
+        <v>0.5194158213004467</v>
       </c>
       <c r="I144" t="n">
-        <v>0.4688317903409036</v>
+        <v>0.509905504419051</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3224868225651764</v>
+        <v>0.5071211156766291</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2073961113229127</v>
+        <v>0.1520322680732237</v>
       </c>
       <c r="L144" t="n">
-        <v>0.8947215383720705</v>
+        <v>0.901860684737458</v>
       </c>
     </row>
     <row r="145">
@@ -4712,19 +4712,19 @@
         <v>1000.0</v>
       </c>
       <c r="H145" t="n">
-        <v>0.49707987653164876</v>
+        <v>0.5238041384189807</v>
       </c>
       <c r="I145" t="n">
-        <v>0.4803121803220934</v>
+        <v>0.5141640250085484</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3273907075450963</v>
+        <v>0.5100311976519185</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2073961113229127</v>
+        <v>0.1520322680732237</v>
       </c>
       <c r="L145" t="n">
-        <v>0.8947215383720705</v>
+        <v>0.901860684737458</v>
       </c>
     </row>
     <row r="146">
@@ -4750,13 +4750,13 @@
         <v>500.0</v>
       </c>
       <c r="H146" t="n">
-        <v>0.1367109065254068</v>
+        <v>0.13419625098806598</v>
       </c>
       <c r="I146" t="n">
-        <v>0.1316568010925045</v>
+        <v>0.1304654773712501</v>
       </c>
       <c r="J146" t="n">
-        <v>0.5298762149541586</v>
+        <v>0.7443517508897618</v>
       </c>
       <c r="K146" t="n">
         <v>0.22254335260115607</v>
@@ -4788,13 +4788,13 @@
         <v>1000.0</v>
       </c>
       <c r="H147" t="n">
-        <v>0.14930155556935967</v>
+        <v>0.14716231745387215</v>
       </c>
       <c r="I147" t="n">
-        <v>0.14372047185404688</v>
+        <v>0.14306032708186803</v>
       </c>
       <c r="J147" t="n">
-        <v>0.49913226412288053</v>
+        <v>0.7430519455400725</v>
       </c>
       <c r="K147" t="n">
         <v>0.22254335260115607</v>
@@ -4826,13 +4826,13 @@
         <v>500.0</v>
       </c>
       <c r="H148" t="n">
-        <v>0.1519602141182264</v>
+        <v>0.14932637984611805</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1464070974512887</v>
+        <v>0.14520221350522725</v>
       </c>
       <c r="J148" t="n">
-        <v>0.5089016319082504</v>
+        <v>0.7425272748530837</v>
       </c>
       <c r="K148" t="n">
         <v>0.23121387283236994</v>
@@ -4864,13 +4864,13 @@
         <v>1000.0</v>
       </c>
       <c r="H149" t="n">
-        <v>0.16566103288167347</v>
+        <v>0.16259368685141237</v>
       </c>
       <c r="I149" t="n">
-        <v>0.15949122401995222</v>
+        <v>0.15809234996490784</v>
       </c>
       <c r="J149" t="n">
-        <v>0.46154691528998404</v>
+        <v>0.7224010400095366</v>
       </c>
       <c r="K149" t="n">
         <v>0.23121387283236994</v>
@@ -4902,13 +4902,13 @@
         <v>500.0</v>
       </c>
       <c r="H150" t="n">
-        <v>0.2318581228931058</v>
+        <v>0.2271004823012886</v>
       </c>
       <c r="I150" t="n">
-        <v>0.22267585485282224</v>
+        <v>0.2208257062166459</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3718591839786701</v>
+        <v>0.6900711551839617</v>
       </c>
       <c r="K150" t="n">
         <v>0.1811320754716981</v>
@@ -4940,13 +4940,13 @@
         <v>1000.0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.2407265299047497</v>
+        <v>0.23611895665468263</v>
       </c>
       <c r="I151" t="n">
-        <v>0.23144041703370477</v>
+        <v>0.22980240014194545</v>
       </c>
       <c r="J151" t="n">
-        <v>0.34043851190806756</v>
+        <v>0.6665427439819405</v>
       </c>
       <c r="K151" t="n">
         <v>0.1811320754716981</v>
@@ -4978,13 +4978,13 @@
         <v>500.0</v>
       </c>
       <c r="H152" t="n">
-        <v>0.34841640559090264</v>
+        <v>0.33587087244505487</v>
       </c>
       <c r="I152" t="n">
-        <v>0.32914705570334696</v>
+        <v>0.32655393157560136</v>
       </c>
       <c r="J152" t="n">
-        <v>0.16820334946535273</v>
+        <v>0.4360027683345203</v>
       </c>
       <c r="K152" t="n">
         <v>0.07118055555555555</v>
@@ -5016,13 +5016,13 @@
         <v>1000.0</v>
       </c>
       <c r="H153" t="n">
-        <v>0.35184559351512046</v>
+        <v>0.33904846425171087</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3324545191715264</v>
+        <v>0.32970373882934934</v>
       </c>
       <c r="J153" t="n">
-        <v>0.18101132103101836</v>
+        <v>0.43892787715508663</v>
       </c>
       <c r="K153" t="n">
         <v>0.07118055555555555</v>
@@ -5054,19 +5054,19 @@
         <v>500.0</v>
       </c>
       <c r="H154" t="n">
-        <v>0.1226743079288157</v>
+        <v>0.13309030048252474</v>
       </c>
       <c r="I154" t="n">
-        <v>0.11788745258841628</v>
+        <v>0.12929821083219065</v>
       </c>
       <c r="J154" t="n">
-        <v>0.5195930172219552</v>
+        <v>0.7424852097730058</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2873134328358209</v>
+        <v>0.22254335260115607</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8854381606097612</v>
+        <v>0.8853911046983117</v>
       </c>
     </row>
     <row r="155">
@@ -5092,19 +5092,19 @@
         <v>1000.0</v>
       </c>
       <c r="H155" t="n">
-        <v>0.13336408213457127</v>
+        <v>0.1462788979306417</v>
       </c>
       <c r="I155" t="n">
-        <v>0.1281998824750469</v>
+        <v>0.1421758796596653</v>
       </c>
       <c r="J155" t="n">
-        <v>0.5179282202179689</v>
+        <v>0.7388430714601077</v>
       </c>
       <c r="K155" t="n">
-        <v>0.2873134328358209</v>
+        <v>0.22254335260115607</v>
       </c>
       <c r="L155" t="n">
-        <v>0.8854381606097612</v>
+        <v>0.8853911046983117</v>
       </c>
     </row>
     <row r="156">
@@ -5130,19 +5130,19 @@
         <v>500.0</v>
       </c>
       <c r="H156" t="n">
-        <v>0.13596271502912233</v>
+        <v>0.1480398626793915</v>
       </c>
       <c r="I156" t="n">
-        <v>0.13087912192136936</v>
+        <v>0.14390051404025694</v>
       </c>
       <c r="J156" t="n">
-        <v>0.5038853538346937</v>
+        <v>0.7462924913223784</v>
       </c>
       <c r="K156" t="n">
-        <v>0.299625468164794</v>
+        <v>0.23121387283236994</v>
       </c>
       <c r="L156" t="n">
-        <v>0.8856596699280667</v>
+        <v>0.8856120830896802</v>
       </c>
     </row>
     <row r="157">
@@ -5168,19 +5168,19 @@
         <v>1000.0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.14782096896237606</v>
+        <v>0.16153495578425095</v>
       </c>
       <c r="I157" t="n">
-        <v>0.14185151727339518</v>
+        <v>0.15710766687999358</v>
       </c>
       <c r="J157" t="n">
-        <v>0.47453152427238215</v>
+        <v>0.7302921185805612</v>
       </c>
       <c r="K157" t="n">
-        <v>0.299625468164794</v>
+        <v>0.23121387283236994</v>
       </c>
       <c r="L157" t="n">
-        <v>0.8856596699280667</v>
+        <v>0.8856120830896802</v>
       </c>
     </row>
     <row r="158">
@@ -5206,19 +5206,19 @@
         <v>500.0</v>
       </c>
       <c r="H158" t="n">
-        <v>0.20877786061117232</v>
+        <v>0.2260470470656345</v>
       </c>
       <c r="I158" t="n">
-        <v>0.20043910367956622</v>
+        <v>0.21993620446578796</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3791815675157747</v>
+        <v>0.68790730998115</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1984848484848485</v>
+        <v>0.1794228356336261</v>
       </c>
       <c r="L158" t="n">
-        <v>0.8931307062119808</v>
+        <v>0.894917644796102</v>
       </c>
     </row>
     <row r="159">
@@ -5244,19 +5244,19 @@
         <v>1000.0</v>
       </c>
       <c r="H159" t="n">
-        <v>0.217967264002431</v>
+        <v>0.23524686360166996</v>
       </c>
       <c r="I159" t="n">
-        <v>0.20913124738886177</v>
+        <v>0.22893959503236821</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3628172842832268</v>
+        <v>0.6536133174280466</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1984848484848485</v>
+        <v>0.1794228356336261</v>
       </c>
       <c r="L159" t="n">
-        <v>0.8931307062119808</v>
+        <v>0.894917644796102</v>
       </c>
     </row>
     <row r="160">
@@ -5282,19 +5282,19 @@
         <v>500.0</v>
       </c>
       <c r="H160" t="n">
-        <v>0.32204747894064834</v>
+        <v>0.33886642338871276</v>
       </c>
       <c r="I160" t="n">
-        <v>0.3046079822200723</v>
+        <v>0.3294008862197844</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2060041226703843</v>
+        <v>0.44684916953060494</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07172806229410003</v>
+        <v>0.06874115983026874</v>
       </c>
       <c r="L160" t="n">
-        <v>0.941090489016721</v>
+        <v>0.9420162101402118</v>
       </c>
     </row>
     <row r="161">
@@ -5320,19 +5320,19 @@
         <v>1000.0</v>
       </c>
       <c r="H161" t="n">
-        <v>0.3280780791715557</v>
+        <v>0.3410276329909052</v>
       </c>
       <c r="I161" t="n">
-        <v>0.3101537661738463</v>
+        <v>0.33176144858032314</v>
       </c>
       <c r="J161" t="n">
-        <v>0.19886896968052215</v>
+        <v>0.4383099450558992</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07172806229410003</v>
+        <v>0.06874115983026874</v>
       </c>
       <c r="L161" t="n">
-        <v>0.941090489016721</v>
+        <v>0.9420162101402118</v>
       </c>
     </row>
     <row r="162">
@@ -5358,19 +5358,19 @@
         <v>500.0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.10935437839421662</v>
+        <v>0.131923570098641</v>
       </c>
       <c r="I162" t="n">
-        <v>0.10486950438322905</v>
+        <v>0.12818647078501622</v>
       </c>
       <c r="J162" t="n">
-        <v>0.5029190527290399</v>
+        <v>0.7443840577991916</v>
       </c>
       <c r="K162" t="n">
-        <v>0.32083333333333336</v>
+        <v>0.22254335260115607</v>
       </c>
       <c r="L162" t="n">
-        <v>0.8903128355192522</v>
+        <v>0.890251608758386</v>
       </c>
     </row>
     <row r="163">
@@ -5396,19 +5396,19 @@
         <v>1000.0</v>
       </c>
       <c r="H163" t="n">
-        <v>0.11544376994282779</v>
+        <v>0.14489906256246177</v>
       </c>
       <c r="I163" t="n">
-        <v>0.11070907003285804</v>
+        <v>0.1408136914614674</v>
       </c>
       <c r="J163" t="n">
-        <v>0.48513583104686303</v>
+        <v>0.7268724864664521</v>
       </c>
       <c r="K163" t="n">
-        <v>0.32083333333333336</v>
+        <v>0.22254335260115607</v>
       </c>
       <c r="L163" t="n">
-        <v>0.8903128355192522</v>
+        <v>0.890251608758386</v>
       </c>
     </row>
     <row r="164">
@@ -5434,19 +5434,19 @@
         <v>500.0</v>
       </c>
       <c r="H164" t="n">
-        <v>0.12137418507907283</v>
+        <v>0.1469219204265509</v>
       </c>
       <c r="I164" t="n">
-        <v>0.11655110172294678</v>
+        <v>0.1427834703945103</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4845982134239159</v>
+        <v>0.7407358337019438</v>
       </c>
       <c r="K164" t="n">
-        <v>0.33755274261603374</v>
+        <v>0.23121387283236994</v>
       </c>
       <c r="L164" t="n">
-        <v>0.8905374668295354</v>
+        <v>0.8904746100232327</v>
       </c>
     </row>
     <row r="165">
@@ -5472,19 +5472,19 @@
         <v>1000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>0.12802954305933453</v>
+        <v>0.16057869163003285</v>
       </c>
       <c r="I165" t="n">
-        <v>0.12249818134277368</v>
+        <v>0.1561521044645962</v>
       </c>
       <c r="J165" t="n">
-        <v>0.4688755538894699</v>
+        <v>0.7258381695902841</v>
       </c>
       <c r="K165" t="n">
-        <v>0.33755274261603374</v>
+        <v>0.23121387283236994</v>
       </c>
       <c r="L165" t="n">
-        <v>0.8905374668295354</v>
+        <v>0.8904746100232327</v>
       </c>
     </row>
     <row r="166">
@@ -5510,19 +5510,19 @@
         <v>500.0</v>
       </c>
       <c r="H166" t="n">
-        <v>0.18355357606657216</v>
+        <v>0.22459570696590134</v>
       </c>
       <c r="I166" t="n">
-        <v>0.17585745583978776</v>
+        <v>0.21857990500284255</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3801846381306345</v>
+        <v>0.6861922888604493</v>
       </c>
       <c r="K166" t="n">
-        <v>0.20153846153846153</v>
+        <v>0.1794228356336261</v>
       </c>
       <c r="L166" t="n">
-        <v>0.898052667462076</v>
+        <v>0.8998488062101647</v>
       </c>
     </row>
     <row r="167">
@@ -5548,19 +5548,19 @@
         <v>1000.0</v>
       </c>
       <c r="H167" t="n">
-        <v>0.18916697224329404</v>
+        <v>0.2339577297540935</v>
       </c>
       <c r="I167" t="n">
-        <v>0.1810462894951557</v>
+        <v>0.2276299090375396</v>
       </c>
       <c r="J167" t="n">
-        <v>0.33105679853778364</v>
+        <v>0.6424202934589169</v>
       </c>
       <c r="K167" t="n">
-        <v>0.20153846153846153</v>
+        <v>0.1794228356336261</v>
       </c>
       <c r="L167" t="n">
-        <v>0.898052667462076</v>
+        <v>0.8998488062101647</v>
       </c>
     </row>
     <row r="168">
@@ -5586,19 +5586,19 @@
         <v>500.0</v>
       </c>
       <c r="H168" t="n">
-        <v>0.287898813945927</v>
+        <v>0.3405715066288996</v>
       </c>
       <c r="I168" t="n">
-        <v>0.2713632796479856</v>
+        <v>0.3310899093353278</v>
       </c>
       <c r="J168" t="n">
-        <v>0.2515781786744867</v>
+        <v>0.45784703220083645</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07465333763302161</v>
+        <v>0.06731707317073171</v>
       </c>
       <c r="L168" t="n">
-        <v>0.9448252026805379</v>
+        <v>0.9470153227237769</v>
       </c>
     </row>
     <row r="169">
@@ -5624,19 +5624,19 @@
         <v>1000.0</v>
       </c>
       <c r="H169" t="n">
-        <v>0.29324257696684164</v>
+        <v>0.34330485704028496</v>
       </c>
       <c r="I169" t="n">
-        <v>0.2763159281351371</v>
+        <v>0.33400290662231247</v>
       </c>
       <c r="J169" t="n">
-        <v>0.2730502559975959</v>
+        <v>0.44771456040903335</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07465333763302161</v>
+        <v>0.06731707317073171</v>
       </c>
       <c r="L169" t="n">
-        <v>0.9448252026805379</v>
+        <v>0.9470153227237769</v>
       </c>
     </row>
     <row r="170">
@@ -5662,19 +5662,19 @@
         <v>500.0</v>
       </c>
       <c r="H170" t="n">
-        <v>0.09425524100956241</v>
+        <v>0.13010463679651443</v>
       </c>
       <c r="I170" t="n">
-        <v>0.09023137266555604</v>
+        <v>0.12628776774808465</v>
       </c>
       <c r="J170" t="n">
-        <v>0.49859910399290897</v>
+        <v>0.7427894579415667</v>
       </c>
       <c r="K170" t="n">
-        <v>0.3272058823529412</v>
+        <v>0.22254335260115607</v>
       </c>
       <c r="L170" t="n">
-        <v>0.9053874398581919</v>
+        <v>0.9035429546388061</v>
       </c>
     </row>
     <row r="171">
@@ -5700,19 +5700,19 @@
         <v>1000.0</v>
       </c>
       <c r="H171" t="n">
-        <v>0.10195124958185098</v>
+        <v>0.1429252960976873</v>
       </c>
       <c r="I171" t="n">
-        <v>0.09776273009756377</v>
+        <v>0.13882761867663146</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4821692773613</v>
+        <v>0.7229345936290519</v>
       </c>
       <c r="K171" t="n">
-        <v>0.3272058823529412</v>
+        <v>0.22254335260115607</v>
       </c>
       <c r="L171" t="n">
-        <v>0.9053874398581919</v>
+        <v>0.9035429546388061</v>
       </c>
     </row>
     <row r="172">
@@ -5738,19 +5738,19 @@
         <v>500.0</v>
       </c>
       <c r="H172" t="n">
-        <v>0.10414740339404521</v>
+        <v>0.1449800770795127</v>
       </c>
       <c r="I172" t="n">
-        <v>0.09986206212752678</v>
+        <v>0.14091323111920306</v>
       </c>
       <c r="J172" t="n">
-        <v>0.4860399952169545</v>
+        <v>0.7365776983697816</v>
       </c>
       <c r="K172" t="n">
-        <v>0.33676975945017185</v>
+        <v>0.23121387283236994</v>
       </c>
       <c r="L172" t="n">
-        <v>0.9065462038357901</v>
+        <v>0.9037714875750057</v>
       </c>
     </row>
     <row r="173">
@@ -5776,19 +5776,19 @@
         <v>1000.0</v>
       </c>
       <c r="H173" t="n">
-        <v>0.111965243973781</v>
+        <v>0.15811835332744564</v>
       </c>
       <c r="I173" t="n">
-        <v>0.10717553190347083</v>
+        <v>0.15369756599480314</v>
       </c>
       <c r="J173" t="n">
-        <v>0.47374268605178893</v>
+        <v>0.7167953458950941</v>
       </c>
       <c r="K173" t="n">
-        <v>0.33676975945017185</v>
+        <v>0.23121387283236994</v>
       </c>
       <c r="L173" t="n">
-        <v>0.9065462038357901</v>
+        <v>0.9037714875750057</v>
       </c>
     </row>
     <row r="174">
@@ -5814,19 +5814,19 @@
         <v>500.0</v>
       </c>
       <c r="H174" t="n">
-        <v>0.15545256030445015</v>
+        <v>0.22196585973733574</v>
       </c>
       <c r="I174" t="n">
-        <v>0.1486855339721507</v>
+        <v>0.2158822235838777</v>
       </c>
       <c r="J174" t="n">
-        <v>0.4117433932196355</v>
+        <v>0.6822775112285112</v>
       </c>
       <c r="K174" t="n">
-        <v>0.20458265139116202</v>
+        <v>0.1794228356336261</v>
       </c>
       <c r="L174" t="n">
-        <v>0.9103955998361641</v>
+        <v>0.913263915972582</v>
       </c>
     </row>
     <row r="175">
@@ -5852,19 +5852,19 @@
         <v>1000.0</v>
       </c>
       <c r="H175" t="n">
-        <v>0.16330169224737867</v>
+        <v>0.2324182044660207</v>
       </c>
       <c r="I175" t="n">
-        <v>0.15598766396171326</v>
+        <v>0.22608918660991745</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3835571280236814</v>
+        <v>0.6440306929637577</v>
       </c>
       <c r="K175" t="n">
-        <v>0.20458265139116202</v>
+        <v>0.1794228356336261</v>
       </c>
       <c r="L175" t="n">
-        <v>0.9103955998361641</v>
+        <v>0.913263915972582</v>
       </c>
     </row>
     <row r="176">
@@ -5890,19 +5890,19 @@
         <v>500.0</v>
       </c>
       <c r="H176" t="n">
-        <v>0.2411759064004767</v>
+        <v>0.3457158019413151</v>
       </c>
       <c r="I176" t="n">
-        <v>0.22742630488441162</v>
+        <v>0.33626549011525236</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2821578435832453</v>
+        <v>0.44510346366658005</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08079677708146822</v>
+        <v>0.05870368012224628</v>
       </c>
       <c r="L176" t="n">
-        <v>0.9439089813825555</v>
+        <v>0.9562036456546683</v>
       </c>
     </row>
     <row r="177">
@@ -5928,19 +5928,19 @@
         <v>1000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>0.25057981641285765</v>
+        <v>0.3479845794281388</v>
       </c>
       <c r="I177" t="n">
-        <v>0.23642768310448642</v>
+        <v>0.33837212364925795</v>
       </c>
       <c r="J177" t="n">
-        <v>0.3102944692067867</v>
+        <v>0.45991195006187585</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08079677708146822</v>
+        <v>0.05870368012224628</v>
       </c>
       <c r="L177" t="n">
-        <v>0.9439089813825555</v>
+        <v>0.9562036456546683</v>
       </c>
     </row>
     <row r="178">
@@ -8261,11 +8261,21 @@
       <c r="G260" t="n">
         <v>0.0</v>
       </c>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
+      <c r="H260" t="n">
+        <v>0.1770120187489104</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.1733664444417562</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.5587300278371399</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.037977614820532614</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.7216996649066366</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -8289,11 +8299,21 @@
       <c r="G261" t="n">
         <v>0.0</v>
       </c>
-      <c r="H261"/>
-      <c r="I261"/>
-      <c r="J261"/>
-      <c r="K261"/>
-      <c r="L261"/>
+      <c r="H261" t="n">
+        <v>0.2529242899033235</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.24680530196575887</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.4976478479181193</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.03645520144317498</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.7202238030890187</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -8345,11 +8365,21 @@
       <c r="G263" t="n">
         <v>0.0</v>
       </c>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
-      <c r="K263"/>
-      <c r="L263"/>
+      <c r="H263" t="n">
+        <v>0.2173262986840687</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.21312905785260494</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.5887415964048159</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.03795080730345556</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.7215829388653854</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
@@ -8373,11 +8403,21 @@
       <c r="G264" t="n">
         <v>0.0</v>
       </c>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
-      <c r="K264"/>
-      <c r="L264"/>
+      <c r="H264" t="n">
+        <v>0.28028649012351886</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.2736453194576724</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.5018483857499836</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.036155202821869487</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.7198679387817912</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -8429,11 +8469,21 @@
       <c r="G266" t="n">
         <v>0.0</v>
       </c>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
-      <c r="K266"/>
-      <c r="L266"/>
+      <c r="H266" t="n">
+        <v>0.4403140843631821</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.4307808339163641</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.5087409498228133</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04043309084757232</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.7204252970397699</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -8457,11 +8507,21 @@
       <c r="G267" t="n">
         <v>0.0</v>
       </c>
-      <c r="H267"/>
-      <c r="I267"/>
-      <c r="J267"/>
-      <c r="K267"/>
-      <c r="L267"/>
+      <c r="H267" t="n">
+        <v>0.4475756175521317</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0.43704470745399804</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.4034735153413048</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.03397462136717151</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.7158533295837375</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
@@ -8514,13 +8574,13 @@
         <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>0.17802156110703196</v>
+        <v>0.177216089538525</v>
       </c>
       <c r="I269" t="n">
-        <v>0.17424479334852797</v>
+        <v>0.17423140022737882</v>
       </c>
       <c r="J269" t="n">
-        <v>0.5607795445217472</v>
+        <v>0.6439940155905864</v>
       </c>
       <c r="K269" t="n">
         <v>0.029020824102791314</v>
@@ -8551,11 +8611,21 @@
       <c r="G270" t="n">
         <v>0.0</v>
       </c>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
-      <c r="K270"/>
-      <c r="L270"/>
+      <c r="H270" t="n">
+        <v>0.2555538012653543</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.2511467422181145</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.6078400688547737</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.02970755590842927</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.7675227529844824</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -8579,11 +8649,21 @@
       <c r="G271" t="n">
         <v>0.0</v>
       </c>
-      <c r="H271"/>
-      <c r="I271"/>
-      <c r="J271"/>
-      <c r="K271"/>
-      <c r="L271"/>
+      <c r="H271" t="n">
+        <v>0.28164878479084615</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0.27741472680276563</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.4137852503287247</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.03098827470686767</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.7694098353438408</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
@@ -8608,13 +8688,13 @@
         <v>0.0</v>
       </c>
       <c r="H272" t="n">
-        <v>0.21821020942047173</v>
+        <v>0.21718520668867097</v>
       </c>
       <c r="I272" t="n">
-        <v>0.21389518028404636</v>
+        <v>0.21365243022303965</v>
       </c>
       <c r="J272" t="n">
-        <v>0.5912390116674717</v>
+        <v>0.6888956884523033</v>
       </c>
       <c r="K272" t="n">
         <v>0.02925243770314193</v>
@@ -8645,11 +8725,21 @@
       <c r="G273" t="n">
         <v>0.0</v>
       </c>
-      <c r="H273"/>
-      <c r="I273"/>
-      <c r="J273"/>
-      <c r="K273"/>
-      <c r="L273"/>
+      <c r="H273" t="n">
+        <v>0.28274170403319115</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0.2779046905984873</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.6185141683874105</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.029642094362824414</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.76730067199675</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
@@ -8673,11 +8763,21 @@
       <c r="G274" t="n">
         <v>0.0</v>
       </c>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
-      <c r="K274"/>
-      <c r="L274"/>
+      <c r="H274" t="n">
+        <v>0.2934993641415011</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.2874278612143628</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.30706013496084494</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.03098827470686767</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.7694098353438408</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -8701,11 +8801,21 @@
       <c r="G275" t="n">
         <v>0.0</v>
       </c>
-      <c r="H275"/>
-      <c r="I275"/>
-      <c r="J275"/>
-      <c r="K275"/>
-      <c r="L275"/>
+      <c r="H275" t="n">
+        <v>0.4391049643713017</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0.4316711583310288</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.7258756209955671</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.03090519844101663</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0.7663251058723071</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
@@ -8729,11 +8839,21 @@
       <c r="G276" t="n">
         <v>0.0</v>
       </c>
-      <c r="H276"/>
-      <c r="I276"/>
-      <c r="J276"/>
-      <c r="K276"/>
-      <c r="L276"/>
+      <c r="H276" t="n">
+        <v>0.4490297507969128</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.44136814625311954</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.6109051709912608</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.029600758453597387</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0.764890300297864</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -8757,11 +8877,21 @@
       <c r="G277" t="n">
         <v>0.0</v>
       </c>
-      <c r="H277"/>
-      <c r="I277"/>
-      <c r="J277"/>
-      <c r="K277"/>
-      <c r="L277"/>
+      <c r="H277" t="n">
+        <v>0.3632780548150262</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0.35531070093551376</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.24740422999062692</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.031090061874570314</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0.7684425547031983</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
@@ -11809,11 +11939,21 @@
       <c r="G386" t="n">
         <v>0.0</v>
       </c>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
-      <c r="K386"/>
-      <c r="L386"/>
+      <c r="H386" t="n">
+        <v>0.3507118878689914</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.34492780216350927</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.8952452468822046</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.09575518262586377</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.6682291959534411</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -11837,11 +11977,21 @@
       <c r="G387" t="n">
         <v>0.0</v>
       </c>
-      <c r="H387"/>
-      <c r="I387"/>
-      <c r="J387"/>
-      <c r="K387"/>
-      <c r="L387"/>
+      <c r="H387" t="n">
+        <v>0.38127902509652445</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.3748561241167446</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.874020831960915</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1025390625</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0.6685573126572697</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="s">
@@ -11865,11 +12015,21 @@
       <c r="G388" t="n">
         <v>0.0</v>
       </c>
-      <c r="H388"/>
-      <c r="I388"/>
-      <c r="J388"/>
-      <c r="K388"/>
-      <c r="L388"/>
+      <c r="H388" t="n">
+        <v>0.49365890674704643</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.48464752705494435</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.7729145521812281</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.261038961038961</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.6792503011624087</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -11894,13 +12054,13 @@
         <v>0.0</v>
       </c>
       <c r="H389" t="n">
-        <v>0.3505721716082809</v>
+        <v>0.3495057387968082</v>
       </c>
       <c r="I389" t="n">
-        <v>0.34412990464467047</v>
+        <v>0.3437081850927182</v>
       </c>
       <c r="J389" t="n">
-        <v>0.7436599769749621</v>
+        <v>0.8973825661659491</v>
       </c>
       <c r="K389" t="n">
         <v>0.02543424317617866</v>
@@ -11931,11 +12091,21 @@
       <c r="G390" t="n">
         <v>0.0</v>
       </c>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
-      <c r="K390"/>
-      <c r="L390"/>
+      <c r="H390" t="n">
+        <v>0.3808459587987537</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.37438424974185075</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.876040421790619</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.03017241379310345</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0.7008080188196788</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -11959,11 +12129,21 @@
       <c r="G391" t="n">
         <v>0.0</v>
       </c>
-      <c r="H391"/>
-      <c r="I391"/>
-      <c r="J391"/>
-      <c r="K391"/>
-      <c r="L391"/>
+      <c r="H391" t="n">
+        <v>0.49378717469047023</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.48478658941867375</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.7712477142142513</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.16007445323406236</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0.71211576065702</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
@@ -11988,13 +12168,13 @@
         <v>0.0</v>
       </c>
       <c r="H392" t="n">
-        <v>0.3487831904213947</v>
+        <v>0.34784385342818086</v>
       </c>
       <c r="I392" t="n">
-        <v>0.3423958435711309</v>
+        <v>0.3420248460117837</v>
       </c>
       <c r="J392" t="n">
-        <v>0.7444761288544638</v>
+        <v>0.8978406525483054</v>
       </c>
       <c r="K392" t="n">
         <v>0.02543424317617866</v>
@@ -12026,13 +12206,13 @@
         <v>0.0</v>
       </c>
       <c r="H393" t="n">
-        <v>0.3812470369982838</v>
+        <v>0.37983495428485803</v>
       </c>
       <c r="I393" t="n">
-        <v>0.37395286206556905</v>
+        <v>0.3733346853019948</v>
       </c>
       <c r="J393" t="n">
-        <v>0.6995501869884067</v>
+        <v>0.874754836547761</v>
       </c>
       <c r="K393" t="n">
         <v>0.03017241379310345</v>
@@ -12064,13 +12244,13 @@
         <v>0.0</v>
       </c>
       <c r="H394" t="n">
-        <v>0.49844282364675957</v>
+        <v>0.4936190063887103</v>
       </c>
       <c r="I394" t="n">
-        <v>0.4857033278742375</v>
+        <v>0.48452345562557886</v>
       </c>
       <c r="J394" t="n">
-        <v>0.5008394790106767</v>
+        <v>0.7748779735780519</v>
       </c>
       <c r="K394" t="n">
         <v>0.15840666975451598</v>
@@ -12102,13 +12282,13 @@
         <v>0.0</v>
       </c>
       <c r="H395" t="n">
-        <v>0.34548792733276906</v>
+        <v>0.3445978167475147</v>
       </c>
       <c r="I395" t="n">
-        <v>0.339104560398628</v>
+        <v>0.33882451084582615</v>
       </c>
       <c r="J395" t="n">
-        <v>0.7481736262592787</v>
+        <v>0.900250796570186</v>
       </c>
       <c r="K395" t="n">
         <v>0.010292524377031419</v>
@@ -12140,13 +12320,13 @@
         <v>0.0</v>
       </c>
       <c r="H396" t="n">
-        <v>0.378600742460824</v>
+        <v>0.3771231549041314</v>
       </c>
       <c r="I396" t="n">
-        <v>0.37126180883589216</v>
+        <v>0.3705812325407709</v>
       </c>
       <c r="J396" t="n">
-        <v>0.7083390224897699</v>
+        <v>0.8740383999200659</v>
       </c>
       <c r="K396" t="n">
         <v>0.013440860215053764</v>
@@ -12178,13 +12358,13 @@
         <v>0.0</v>
       </c>
       <c r="H397" t="n">
-        <v>0.4987302300706835</v>
+        <v>0.49421869437090626</v>
       </c>
       <c r="I397" t="n">
-        <v>0.4860117075342099</v>
+        <v>0.48505380138983045</v>
       </c>
       <c r="J397" t="n">
-        <v>0.5128685346628815</v>
+        <v>0.7815007934871149</v>
       </c>
       <c r="K397" t="n">
         <v>0.13076278290025148</v>
@@ -12215,11 +12395,21 @@
       <c r="G398" t="n">
         <v>0.0</v>
       </c>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
-      <c r="K398"/>
-      <c r="L398"/>
+      <c r="H398" t="n">
+        <v>0.17382511865826536</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.16797589463487708</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.5678311692206601</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.0053683268714583956</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.8598485048989768</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -12243,11 +12433,21 @@
       <c r="G399" t="n">
         <v>0.0</v>
       </c>
-      <c r="H399"/>
-      <c r="I399"/>
-      <c r="J399"/>
-      <c r="K399"/>
-      <c r="L399"/>
+      <c r="H399" t="n">
+        <v>0.20899265028717673</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.20181223943756954</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.4837638967105081</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.005678421996413628</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0.8598753765438961</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
@@ -12271,11 +12471,21 @@
       <c r="G400" t="n">
         <v>0.0</v>
       </c>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
-      <c r="K400"/>
-      <c r="L400"/>
+      <c r="H400" t="n">
+        <v>0.37292513067990485</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.35762334005037855</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.26108524726470395</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.01093167701863354</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0.8627378759975445</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -12299,11 +12509,21 @@
       <c r="G401" t="n">
         <v>0.0</v>
       </c>
-      <c r="H401"/>
-      <c r="I401"/>
-      <c r="J401"/>
-      <c r="K401"/>
-      <c r="L401"/>
+      <c r="H401" t="n">
+        <v>0.17187390066306815</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.16599599064983603</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.5603120341660845</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.0015906680805938495</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0.871510390751543</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
@@ -12327,11 +12547,21 @@
       <c r="G402" t="n">
         <v>0.0</v>
       </c>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
-      <c r="K402"/>
-      <c r="L402"/>
+      <c r="H402" t="n">
+        <v>0.2073459198507098</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.20013314822823025</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.49905650504598525</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.0015894039735099338</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0.8715083503162798</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -12355,11 +12585,21 @@
       <c r="G403" t="n">
         <v>0.0</v>
       </c>
-      <c r="H403"/>
-      <c r="I403"/>
-      <c r="J403"/>
-      <c r="K403"/>
-      <c r="L403"/>
+      <c r="H403" t="n">
+        <v>0.3717067793829645</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.35661165855144233</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.2790870746119312</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.007103574702108158</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0.8745432139599149</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="s">
@@ -12383,11 +12623,21 @@
       <c r="G404" t="n">
         <v>0.0</v>
       </c>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
-      <c r="K404"/>
-      <c r="L404"/>
+      <c r="H404" t="n">
+        <v>0.16832225078950386</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.16346914482803945</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.8476630445705031</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.001041124414367517</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.8761843762902424</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -12411,11 +12661,21 @@
       <c r="G405" t="n">
         <v>0.0</v>
       </c>
-      <c r="H405"/>
-      <c r="I405"/>
-      <c r="J405"/>
-      <c r="K405"/>
-      <c r="L405"/>
+      <c r="H405" t="n">
+        <v>0.20379098362046386</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.19794314574204414</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.8273951247584563</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.0010403120936280884</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0.8761824100786068</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
@@ -12439,11 +12699,21 @@
       <c r="G406" t="n">
         <v>0.0</v>
       </c>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
-      <c r="K406"/>
-      <c r="L406"/>
+      <c r="H406" t="n">
+        <v>0.36465170524365387</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.354785934923182</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.6893198679891209</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.006540369869192602</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.8792537783207345</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -12467,11 +12737,21 @@
       <c r="G407" t="n">
         <v>0.0</v>
       </c>
-      <c r="H407"/>
-      <c r="I407"/>
-      <c r="J407"/>
-      <c r="K407"/>
-      <c r="L407"/>
+      <c r="H407" t="n">
+        <v>0.16463086209566827</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.15983221484143875</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.8515871179121074</v>
+      </c>
+      <c r="K407" t="n">
+        <v>5.17196793379881E-4</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0.8893434164360219</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
@@ -12495,11 +12775,21 @@
       <c r="G408" t="n">
         <v>0.0</v>
       </c>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
-      <c r="K408"/>
-      <c r="L408"/>
+      <c r="H408" t="n">
+        <v>0.1994727117432806</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.1936651106215198</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.8337854418300334</v>
+      </c>
+      <c r="K408" t="n">
+        <v>7.735946364105209E-4</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0.8895070321887389</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
@@ -12523,11 +12813,21 @@
       <c r="G409" t="n">
         <v>0.0</v>
       </c>
-      <c r="H409"/>
-      <c r="I409"/>
-      <c r="J409"/>
-      <c r="K409"/>
-      <c r="L409"/>
+      <c r="H409" t="n">
+        <v>0.3620214526098311</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.3522234603221645</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.6951892076095574</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.006329113924050633</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0.8928013895326844</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -8009,11 +8009,21 @@
       <c r="G251" t="n">
         <v>0.0</v>
       </c>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
-      <c r="K251"/>
-      <c r="L251"/>
+      <c r="H251" t="n">
+        <v>0.1770592253834488</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.17409170450679387</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.6408763215696268</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.0463849600281121</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.6979931202189122</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
@@ -8037,11 +8047,21 @@
       <c r="G252" t="n">
         <v>0.0</v>
       </c>
-      <c r="H252"/>
-      <c r="I252"/>
-      <c r="J252"/>
-      <c r="K252"/>
-      <c r="L252"/>
+      <c r="H252" t="n">
+        <v>0.24972735487377806</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.2454641737964513</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.5977802778421754</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.0431867166919454</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.6957048095644558</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -8093,11 +8113,21 @@
       <c r="G254" t="n">
         <v>0.0</v>
       </c>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
-      <c r="K254"/>
-      <c r="L254"/>
+      <c r="H254" t="n">
+        <v>0.21706315267033108</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.21357457671653504</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.6853250364587032</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.04599585778391439</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.6977849768956393</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -8121,11 +8151,21 @@
       <c r="G255" t="n">
         <v>0.0</v>
       </c>
-      <c r="H255"/>
-      <c r="I255"/>
-      <c r="J255"/>
-      <c r="K255"/>
-      <c r="L255"/>
+      <c r="H255" t="n">
+        <v>0.2766781399102286</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.2719968597278226</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.608184872764529</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.043145606562549295</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.6955594034519355</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
@@ -8177,11 +8217,21 @@
       <c r="G257" t="n">
         <v>0.0</v>
       </c>
-      <c r="H257"/>
-      <c r="I257"/>
-      <c r="J257"/>
-      <c r="K257"/>
-      <c r="L257"/>
+      <c r="H257" t="n">
+        <v>0.4374284291252872</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.430076986560966</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.7200242245209783</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0.04398612885563059</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.6939939887967786</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
@@ -8262,13 +8312,13 @@
         <v>0.0</v>
       </c>
       <c r="H260" t="n">
-        <v>0.1770120187489104</v>
+        <v>0.17630181058892996</v>
       </c>
       <c r="I260" t="n">
-        <v>0.1733664444417562</v>
+        <v>0.17332750788540913</v>
       </c>
       <c r="J260" t="n">
-        <v>0.5587300278371399</v>
+        <v>0.6414839709836616</v>
       </c>
       <c r="K260" t="n">
         <v>0.037977614820532614</v>
@@ -8300,13 +8350,13 @@
         <v>0.0</v>
       </c>
       <c r="H261" t="n">
-        <v>0.2529242899033235</v>
+        <v>0.25047360176905215</v>
       </c>
       <c r="I261" t="n">
-        <v>0.24680530196575887</v>
+        <v>0.24617641767415555</v>
       </c>
       <c r="J261" t="n">
-        <v>0.4976478479181193</v>
+        <v>0.59922739729632</v>
       </c>
       <c r="K261" t="n">
         <v>0.03645520144317498</v>
@@ -8337,11 +8387,21 @@
       <c r="G262" t="n">
         <v>0.0</v>
       </c>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
-      <c r="K262"/>
-      <c r="L262"/>
+      <c r="H262" t="n">
+        <v>0.27144217154968453</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.2673361316798495</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.4141198102204562</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.0404736799416011</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.7219174351192561</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -8366,13 +8426,13 @@
         <v>0.0</v>
       </c>
       <c r="H263" t="n">
-        <v>0.2173262986840687</v>
+        <v>0.2163100861692694</v>
       </c>
       <c r="I263" t="n">
-        <v>0.21312905785260494</v>
+        <v>0.21279878954656126</v>
       </c>
       <c r="J263" t="n">
-        <v>0.5887415964048159</v>
+        <v>0.6862440842860873</v>
       </c>
       <c r="K263" t="n">
         <v>0.03795080730345556</v>
@@ -8404,13 +8464,13 @@
         <v>0.0</v>
       </c>
       <c r="H264" t="n">
-        <v>0.28028649012351886</v>
+        <v>0.2778024409116445</v>
       </c>
       <c r="I264" t="n">
-        <v>0.2736453194576724</v>
+        <v>0.273074070851713</v>
       </c>
       <c r="J264" t="n">
-        <v>0.5018483857499836</v>
+        <v>0.6098737030367217</v>
       </c>
       <c r="K264" t="n">
         <v>0.036155202821869487</v>
@@ -8441,11 +8501,21 @@
       <c r="G265" t="n">
         <v>0.0</v>
       </c>
-      <c r="H265"/>
-      <c r="I265"/>
-      <c r="J265"/>
-      <c r="K265"/>
-      <c r="L265"/>
+      <c r="H265" t="n">
+        <v>0.27880230901818537</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.27465170124892835</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.41804456079762287</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.0404736799416011</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.7219174351192561</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
@@ -8470,13 +8540,13 @@
         <v>0.0</v>
       </c>
       <c r="H266" t="n">
-        <v>0.4403140843631821</v>
+        <v>0.43747147915025864</v>
       </c>
       <c r="I266" t="n">
-        <v>0.4307808339163641</v>
+        <v>0.4300988734141322</v>
       </c>
       <c r="J266" t="n">
-        <v>0.5087409498228133</v>
+        <v>0.7217796847505781</v>
       </c>
       <c r="K266" t="n">
         <v>0.04043309084757232</v>
@@ -8508,13 +8578,13 @@
         <v>0.0</v>
       </c>
       <c r="H267" t="n">
-        <v>0.4475756175521317</v>
+        <v>0.44326734760515624</v>
       </c>
       <c r="I267" t="n">
-        <v>0.43704470745399804</v>
+        <v>0.43570067594081396</v>
       </c>
       <c r="J267" t="n">
-        <v>0.4034735153413048</v>
+        <v>0.599032671633891</v>
       </c>
       <c r="K267" t="n">
         <v>0.03397462136717151</v>
@@ -8545,11 +8615,21 @@
       <c r="G268" t="n">
         <v>0.0</v>
       </c>
-      <c r="H268"/>
-      <c r="I268"/>
-      <c r="J268"/>
-      <c r="K268"/>
-      <c r="L268"/>
+      <c r="H268" t="n">
+        <v>0.3481593805533612</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.34284417376578324</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.3926764035507023</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.039762611275964393</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.7205254865460418</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -8764,13 +8844,13 @@
         <v>0.0</v>
       </c>
       <c r="H274" t="n">
-        <v>0.2934993641415011</v>
+        <v>0.28998293466949604</v>
       </c>
       <c r="I274" t="n">
-        <v>0.2874278612143628</v>
+        <v>0.28563751985843777</v>
       </c>
       <c r="J274" t="n">
-        <v>0.30706013496084494</v>
+        <v>0.4138256307436098</v>
       </c>
       <c r="K274" t="n">
         <v>0.03098827470686767</v>
@@ -8878,13 +8958,13 @@
         <v>0.0</v>
       </c>
       <c r="H277" t="n">
-        <v>0.3632780548150262</v>
+        <v>0.35821314933582066</v>
       </c>
       <c r="I277" t="n">
-        <v>0.35531070093551376</v>
+        <v>0.3527156773326626</v>
       </c>
       <c r="J277" t="n">
-        <v>0.24740422999062692</v>
+        <v>0.39784182330781404</v>
       </c>
       <c r="K277" t="n">
         <v>0.031090061874570314</v>
@@ -12396,13 +12476,13 @@
         <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>0.17382511865826536</v>
+        <v>0.17215345894943657</v>
       </c>
       <c r="I398" t="n">
-        <v>0.16797589463487708</v>
+        <v>0.1672694004486726</v>
       </c>
       <c r="J398" t="n">
-        <v>0.5678311692206601</v>
+        <v>0.851874040639534</v>
       </c>
       <c r="K398" t="n">
         <v>0.0053683268714583956</v>
@@ -12434,13 +12514,13 @@
         <v>0.0</v>
       </c>
       <c r="H399" t="n">
-        <v>0.20899265028717673</v>
+        <v>0.20703002799773812</v>
       </c>
       <c r="I399" t="n">
-        <v>0.20181223943756954</v>
+        <v>0.20134132554829698</v>
       </c>
       <c r="J399" t="n">
-        <v>0.4837638967105081</v>
+        <v>0.8228235936934991</v>
       </c>
       <c r="K399" t="n">
         <v>0.005678421996413628</v>
@@ -12472,13 +12552,13 @@
         <v>0.0</v>
       </c>
       <c r="H400" t="n">
-        <v>0.37292513067990485</v>
+        <v>0.3665628355858334</v>
       </c>
       <c r="I400" t="n">
-        <v>0.35762334005037855</v>
+        <v>0.35688241822913064</v>
       </c>
       <c r="J400" t="n">
-        <v>0.26108524726470395</v>
+        <v>0.6764539543217525</v>
       </c>
       <c r="K400" t="n">
         <v>0.01093167701863354</v>
@@ -12510,13 +12590,13 @@
         <v>0.0</v>
       </c>
       <c r="H401" t="n">
-        <v>0.17187390066306815</v>
+        <v>0.1701352960939334</v>
       </c>
       <c r="I401" t="n">
-        <v>0.16599599064983603</v>
+        <v>0.16528750451580954</v>
       </c>
       <c r="J401" t="n">
-        <v>0.5603120341660845</v>
+        <v>0.8505737484505855</v>
       </c>
       <c r="K401" t="n">
         <v>0.0015906680805938495</v>
@@ -12548,13 +12628,13 @@
         <v>0.0</v>
       </c>
       <c r="H402" t="n">
-        <v>0.2073459198507098</v>
+        <v>0.20527996524515116</v>
       </c>
       <c r="I402" t="n">
-        <v>0.20013314822823025</v>
+        <v>0.19958593096742766</v>
       </c>
       <c r="J402" t="n">
-        <v>0.49905650504598525</v>
+        <v>0.8270261863211977</v>
       </c>
       <c r="K402" t="n">
         <v>0.0015894039735099338</v>
@@ -12586,13 +12666,13 @@
         <v>0.0</v>
       </c>
       <c r="H403" t="n">
-        <v>0.3717067793829645</v>
+        <v>0.36580504281573495</v>
       </c>
       <c r="I403" t="n">
-        <v>0.35661165855144233</v>
+        <v>0.3560477922275684</v>
       </c>
       <c r="J403" t="n">
-        <v>0.2790870746119312</v>
+        <v>0.6889428840153361</v>
       </c>
       <c r="K403" t="n">
         <v>0.007103574702108158</v>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -516,13 +516,13 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.28770009434141425</v>
+        <v>0.28841595940649645</v>
       </c>
       <c r="I11" t="n">
-        <v>0.28240428798638506</v>
+        <v>0.2827713318714938</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9399040864054393</v>
+        <v>0.8243043372223151</v>
       </c>
       <c r="K11" t="n">
         <v>0.6666666666666666</v>
@@ -8085,11 +8085,21 @@
       <c r="G253" t="n">
         <v>0.0</v>
       </c>
-      <c r="H253"/>
-      <c r="I253"/>
-      <c r="J253"/>
-      <c r="K253"/>
-      <c r="L253"/>
+      <c r="H253" t="n">
+        <v>0.27025808429558845</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.2661430231642567</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.4113201146858302</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.04764348644256265</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.6973325106860767</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
@@ -8255,11 +8265,21 @@
       <c r="G258" t="n">
         <v>0.0</v>
       </c>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
-      <c r="K258"/>
-      <c r="L258"/>
+      <c r="H258" t="n">
+        <v>0.4417129744365409</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.43416704503915127</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.5968934852252974</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.03904242652127593</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.6908296793446259</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -7757,11 +7757,21 @@
       <c r="G242" t="n">
         <v>0.0</v>
       </c>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
-      <c r="K242"/>
-      <c r="L242"/>
+      <c r="H242" t="n">
+        <v>0.16150162924632486</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.15954117729789766</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.6573874091964516</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.06321499013806706</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.6664857169762198</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -7841,11 +7851,21 @@
       <c r="G245" t="n">
         <v>0.0</v>
       </c>
-      <c r="H245"/>
-      <c r="I245"/>
-      <c r="J245"/>
-      <c r="K245"/>
-      <c r="L245"/>
+      <c r="H245" t="n">
+        <v>0.20527178960355685</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.20266847552324155</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.6986494269897211</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0.06258463919520217</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.666235819487976</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
@@ -7925,11 +7945,21 @@
       <c r="G248" t="n">
         <v>0.0</v>
       </c>
-      <c r="H248"/>
-      <c r="I248"/>
-      <c r="J248"/>
-      <c r="K248"/>
-      <c r="L248"/>
+      <c r="H248" t="n">
+        <v>0.43500435446315683</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.4277187802957651</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.7184435761202271</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.055842265449252346</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.6613263334006404</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -1742,13 +1742,13 @@
         <v>500.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3237927780676517</v>
+        <v>0.35736486870525047</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3178773006586107</v>
+        <v>0.3513384249533872</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8547729886447089</v>
+        <v>0.8656122035353316</v>
       </c>
       <c r="K50" t="n">
         <v>0.585</v>
@@ -1818,13 +1818,13 @@
         <v>500.0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3473527105010004</v>
+        <v>0.3813762778592889</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3410333598975513</v>
+        <v>0.37489730126815085</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8481472604923538</v>
+        <v>0.8557727752604526</v>
       </c>
       <c r="K52" t="n">
         <v>0.5707317073170731</v>
@@ -1894,13 +1894,13 @@
         <v>500.0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.4487263711052353</v>
+        <v>0.48402809123531</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4408258724214074</v>
+        <v>0.4751738177563711</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7941459205739317</v>
+        <v>0.7881677664673385</v>
       </c>
       <c r="K54" t="n">
         <v>0.6131059245960503</v>
@@ -1970,13 +1970,13 @@
         <v>500.0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.48685969023141284</v>
+        <v>0.48221514527008735</v>
       </c>
       <c r="I56" t="n">
-        <v>0.47803590456411604</v>
+        <v>0.473288626848154</v>
       </c>
       <c r="J56" t="n">
-        <v>0.44770688036716266</v>
+        <v>0.43863181587756006</v>
       </c>
       <c r="K56" t="n">
         <v>0.20192307692307693</v>
@@ -2957,11 +2957,21 @@
       <c r="G82" t="n">
         <v>500.0</v>
       </c>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
+      <c r="H82" t="n">
+        <v>0.1591586888714709</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.154832369084097</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.7606063139130191</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.8729633803410252</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -2985,11 +2995,21 @@
       <c r="G83" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H83"/>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
+      <c r="H83" t="n">
+        <v>0.17448385001673</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.16973043537392643</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.8062320713086775</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.8729633803410252</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
@@ -3013,11 +3033,21 @@
       <c r="G84" t="n">
         <v>500.0</v>
       </c>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
+      <c r="H84" t="n">
+        <v>0.17601359707675518</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.17122678539057148</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.7558590613015936</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.8731791864881808</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -3041,11 +3071,21 @@
       <c r="G85" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
+      <c r="H85" t="n">
+        <v>0.1915908582044877</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.18640608274769688</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.7774312824636511</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.8731791864881808</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
@@ -3069,11 +3109,21 @@
       <c r="G86" t="n">
         <v>500.0</v>
       </c>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
+      <c r="H86" t="n">
+        <v>0.2542325060006824</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.24725142563481026</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.6826901915291516</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.1811320754716981</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.8824434659941008</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -3097,11 +3147,21 @@
       <c r="G87" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87"/>
+      <c r="H87" t="n">
+        <v>0.2672305847144778</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.2598909120871755</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.6986334050855336</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.1811320754716981</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8824434659941008</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -3125,11 +3185,21 @@
       <c r="G88" t="n">
         <v>500.0</v>
       </c>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
+      <c r="H88" t="n">
+        <v>0.34901157139501665</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.3394127219029048</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.4367337334086816</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.07118055555555555</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.929896199505261</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -3153,11 +3223,21 @@
       <c r="G89" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H89"/>
-      <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89"/>
+      <c r="H89" t="n">
+        <v>0.35681071749449417</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.3469226503183765</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.47154215670297084</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.07118055555555555</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.929896199505261</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
@@ -3181,11 +3261,21 @@
       <c r="G90" t="n">
         <v>500.0</v>
       </c>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
+      <c r="H90" t="n">
+        <v>0.15793985921173137</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.15364563219785884</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.7542047081206025</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.8853911046983117</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -3209,11 +3299,21 @@
       <c r="G91" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H91"/>
-      <c r="I91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91"/>
+      <c r="H91" t="n">
+        <v>0.17286113391270622</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.1681433085203618</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.7932334815615125</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.8853911046983117</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
@@ -3237,11 +3337,21 @@
       <c r="G92" t="n">
         <v>500.0</v>
       </c>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92"/>
+      <c r="H92" t="n">
+        <v>0.1744986743176085</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.16978771432103307</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.7560344233725329</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.8856120830896802</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -3265,11 +3375,21 @@
       <c r="G93" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H93"/>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
+      <c r="H93" t="n">
+        <v>0.19007812032684396</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.184906618741312</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.7805731210346278</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.8856120830896802</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
@@ -3293,11 +3413,21 @@
       <c r="G94" t="n">
         <v>500.0</v>
       </c>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94"/>
+      <c r="H94" t="n">
+        <v>0.25348621829415324</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.24659560474264297</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.6975322299790103</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.894917644796102</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -3321,11 +3451,21 @@
       <c r="G95" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
+      <c r="H95" t="n">
+        <v>0.26623494939000514</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.25889564067087023</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.7114748648514062</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.894917644796102</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
@@ -3349,11 +3489,21 @@
       <c r="G96" t="n">
         <v>500.0</v>
       </c>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
+      <c r="H96" t="n">
+        <v>0.3526695674931145</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.3428983413534665</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.44675714611552025</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.06874115983026874</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.9420162101402118</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -3377,11 +3527,21 @@
       <c r="G97" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
+      <c r="H97" t="n">
+        <v>0.35966806155365133</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.3496305935640569</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4803892151129437</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.06874115983026874</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.9420162101402118</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
@@ -3405,11 +3565,21 @@
       <c r="G98" t="n">
         <v>500.0</v>
       </c>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-      <c r="K98"/>
-      <c r="L98"/>
+      <c r="H98" t="n">
+        <v>0.15670874367571347</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.15241064738566384</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.7491609503756692</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.890251608758386</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -3433,11 +3603,21 @@
       <c r="G99" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
+      <c r="H99" t="n">
+        <v>0.17116844619056337</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.16650838668101092</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.7919593000281807</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.890251608758386</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
@@ -3461,11 +3641,21 @@
       <c r="G100" t="n">
         <v>500.0</v>
       </c>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-      <c r="K100"/>
-      <c r="L100"/>
+      <c r="H100" t="n">
+        <v>0.17354515271941792</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.16880192183904577</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.7497339770206964</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.8904746100232327</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -3489,11 +3679,21 @@
       <c r="G101" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-      <c r="K101"/>
-      <c r="L101"/>
+      <c r="H101" t="n">
+        <v>0.18883481468590316</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.1836338626812887</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.7789001191761878</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.8904746100232327</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -3517,11 +3717,21 @@
       <c r="G102" t="n">
         <v>500.0</v>
       </c>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
-      <c r="K102"/>
-      <c r="L102"/>
+      <c r="H102" t="n">
+        <v>0.25208930744692076</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.24527568227066543</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.6966525796690043</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.8998488062101647</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -3545,11 +3755,21 @@
       <c r="G103" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103"/>
-      <c r="K103"/>
-      <c r="L103"/>
+      <c r="H103" t="n">
+        <v>0.26531829874683227</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.25796466523228967</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.7069248727263748</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.8998488062101647</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -3573,11 +3793,21 @@
       <c r="G104" t="n">
         <v>500.0</v>
       </c>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
-      <c r="K104"/>
-      <c r="L104"/>
+      <c r="H104" t="n">
+        <v>0.35470112615611527</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.34484002305926115</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4607858355832816</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.06731707317073171</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.9470153227237769</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -3601,11 +3831,21 @@
       <c r="G105" t="n">
         <v>1000.0</v>
       </c>
-      <c r="H105"/>
-      <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105"/>
-      <c r="L105"/>
+      <c r="H105" t="n">
+        <v>0.3613374487479014</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.3512514434318476</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.48673634087147133</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.06731707317073171</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.9470153227237769</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
@@ -3629,11 +3869,21 @@
       <c r="G106" t="n">
         <v>500.0</v>
       </c>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106"/>
-      <c r="L106"/>
+      <c r="H106" t="n">
+        <v>0.15394646935302544</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.14973537431698264</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.7475324161791529</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.22254335260115607</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.9035429546388061</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -3658,13 +3908,13 @@
         <v>1000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.13898542682528028</v>
+        <v>0.16857153615036052</v>
       </c>
       <c r="I107" t="n">
-        <v>0.134929391735736</v>
+        <v>0.16389113269707395</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6013976424041769</v>
+        <v>0.7872907603699582</v>
       </c>
       <c r="K107" t="n">
         <v>0.22254335260115607</v>
@@ -3695,11 +3945,21 @@
       <c r="G108" t="n">
         <v>500.0</v>
       </c>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-      <c r="K108"/>
-      <c r="L108"/>
+      <c r="H108" t="n">
+        <v>0.1705642406614633</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.1658973549432869</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.7435151836576498</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.23121387283236994</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.9037714875750057</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -3724,13 +3984,13 @@
         <v>1000.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.15300414001958906</v>
+        <v>0.18557780063419413</v>
       </c>
       <c r="I109" t="n">
-        <v>0.14860702304307857</v>
+        <v>0.1805077316741138</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5969693978840734</v>
+        <v>0.7800004692877001</v>
       </c>
       <c r="K109" t="n">
         <v>0.23121387283236994</v>
@@ -3761,11 +4021,21 @@
       <c r="G110" t="n">
         <v>500.0</v>
       </c>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
-      <c r="K110"/>
-      <c r="L110"/>
+      <c r="H110" t="n">
+        <v>0.25096891931228155</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.24407958846367953</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.6903107959590765</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.1794228356336261</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.913263915972582</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -3790,13 +4060,13 @@
         <v>1000.0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.22620536010758124</v>
+        <v>0.26303176271015055</v>
       </c>
       <c r="I111" t="n">
-        <v>0.21997297080694841</v>
+        <v>0.25578103678818287</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5571114559363932</v>
+        <v>0.7071839820069943</v>
       </c>
       <c r="K111" t="n">
         <v>0.1794228356336261</v>
@@ -3827,11 +4097,21 @@
       <c r="G112" t="n">
         <v>500.0</v>
       </c>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
-      <c r="K112"/>
-      <c r="L112"/>
+      <c r="H112" t="n">
+        <v>0.359376181945992</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.34952226706387934</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.46037559426974645</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.05870368012224628</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.9562036456546683</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -11353,11 +11633,21 @@
       <c r="G344" t="n">
         <v>0.0</v>
       </c>
-      <c r="H344"/>
-      <c r="I344"/>
-      <c r="J344"/>
-      <c r="K344"/>
-      <c r="L344"/>
+      <c r="H344" t="n">
+        <v>0.22011626344158283</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.21366091423480038</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.3902897317922405</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.004317189360857483</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.8549000895423913</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
@@ -11457,11 +11747,21 @@
       <c r="G347" t="n">
         <v>0.0</v>
       </c>
-      <c r="H347"/>
-      <c r="I347"/>
-      <c r="J347"/>
-      <c r="K347"/>
-      <c r="L347"/>
+      <c r="H347" t="n">
+        <v>0.22270053165672005</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.2162377982884121</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.39220839842410044</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.004317189360857483</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0.8549000895423913</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -11561,11 +11861,21 @@
       <c r="G350" t="n">
         <v>0.0</v>
       </c>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
-      <c r="K350"/>
-      <c r="L350"/>
+      <c r="H350" t="n">
+        <v>0.2892608663519212</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.2815089120148268</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.37526612300189294</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.004215392983410389</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0.8536079030256752</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -11779,11 +12089,21 @@
       <c r="G356" t="n">
         <v>0.0</v>
       </c>
-      <c r="H356"/>
-      <c r="I356"/>
-      <c r="J356"/>
-      <c r="K356"/>
-      <c r="L356"/>
+      <c r="H356" t="n">
+        <v>0.22893314796639044</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.22223653621429998</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.3662635930155156</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.0031598602001244795</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.8668469296385315</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -11883,11 +12203,21 @@
       <c r="G359" t="n">
         <v>0.0</v>
       </c>
-      <c r="H359"/>
-      <c r="I359"/>
-      <c r="J359"/>
-      <c r="K359"/>
-      <c r="L359"/>
+      <c r="H359" t="n">
+        <v>0.294812939384832</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.2867800035629033</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.3662883235059227</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.0031096706377014716</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0.8655924883077217</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -10951,11 +10951,21 @@
       <c r="G333" t="n">
         <v>0.0</v>
       </c>
-      <c r="H333"/>
-      <c r="I333"/>
-      <c r="J333"/>
-      <c r="K333"/>
-      <c r="L333"/>
+      <c r="H333" t="n">
+        <v>0.14800988142486787</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.1452742696883043</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.8462513130627363</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.7899159663865546</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.7813465987021229</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -11035,11 +11045,21 @@
       <c r="G336" t="n">
         <v>0.0</v>
       </c>
-      <c r="H336"/>
-      <c r="I336"/>
-      <c r="J336"/>
-      <c r="K336"/>
-      <c r="L336"/>
+      <c r="H336" t="n">
+        <v>0.19553126647801003</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.1919122451267532</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.848097983405701</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.7795918367346939</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0.7814131569787678</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -11139,11 +11139,21 @@
       <c r="G339" t="n">
         <v>0.0</v>
       </c>
-      <c r="H339"/>
-      <c r="I339"/>
-      <c r="J339"/>
-      <c r="K339"/>
-      <c r="L339"/>
+      <c r="H339" t="n">
+        <v>0.450934232244624</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.4426670155933921</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.8314657685898389</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.699009900990099</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0.7890576910145197</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -10447,11 +10447,21 @@
       <c r="G315" t="n">
         <v>0.0</v>
       </c>
-      <c r="H315"/>
-      <c r="I315"/>
-      <c r="J315"/>
-      <c r="K315"/>
-      <c r="L315"/>
+      <c r="H315" t="n">
+        <v>0.14583960488545286</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.14318641404765112</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.8462513130627363</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.7103068772235162</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -10531,11 +10541,21 @@
       <c r="G318" t="n">
         <v>0.0</v>
       </c>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
-      <c r="K318"/>
-      <c r="L318"/>
+      <c r="H318" t="n">
+        <v>0.1926739970504745</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.18916028838395416</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.848097983405701</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0.7103068772235162</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -10615,11 +10635,21 @@
       <c r="G321" t="n">
         <v>0.0</v>
       </c>
-      <c r="H321"/>
-      <c r="I321"/>
-      <c r="J321"/>
-      <c r="K321"/>
-      <c r="L321"/>
+      <c r="H321" t="n">
+        <v>0.4444426918901064</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.4364021458719731</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.8314657685898389</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.643979057591623</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.7227086433288955</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
@@ -10793,11 +10823,21 @@
       <c r="G327" t="n">
         <v>0.0</v>
       </c>
-      <c r="H327"/>
-      <c r="I327"/>
-      <c r="J327"/>
-      <c r="K327"/>
-      <c r="L327"/>
+      <c r="H327" t="n">
+        <v>0.1936120624354038</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.19006853617504646</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.848097983405701</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.7351232371835889</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -10877,11 +10917,21 @@
       <c r="G330" t="n">
         <v>0.0</v>
       </c>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
-      <c r="K330"/>
-      <c r="L330"/>
+      <c r="H330" t="n">
+        <v>0.4465959426417516</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.4384888379904051</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.8314657685898389</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.6330749354005168</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.7479365377687982</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -10195,11 +10195,21 @@
       <c r="G306" t="n">
         <v>0.0</v>
       </c>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
-      <c r="K306"/>
-      <c r="L306"/>
+      <c r="H306" t="n">
+        <v>0.14511033389127898</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.1424831084863354</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.8462513130627363</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.6756315425763354</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -10223,11 +10233,21 @@
       <c r="G307" t="n">
         <v>0.0</v>
       </c>
-      <c r="H307"/>
-      <c r="I307"/>
-      <c r="J307"/>
-      <c r="K307"/>
-      <c r="L307"/>
+      <c r="H307" t="n">
+        <v>0.17447560361944683</v>
+      </c>
+      <c r="I307" t="n">
+        <v>0.1714980895712805</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.8509856918067366</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.6450617283950617</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.6761018217606594</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -10279,11 +10299,21 @@
       <c r="G309" t="n">
         <v>0.0</v>
       </c>
-      <c r="H309"/>
-      <c r="I309"/>
-      <c r="J309"/>
-      <c r="K309"/>
-      <c r="L309"/>
+      <c r="H309" t="n">
+        <v>0.19170956041771536</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.18823004747431252</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.848097983405701</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.7901234567901234</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0.6756315425763354</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
@@ -10307,11 +10337,21 @@
       <c r="G310" t="n">
         <v>0.0</v>
       </c>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
-      <c r="K310"/>
-      <c r="L310"/>
+      <c r="H310" t="n">
+        <v>0.22515246324912755</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.2212462890237275</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.8598833100266072</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.6450617283950617</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.6761018217606594</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -10363,11 +10403,21 @@
       <c r="G312" t="n">
         <v>0.0</v>
       </c>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
-      <c r="K312"/>
-      <c r="L312"/>
+      <c r="H312" t="n">
+        <v>0.442274295921417</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.43430645412658947</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.8314657685898389</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.6412903225806451</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.6875159947563313</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -10391,11 +10441,21 @@
       <c r="G313" t="n">
         <v>0.0</v>
       </c>
-      <c r="H313"/>
-      <c r="I313"/>
-      <c r="J313"/>
-      <c r="K313"/>
-      <c r="L313"/>
+      <c r="H313" t="n">
+        <v>0.456422022066513</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.4477879124922109</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.8156668924241701</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.6396508728179551</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.6878979892719345</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
@@ -10485,11 +10545,21 @@
       <c r="G316" t="n">
         <v>0.0</v>
       </c>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
-      <c r="K316"/>
-      <c r="L316"/>
+      <c r="H316" t="n">
+        <v>0.17536901387749473</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.17236235459255067</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.8509856918067366</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.6958041958041958</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.7104806199962096</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
@@ -10579,11 +10649,21 @@
       <c r="G319" t="n">
         <v>0.0</v>
       </c>
-      <c r="H319"/>
-      <c r="I319"/>
-      <c r="J319"/>
-      <c r="K319"/>
-      <c r="L319"/>
+      <c r="H319" t="n">
+        <v>0.22628185685573798</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.222338253527637</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.8598833100266072</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.6722408026755853</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.7105261809742878</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
@@ -10673,11 +10753,21 @@
       <c r="G322" t="n">
         <v>0.0</v>
       </c>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
-      <c r="K322"/>
-      <c r="L322"/>
+      <c r="H322" t="n">
+        <v>0.4586653352770189</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.4499516750308478</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.8156668924241701</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.6657681940700808</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.7226575755835505</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -10767,11 +10857,21 @@
       <c r="G325" t="n">
         <v>0.0</v>
       </c>
-      <c r="H325"/>
-      <c r="I325"/>
-      <c r="J325"/>
-      <c r="K325"/>
-      <c r="L325"/>
+      <c r="H325" t="n">
+        <v>0.176232948768882</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.17320071115991925</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.8509856918067366</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.7817460317460317</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.7353737908573711</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
@@ -10861,11 +10961,21 @@
       <c r="G328" t="n">
         <v>0.0</v>
       </c>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
-      <c r="K328"/>
-      <c r="L328"/>
+      <c r="H328" t="n">
+        <v>0.2273896645266459</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.22341289643235795</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.8598833100266072</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.7509433962264151</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.7354229085042636</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -10955,11 +11065,21 @@
       <c r="G331" t="n">
         <v>0.0</v>
       </c>
-      <c r="H331"/>
-      <c r="I331"/>
-      <c r="J331"/>
-      <c r="K331"/>
-      <c r="L331"/>
+      <c r="H331" t="n">
+        <v>0.4608996004610442</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.4521074222122258</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.8156668924241701</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.6820083682008368</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.7479373561628824</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -11049,11 +11169,21 @@
       <c r="G334" t="n">
         <v>0.0</v>
       </c>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
-      <c r="K334"/>
-      <c r="L334"/>
+      <c r="H334" t="n">
+        <v>0.17301709854544547</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.1698812655516116</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.8093324259523978</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.781683001013856</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -11143,11 +11273,21 @@
       <c r="G337" t="n">
         <v>0.0</v>
       </c>
-      <c r="H337"/>
-      <c r="I337"/>
-      <c r="J337"/>
-      <c r="K337"/>
-      <c r="L337"/>
+      <c r="H337" t="n">
+        <v>0.2237250787658878</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.2198046923111069</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.8415706424585702</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.7471698113207547</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.781738756363115</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
@@ -11237,11 +11377,21 @@
       <c r="G340" t="n">
         <v>0.0</v>
       </c>
-      <c r="H340"/>
-      <c r="I340"/>
-      <c r="J340"/>
-      <c r="K340"/>
-      <c r="L340"/>
+      <c r="H340" t="n">
+        <v>0.45927021890445907</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.4503846334763228</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.819940091965041</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.6689560439560439</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0.795067681100431</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
@@ -11797,11 +11947,21 @@
       <c r="G360" t="n">
         <v>0.0</v>
       </c>
-      <c r="H360"/>
-      <c r="I360"/>
-      <c r="J360"/>
-      <c r="K360"/>
-      <c r="L360"/>
+      <c r="H360" t="n">
+        <v>0.052516976950749056</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.050926119951165756</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.6501412629104933</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.8837678176889368</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
@@ -12049,11 +12209,21 @@
       <c r="G369" t="n">
         <v>0.0</v>
       </c>
-      <c r="H369"/>
-      <c r="I369"/>
-      <c r="J369"/>
-      <c r="K369"/>
-      <c r="L369"/>
+      <c r="H369" t="n">
+        <v>0.05305599269063974</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.05144415366669064</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.6501412629104933</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0.8962273006998842</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
@@ -12133,11 +12303,21 @@
       <c r="G372" t="n">
         <v>0.0</v>
       </c>
-      <c r="H372"/>
-      <c r="I372"/>
-      <c r="J372"/>
-      <c r="K372"/>
-      <c r="L372"/>
+      <c r="H372" t="n">
+        <v>0.08064998664325394</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.07840497705770334</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.6761549596481236</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.5517241379310345</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0.8962273006998842</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -12217,11 +12397,21 @@
       <c r="G375" t="n">
         <v>0.0</v>
       </c>
-      <c r="H375"/>
-      <c r="I375"/>
-      <c r="J375"/>
-      <c r="K375"/>
-      <c r="L375"/>
+      <c r="H375" t="n">
+        <v>0.29723245860388103</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.2888836726990277</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.7168049317303017</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.3299319727891156</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.9064740599060567</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="s">

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary dynamic (windows,granularity).xlsx
@@ -11443,11 +11443,21 @@
       <c r="G342" t="n">
         <v>0.0</v>
       </c>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
-      <c r="K342"/>
-      <c r="L342"/>
+      <c r="H342" t="n">
+        <v>0.05199411553063696</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.05042956476838498</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.6501412629104933</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.866620005954464</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -11471,11 +11481,21 @@
       <c r="G343" t="n">
         <v>0.0</v>
       </c>
-      <c r="H343"/>
-      <c r="I343"/>
-      <c r="J343"/>
-      <c r="K343"/>
-      <c r="L343"/>
+      <c r="H343" t="n">
+        <v>0.07261064239532782</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.0705295620618563</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.6859130955959826</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.23353293413173654</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0.8668777561811608</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
@@ -11527,11 +11547,21 @@
       <c r="G345" t="n">
         <v>0.0</v>
       </c>
-      <c r="H345"/>
-      <c r="I345"/>
-      <c r="J345"/>
-      <c r="K345"/>
-      <c r="L345"/>
+      <c r="H345" t="n">
+        <v>0.07909204862841146</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.07690897522619757</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.6761549596481236</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.866620005954464</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
@@ -11555,11 +11585,21 @@
       <c r="G346" t="n">
         <v>0.0</v>
       </c>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
-      <c r="K346"/>
-      <c r="L346"/>
+      <c r="H346" t="n">
+        <v>0.09875978823904885</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.09610847128647713</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.7047454715596083</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.23353293413173654</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0.8668777561811608</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -11611,11 +11651,21 @@
       <c r="G348" t="n">
         <v>0.0</v>
       </c>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
-      <c r="K348"/>
-      <c r="L348"/>
+      <c r="H348" t="n">
+        <v>0.2915502313828522</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.2834349216818492</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.7168049317303017</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.27823691460055094</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0.876194103272081</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -11639,11 +11689,21 @@
       <c r="G349" t="n">
         <v>0.0</v>
       </c>
-      <c r="H349"/>
-      <c r="I349"/>
-      <c r="J349"/>
-      <c r="K349"/>
-      <c r="L349"/>
+      <c r="H349" t="n">
+        <v>0.29876097342033564</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.29063840575002264</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.7064554733411735</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.22926829268292684</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.8748718761557563</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -11695,11 +11755,21 @@
       <c r="G351" t="n">
         <v>0.0</v>
       </c>
-      <c r="H351"/>
-      <c r="I351"/>
-      <c r="J351"/>
-      <c r="K351"/>
-      <c r="L351"/>
+      <c r="H351" t="n">
+        <v>0.05225809676434694</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.050681468552386526</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.6501412629104933</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.8789467911184469</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
@@ -11723,11 +11793,21 @@
       <c r="G352" t="n">
         <v>0.0</v>
       </c>
-      <c r="H352"/>
-      <c r="I352"/>
-      <c r="J352"/>
-      <c r="K352"/>
-      <c r="L352"/>
+      <c r="H352" t="n">
+        <v>0.07296987582769035</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.07087267402870724</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.6859130955959826</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.8785064769069444</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -11779,11 +11859,21 @@
       <c r="G354" t="n">
         <v>0.0</v>
       </c>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
-      <c r="K354"/>
-      <c r="L354"/>
+      <c r="H354" t="n">
+        <v>0.07947922309790952</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.07728072907836685</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.6761549596481236</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.8789467911184469</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -11807,11 +11897,21 @@
       <c r="G355" t="n">
         <v>0.0</v>
       </c>
-      <c r="H355"/>
-      <c r="I355"/>
-      <c r="J355"/>
-      <c r="K355"/>
-      <c r="L355"/>
+      <c r="H355" t="n">
+        <v>0.09923941423476235</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.09656945434645618</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.7047454715596083</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0.8785064769069444</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -11863,11 +11963,21 @@
       <c r="G357" t="n">
         <v>0.0</v>
       </c>
-      <c r="H357"/>
-      <c r="I357"/>
-      <c r="J357"/>
-      <c r="K357"/>
-      <c r="L357"/>
+      <c r="H357" t="n">
+        <v>0.29298216276702393</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.2848117449776265</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.7168049317303017</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.27548209366391185</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.8885445478055307</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
@@ -11891,11 +12001,21 @@
       <c r="G358" t="n">
         <v>0.0</v>
       </c>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
-      <c r="K358"/>
-      <c r="L358"/>
+      <c r="H358" t="n">
+        <v>0.3001826856290282</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.2920073520969115</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.7064554733411735</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.2713864306784661</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.8873085512457037</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -11985,11 +12105,21 @@
       <c r="G361" t="n">
         <v>0.0</v>
       </c>
-      <c r="H361"/>
-      <c r="I361"/>
-      <c r="J361"/>
-      <c r="K361"/>
-      <c r="L361"/>
+      <c r="H361" t="n">
+        <v>0.07331902431617288</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.07120701151667837</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.6859130955959826</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.8833217689807544</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
@@ -12041,11 +12171,21 @@
       <c r="G363" t="n">
         <v>0.0</v>
       </c>
-      <c r="H363"/>
-      <c r="I363"/>
-      <c r="J363"/>
-      <c r="K363"/>
-      <c r="L363"/>
+      <c r="H363" t="n">
+        <v>0.07985507817864552</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.07763928925725423</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.6761549596481236</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.26573426573426573</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.8837678176889368</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
@@ -12069,11 +12209,21 @@
       <c r="G364" t="n">
         <v>0.0</v>
       </c>
-      <c r="H364"/>
-      <c r="I364"/>
-      <c r="J364"/>
-      <c r="K364"/>
-      <c r="L364"/>
+      <c r="H364" t="n">
+        <v>0.09970570359211323</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.09701702022479815</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.7047454715596083</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.8833217689807544</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
@@ -12125,11 +12275,21 @@
       <c r="G366" t="n">
         <v>0.0</v>
       </c>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
-      <c r="K366"/>
-      <c r="L366"/>
+      <c r="H366" t="n">
+        <v>0.2943963462131244</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.2861704407071733</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.7168049317303017</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.27548209366391185</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.8933782504534902</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -12153,11 +12313,21 @@
       <c r="G367" t="n">
         <v>0.0</v>
       </c>
-      <c r="H367"/>
-      <c r="I367"/>
-      <c r="J367"/>
-      <c r="K367"/>
-      <c r="L367"/>
+      <c r="H367" t="n">
+        <v>0.30160180620089827</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.293373426815759</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.7064554733411735</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.2847682119205298</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0.8916808167311769</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
@@ -12247,11 +12417,21 @@
       <c r="G370" t="n">
         <v>0.0</v>
       </c>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
-      <c r="K370"/>
-      <c r="L370"/>
+      <c r="H370" t="n">
+        <v>0.0696952264226512</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.06761498057013633</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.6325588662259066</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.896489479917154</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -12341,11 +12521,21 @@
       <c r="G373" t="n">
         <v>0.0</v>
       </c>
-      <c r="H373"/>
-      <c r="I373"/>
-      <c r="J373"/>
-      <c r="K373"/>
-      <c r="L373"/>
+      <c r="H373" t="n">
+        <v>0.09519283355328775</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.09255477306678758</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.6436896047606506</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.896489479917154</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
@@ -12435,11 +12625,21 @@
       <c r="G376" t="n">
         <v>0.0</v>
       </c>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
-      <c r="K376"/>
-      <c r="L376"/>
+      <c r="H376" t="n">
+        <v>0.29849768525056053</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.2901463292373488</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.7080323763941035</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.2847682119205298</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.9049906662307392</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
